--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
@@ -87,2112 +87,2112 @@
 Site: www.evapore.com.br</t>
   </si>
   <si>
+    <t>vestidobataverdelistrasfv18-03039P8O7</t>
+  </si>
+  <si>
+    <t>vestidotranspassadovnhjlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadorsjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezbrcjlh18</t>
+  </si>
+  <si>
+    <t>macacaodecotestmpprtjlh18</t>
+  </si>
+  <si>
+    <t>blusalistrasbrancajlh18</t>
+  </si>
+  <si>
+    <t>blusamalharosajlh18</t>
+  </si>
+  <si>
+    <t>macacaodecotestmpvnhjlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadoazljlh18</t>
+  </si>
+  <si>
+    <t>vestidolistrasazulv17</t>
+  </si>
+  <si>
+    <t>vestidolistrasvermelho17-79TTOKM0F</t>
+  </si>
+  <si>
+    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedbgjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezprtjlh18</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
+  </si>
+  <si>
+    <t>saiasuedjlh18</t>
+  </si>
+  <si>
+    <t>blusaamplacrepevrdjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedcafejlh18</t>
+  </si>
+  <si>
+    <t>blusaamplacrepeazljlh18</t>
+  </si>
+  <si>
+    <t>kimonopontoabril18</t>
+  </si>
+  <si>
+    <t>bataciganinhavrmlhfv18</t>
+  </si>
+  <si>
+    <t>calcapantacourtcinzfv18</t>
+  </si>
+  <si>
+    <t>kimonoglamfv18</t>
+  </si>
+  <si>
+    <t>shortestampadopretofv18</t>
+  </si>
+  <si>
+    <t>camisaestampadaptfv18</t>
+  </si>
+  <si>
+    <t>blusaalcinhavrdlstrjlh18</t>
+  </si>
+  <si>
+    <t>saiapareoorabolasbrancav17</t>
+  </si>
+  <si>
+    <t>casacoassimetricoscarletcnzfv18</t>
+  </si>
+  <si>
+    <t>saiaenvelopeverdemusgofv18</t>
+  </si>
+  <si>
+    <t>EZ6TF7C7F</t>
+  </si>
+  <si>
+    <t>3RYQVNVX4</t>
+  </si>
+  <si>
+    <t>INT-MAC-COL-PT</t>
+  </si>
+  <si>
+    <t>blusaniponicafv18</t>
+  </si>
+  <si>
+    <t>bataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>calcaxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>macacaorecortespretofv18</t>
+  </si>
+  <si>
+    <t>calcapantacourtprtfv18</t>
+  </si>
+  <si>
+    <t>blusamalhabegejlh18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrmjlh18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrdjlh18</t>
+  </si>
+  <si>
+    <t>kimonotulegoiabajlh18</t>
+  </si>
+  <si>
+    <t>blusacreperosafv18</t>
+  </si>
+  <si>
+    <t>macacaosoltolinhopretofv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
+  </si>
+  <si>
+    <t>bataflorpraiafv18</t>
+  </si>
+  <si>
+    <t>FWA4UDCHX</t>
+  </si>
+  <si>
+    <t>TOP-BL-DOLC-CN-BG</t>
+  </si>
+  <si>
+    <t>BOT-CA-PESC-AZ</t>
+  </si>
+  <si>
+    <t>camisasocialasafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaocrjfv18</t>
+  </si>
+  <si>
+    <t>camisasocialasabrancafv18</t>
+  </si>
+  <si>
+    <t>cardiganlilasmrc18</t>
+  </si>
+  <si>
+    <t>saiaestampadapretafv18</t>
+  </si>
+  <si>
+    <t>macacaorecortesvermelhofv18</t>
+  </si>
+  <si>
+    <t>calcaalfpescadortelhafv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-NAV-BC</t>
+  </si>
+  <si>
+    <t>SaiaPantacourt</t>
+  </si>
+  <si>
+    <t>vestidopoabotoesmrc18</t>
+  </si>
+  <si>
+    <t>macacaorecortesv17</t>
+  </si>
+  <si>
+    <t>vestidonofv18</t>
+  </si>
+  <si>
+    <t>blazerdelinhopretofv18</t>
+  </si>
+  <si>
+    <t>blusaverdelistrasjlh18</t>
+  </si>
+  <si>
+    <t>vestidolastexciganinhafv18</t>
+  </si>
+  <si>
+    <t>vestidolongolistrasfv18</t>
+  </si>
+  <si>
+    <t>blusanobotfv18-u</t>
+  </si>
+  <si>
+    <t>topmalhabrcjlh18</t>
+  </si>
+  <si>
+    <t>topmalhaprtjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinamalhajlh18</t>
+  </si>
+  <si>
+    <t>calcamalhabrcjlh18</t>
+  </si>
+  <si>
+    <t>vestidolongoestampaobfv18</t>
+  </si>
+  <si>
+    <t>TOP-CAS-JAQ-PT</t>
+  </si>
+  <si>
+    <t>calcaalfprtfv18</t>
+  </si>
+  <si>
+    <t>INT-LONG-BOHO-BR</t>
+  </si>
+  <si>
+    <t>DB572WFUV</t>
+  </si>
+  <si>
+    <t>vestidomood70smaio18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-JNS</t>
+  </si>
+  <si>
+    <t>vestidokimonopretofv18</t>
+  </si>
+  <si>
+    <t>macacaoalcascruzadasfv18</t>
+  </si>
+  <si>
+    <t>calcaflaraalffv18</t>
+  </si>
+  <si>
+    <t>camisasclrosamrc18</t>
+  </si>
+  <si>
+    <t>TOP-CAS-JAQ-AZ</t>
+  </si>
+  <si>
+    <t>vestidoamarracaoprtjnh18</t>
+  </si>
+  <si>
+    <t>casacorosaquartzfv18</t>
+  </si>
+  <si>
+    <t>BOT-SAI-FEN-PR</t>
+  </si>
+  <si>
+    <t>jardineiratramadobegefv18</t>
+  </si>
+  <si>
+    <t>vestidoazulsereiafv18</t>
+  </si>
+  <si>
+    <t>camisasgoiabamrc18</t>
+  </si>
+  <si>
+    <t>calcapantacourtviscosejlh18</t>
+  </si>
+  <si>
+    <t>blusanobrancav17</t>
+  </si>
+  <si>
+    <t>camisanopretav17-EEHOA275U</t>
+  </si>
+  <si>
+    <t>camisanobrancav17</t>
+  </si>
+  <si>
+    <t>INT-VES-KAF-NOS</t>
+  </si>
+  <si>
+    <t>bodydecotadopretofv18-B53RI9TBI</t>
+  </si>
+  <si>
+    <t>vestidoamarracaolbrtjnh18</t>
+  </si>
+  <si>
+    <t>vestidobasicorosafv18</t>
+  </si>
+  <si>
+    <t>TOP-REG-LINH-BR</t>
+  </si>
+  <si>
+    <t>jardineiratramadovermelhofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeuvafv18</t>
+  </si>
+  <si>
+    <t>macacaosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>kimonoestampabotanicmrc18</t>
+  </si>
+  <si>
+    <t>vestidoestamppretofv18</t>
+  </si>
+  <si>
+    <t>vestidosinoblazljlh18</t>
+  </si>
+  <si>
+    <t>shortbotaoduplopretofv18</t>
+  </si>
+  <si>
+    <t>shortestampadoxadrezfv18</t>
+  </si>
+  <si>
+    <t>macacaojuliev17</t>
+  </si>
+  <si>
+    <t>TOP-CAS-MET-PT</t>
+  </si>
+  <si>
+    <t>macaquinhosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>blusaalcinhav17</t>
+  </si>
+  <si>
+    <t>saiatranspassadatamunicofv18</t>
+  </si>
+  <si>
+    <t>camisasociallinholistrasv17</t>
+  </si>
+  <si>
+    <t>vestidonov17</t>
+  </si>
+  <si>
+    <t>INT-VES-ENV-BR</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-CR</t>
+  </si>
+  <si>
+    <t>ShortPescadorVerdev17</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-AZ</t>
+  </si>
+  <si>
+    <t>ShortSaiaBabyBluev17</t>
+  </si>
+  <si>
+    <t>blusabataabacaxisfv18</t>
+  </si>
+  <si>
+    <t>blusabatabrisadeverao</t>
+  </si>
+  <si>
+    <t>bataciganinhaptfv18</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18</t>
+  </si>
+  <si>
+    <t>camisasocifrufrufv18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-PT</t>
+  </si>
+  <si>
+    <t>blusabataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>vestidonocurtocrufv18</t>
+  </si>
+  <si>
+    <t>BOT-SAI-TRAM-BG</t>
+  </si>
+  <si>
+    <t>blusapretabasicafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaoptfv18</t>
+  </si>
+  <si>
+    <t>macacaobotoesorabolasv17</t>
+  </si>
+  <si>
+    <t>macacaopantalonapretov171</t>
+  </si>
+  <si>
+    <t>bodydecotadobrancofv18</t>
+  </si>
+  <si>
+    <t>camisasclasaazulmrc18</t>
+  </si>
+  <si>
+    <t>bodygolapretofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeazuljlh18</t>
+  </si>
+  <si>
+    <t>TOP-BLZ-TRA-VM</t>
+  </si>
+  <si>
+    <t>TOP-BL-LINHX-BC</t>
+  </si>
+  <si>
+    <t>VE-LIS-RT-46-2016</t>
+  </si>
+  <si>
+    <t>vestidoverdesereiafv18</t>
+  </si>
+  <si>
     <t>camisasclbegemrc18</t>
   </si>
   <si>
-    <t>vestidolongoestampaobfv18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-JNS</t>
+    <t>blusacrepelavandajlh18</t>
+  </si>
+  <si>
+    <t>blusacomfypoamrc18</t>
+  </si>
+  <si>
+    <t>blusacomfylistrasmrc18</t>
+  </si>
+  <si>
+    <t>casacoassimetricobabybluev17</t>
+  </si>
+  <si>
+    <t>vestidobataestampadoverdefv18</t>
+  </si>
+  <si>
+    <t>INT-LONG-BOHO-PT</t>
+  </si>
+  <si>
+    <t>VE-AQ-48</t>
+  </si>
+  <si>
+    <t>SaiaPareoFloralv17</t>
+  </si>
+  <si>
+    <t>vestidokaftalistrasv17</t>
   </si>
   <si>
     <t>kimonoestampadomrc18</t>
   </si>
   <si>
-    <t>SaiaPareoFloralv17</t>
-  </si>
-  <si>
-    <t>macacaosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>VE-LIS-RT-46-2016</t>
-  </si>
-  <si>
-    <t>INT-LONG-BOHO-BR</t>
-  </si>
-  <si>
-    <t>blusapretabasicafv18</t>
-  </si>
-  <si>
-    <t>macacaobotoesorabolasv17</t>
-  </si>
-  <si>
-    <t>INT-VES-ENV-BR</t>
-  </si>
-  <si>
-    <t>macaquinhosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>vestidonocurtocrufv18</t>
-  </si>
-  <si>
-    <t>camisasociallinholistrasv17</t>
-  </si>
-  <si>
-    <t>macacaoalcascruzadasfv18</t>
-  </si>
-  <si>
-    <t>macacaopantalonapretov171</t>
-  </si>
-  <si>
-    <t>macacaojuliev17</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18</t>
-  </si>
-  <si>
-    <t>blusacomfylistrasmrc18</t>
-  </si>
-  <si>
-    <t>casacoassimetricobabybluev17</t>
-  </si>
-  <si>
-    <t>vestidobataestampadoverdefv18</t>
-  </si>
-  <si>
-    <t>vestidoverdesereiafv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-LINHX-BC</t>
-  </si>
-  <si>
-    <t>TOP-BLZ-TRA-VM</t>
-  </si>
-  <si>
-    <t>bodydecotadobrancofv18</t>
-  </si>
-  <si>
-    <t>VE-AQ-48</t>
-  </si>
-  <si>
-    <t>INT-LONG-BOHO-PT</t>
-  </si>
-  <si>
-    <t>vestidoazulsereiafv18</t>
-  </si>
-  <si>
     <t>calcaalfocrefv18</t>
   </si>
   <si>
-    <t>TOP-REG-LINH-BR</t>
-  </si>
-  <si>
-    <t>vestidoestamppretofv18</t>
-  </si>
-  <si>
-    <t>TOP-CAS-JAQ-PT</t>
-  </si>
-  <si>
-    <t>vestidoamarracaoprtjnh18</t>
-  </si>
-  <si>
-    <t>vestidobasicorosafv18</t>
-  </si>
-  <si>
-    <t>casacorosaquartzfv18</t>
-  </si>
-  <si>
-    <t>BOT-SAI-TRAM-BG</t>
-  </si>
-  <si>
-    <t>camisanobrancav17</t>
-  </si>
-  <si>
-    <t>blusacomfypoamrc18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaoptfv18</t>
-  </si>
-  <si>
-    <t>TOP-CAS-MET-PT</t>
-  </si>
-  <si>
-    <t>bataciganinhaptfv18</t>
-  </si>
-  <si>
-    <t>BOT-SAI-FEN-PR</t>
-  </si>
-  <si>
-    <t>jardineiratramadobegefv18</t>
-  </si>
-  <si>
-    <t>vestidonov17</t>
-  </si>
-  <si>
-    <t>vestidokaftalistrasv17</t>
-  </si>
-  <si>
-    <t>INT-VES-KAF-NOS</t>
-  </si>
-  <si>
-    <t>TOP-CAS-JAQ-AZ</t>
-  </si>
-  <si>
-    <t>vestidoamarracaolbrtjnh18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-CR</t>
-  </si>
-  <si>
-    <t>shortbotaoduplopretofv18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-AZ</t>
-  </si>
-  <si>
-    <t>saiatranspassadatamunicofv18</t>
-  </si>
-  <si>
-    <t>jardineiratramadovermelhofv18</t>
-  </si>
-  <si>
-    <t>calcaalfprtfv18</t>
-  </si>
-  <si>
-    <t>vestidomood70smaio18</t>
-  </si>
-  <si>
-    <t>blusabataabacaxisfv18</t>
-  </si>
-  <si>
-    <t>ShortPescadorVerdev17</t>
-  </si>
-  <si>
-    <t>blusabatabrisadeverao</t>
-  </si>
-  <si>
-    <t>ShortSaiaBabyBluev17</t>
-  </si>
-  <si>
-    <t>shortestampadoxadrezfv18</t>
-  </si>
-  <si>
-    <t>blusabataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-PT</t>
-  </si>
-  <si>
-    <t>blusaalcinhav17</t>
-  </si>
-  <si>
-    <t>camisasocifrufrufv18</t>
-  </si>
-  <si>
-    <t>bataciganinhavrmlhfv18</t>
-  </si>
-  <si>
-    <t>calcapantacourtcinzfv18</t>
-  </si>
-  <si>
-    <t>calcaxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>bataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>saiapareoorabolasbrancav17</t>
-  </si>
-  <si>
-    <t>blusacreperosafv18</t>
-  </si>
-  <si>
-    <t>kimonoglamfv18</t>
-  </si>
-  <si>
-    <t>kimonotulegoiabajlh18</t>
-  </si>
-  <si>
-    <t>bataflorpraiafv18</t>
-  </si>
-  <si>
-    <t>kimonopontoabril18</t>
-  </si>
-  <si>
-    <t>saiasuedjlh18</t>
-  </si>
-  <si>
-    <t>vestidobataverdelistrasfv18-03039P8O7</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
-  </si>
-  <si>
-    <t>blusaamplacrepeazljlh18</t>
-  </si>
-  <si>
-    <t>blusaamplacrepevrdjlh18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrmjlh18</t>
-  </si>
-  <si>
-    <t>blusamalhabegejlh18</t>
-  </si>
-  <si>
-    <t>TOP-BL-DOLC-CN-BG</t>
-  </si>
-  <si>
-    <t>blusaalcinhavrdlstrjlh18</t>
-  </si>
-  <si>
-    <t>macacaorecortespretofv18</t>
-  </si>
-  <si>
-    <t>calcapantacourtprtfv18</t>
-  </si>
-  <si>
-    <t>macacaosoltolinhopretofv18</t>
-  </si>
-  <si>
-    <t>shortestampadopretofv18</t>
-  </si>
-  <si>
-    <t>FWA4UDCHX</t>
-  </si>
-  <si>
-    <t>saiaenvelopeverdemusgofv18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrdjlh18</t>
-  </si>
-  <si>
-    <t>casacoassimetricoscarletcnzfv18</t>
-  </si>
-  <si>
-    <t>camisaestampadaptfv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedbgjlh18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpprtjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezbrcjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezprtjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpvnhjlh18</t>
-  </si>
-  <si>
-    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
-  </si>
-  <si>
-    <t>vestidolistrasazulv17</t>
-  </si>
-  <si>
-    <t>vestidolistrasvermelho17-79TTOKM0F</t>
-  </si>
-  <si>
-    <t>vestidotranspassadorsjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadovnhjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadoazljlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedcafejlh18</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
-  </si>
-  <si>
-    <t>blusacrepeuvafv18</t>
-  </si>
-  <si>
-    <t>blusacrepeazuljlh18</t>
-  </si>
-  <si>
-    <t>bodygolapretofv18</t>
-  </si>
-  <si>
-    <t>camisasclasaazulmrc18</t>
-  </si>
-  <si>
-    <t>camisasclrosamrc18</t>
-  </si>
-  <si>
-    <t>calcaflaraalffv18</t>
-  </si>
-  <si>
-    <t>blusamalharosajlh18</t>
-  </si>
-  <si>
-    <t>blusalistrasbrancajlh18</t>
-  </si>
-  <si>
-    <t>blusacrepelavandajlh18</t>
-  </si>
-  <si>
-    <t>blusanobotfv18-u</t>
-  </si>
-  <si>
-    <t>TOP-BL-NAV-BC</t>
-  </si>
-  <si>
-    <t>SaiaPantacourt</t>
-  </si>
-  <si>
-    <t>blusaverdelistrasjlh18</t>
-  </si>
-  <si>
-    <t>vestidolastexciganinhafv18</t>
-  </si>
-  <si>
-    <t>INT-MAC-COL-PT</t>
-  </si>
-  <si>
-    <t>vestidolongolistrasfv18</t>
-  </si>
-  <si>
-    <t>vestidopoabotoesmrc18</t>
-  </si>
-  <si>
-    <t>macacaorecortesv17</t>
-  </si>
-  <si>
-    <t>vestidonofv18</t>
-  </si>
-  <si>
-    <t>blazerdelinhopretofv18</t>
-  </si>
-  <si>
-    <t>blusaniponicafv18</t>
-  </si>
-  <si>
-    <t>BOT-CA-PESC-AZ</t>
-  </si>
-  <si>
-    <t>camisasocialasafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaocrjfv18</t>
-  </si>
-  <si>
-    <t>camisasocialasabrancafv18</t>
-  </si>
-  <si>
-    <t>cardiganlilasmrc18</t>
-  </si>
-  <si>
-    <t>saiaestampadapretafv18</t>
-  </si>
-  <si>
-    <t>macacaorecortesvermelhofv18</t>
-  </si>
-  <si>
-    <t>calcaalfpescadortelhafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadopretofv18-B53RI9TBI</t>
-  </si>
-  <si>
-    <t>vestidosinoblazljlh18</t>
-  </si>
-  <si>
-    <t>calcapantacourtviscosejlh18</t>
-  </si>
-  <si>
-    <t>camisanopretav17-EEHOA275U</t>
-  </si>
-  <si>
-    <t>DB572WFUV</t>
-  </si>
-  <si>
-    <t>kimonoestampabotanicmrc18</t>
-  </si>
-  <si>
-    <t>blusanobrancav17</t>
-  </si>
-  <si>
-    <t>vestidokimonopretofv18</t>
-  </si>
-  <si>
-    <t>camisasgoiabamrc18</t>
-  </si>
-  <si>
-    <t>topmalhabrcjlh18</t>
-  </si>
-  <si>
-    <t>topmalhaprtjlh18</t>
-  </si>
-  <si>
-    <t>calcamalhabrcjlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinamalhajlh18</t>
-  </si>
-  <si>
-    <t>3RYQVNVX4</t>
-  </si>
-  <si>
-    <t>EZ6TF7C7F</t>
+    <t>Vestido Bata Verde Listras</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Rosê</t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Branco</t>
+  </si>
+  <si>
+    <t>Macacão Decote Estampado Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Listras Branca</t>
+  </si>
+  <si>
+    <t>Blusa Malha Rosa</t>
+  </si>
+  <si>
+    <t>Macacão Decote Estampado Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Azul Marinho</t>
+  </si>
+  <si>
+    <t>Vestido Listras Azul</t>
+  </si>
+  <si>
+    <t>Vestido Listras Vermelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Transpassada Creme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Cinza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Xadrez Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
+  </si>
+  <si>
+    <t>Saia Sued</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Verde</t>
+  </si>
+  <si>
+    <t>Calça Bailarina Sued Café</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Azul Marinho</t>
+  </si>
+  <si>
+    <t>Kimono Pontos</t>
+  </si>
+  <si>
+    <t>Bata Ciganinha Vermelha</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Cinza</t>
+  </si>
+  <si>
+    <t>Kimono Glam</t>
+  </si>
+  <si>
+    <t>Short Estampado Preto</t>
+  </si>
+  <si>
+    <t>Camisa Estampada Preto</t>
+  </si>
+  <si>
+    <t>Blusa Alcinha Verde Listrada</t>
+  </si>
+  <si>
+    <t>Saia Pareô Branca Ora Bolas</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Scarlet Cinza</t>
+  </si>
+  <si>
+    <t>Saia Envelope Verde Musgo</t>
+  </si>
+  <si>
+    <t>Vestido Longo de Linho Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedido angelica pagamento troca </t>
+  </si>
+  <si>
+    <t>Macacão Colana</t>
+  </si>
+  <si>
+    <t>Blusa Nipônica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Xadrez Cinza </t>
+  </si>
+  <si>
+    <t>Macacão Recortes Preto</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blusa Malha Bege </t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Vermelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casaco Assimétrico Verde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimono Tule Goiaba </t>
+  </si>
+  <si>
+    <t>Blusa Crepe Rosa</t>
+  </si>
+  <si>
+    <t>Macacão Solto Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Transpassada Estampado</t>
+  </si>
+  <si>
+    <t>Bata Flor da Praia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa dolce canelada branca</t>
+  </si>
+  <si>
+    <t>Blusa dolce canelada bege</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador azul marinho</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Listras</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Cereja</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Branca</t>
+  </si>
+  <si>
+    <t>Cardigan Lilás</t>
+  </si>
+  <si>
+    <t>Saia Estampada Preta</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Vermelho</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador Telha</t>
+  </si>
+  <si>
+    <t>Blusa Estampa Navegar</t>
+  </si>
+  <si>
+    <t>Saia Pantacourt</t>
+  </si>
+  <si>
+    <t>Vestido Poá Botões</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Nó Melancia</t>
+  </si>
+  <si>
+    <t>Blazer de Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Verde Listras</t>
+  </si>
+  <si>
+    <t>Vestido Lastex Ciganinha</t>
+  </si>
+  <si>
+    <t>Vestido Longo Listras</t>
+  </si>
+  <si>
+    <t>Blusa Nó Botânica Rosa</t>
+  </si>
+  <si>
+    <t>Top Malha Branco</t>
+  </si>
+  <si>
+    <t>Top Malha Preto</t>
+  </si>
+  <si>
+    <t>Calça Bailarina Malha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Malha Branca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Longo Estampa Ora Bolas</t>
+  </si>
+  <si>
+    <t>Casaco Capitão em Jacquard preto</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Preta</t>
+  </si>
+  <si>
+    <t>Vestido Longo Boho branco</t>
+  </si>
+  <si>
+    <t>kimono Veludo Devorê</t>
+  </si>
+  <si>
+    <t>Vestido Mood 70S</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho jeans</t>
+  </si>
+  <si>
+    <t>Vestido Kimono Preto</t>
+  </si>
+  <si>
+    <t>Macacão Alças Cruzadas</t>
+  </si>
+  <si>
+    <t>Calça Flare Alfaiataria Creme</t>
+  </si>
+  <si>
+    <t>Camisa Social Rosa</t>
+  </si>
+  <si>
+    <t>Casaco Capitão em Jacquard azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Amarração Preto</t>
+  </si>
+  <si>
+    <t>Casaco Rosa Quartz</t>
+  </si>
+  <si>
+    <t>Saia Fenda Preta</t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Bege</t>
+  </si>
+  <si>
+    <t>Vestido Sereia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Camisa Social Goiaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Pantacourt Viscose </t>
+  </si>
+  <si>
+    <t>Blusa Nó Branca</t>
+  </si>
+  <si>
+    <t>Camisa Nó Preta</t>
+  </si>
+  <si>
+    <t>Camisa Nó Branca</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Estampa Nós</t>
+  </si>
+  <si>
+    <t>Body Decotado Preto</t>
+  </si>
+  <si>
+    <t>Vestido Amarração Liberty</t>
+  </si>
+  <si>
+    <t>Vestido Básico Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regata soltinha </t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Uva</t>
+  </si>
+  <si>
+    <t>Macacão Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Kimono Estampa Botanic</t>
+  </si>
+  <si>
+    <t>Vestido Estampado Preto</t>
+  </si>
+  <si>
+    <t>Vestido Sino Bolas Azul</t>
+  </si>
+  <si>
+    <t>Short Botão Duplo Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Short Estampado Xadrez</t>
+  </si>
+  <si>
+    <t>Macacão Julie</t>
+  </si>
+  <si>
+    <t>Casaco Matelassê Preto</t>
+  </si>
+  <si>
+    <t>Macaquinho Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Blusa Alcinha Verde</t>
+  </si>
+  <si>
+    <t>Saia Transpassada Tamanho Único</t>
+  </si>
+  <si>
+    <t>Camisa Cropped de Linho Listrada</t>
+  </si>
+  <si>
+    <t>Vestido Nó Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Envelope branco</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho creme</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Verde</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Linho Azul Listrado</t>
+  </si>
+  <si>
+    <t>Short Saia Azul Serenity</t>
+  </si>
+  <si>
+    <t>Blusa Bata Abacaxis</t>
+  </si>
+  <si>
+    <t>Blusa Bata Brisa de verão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Preta</t>
+  </si>
+  <si>
+    <t>Macacão Malha Transpassado</t>
+  </si>
+  <si>
+    <t>Camisa Social Manga Frufru</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho preto</t>
+  </si>
+  <si>
+    <t>Blusa Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t>Vestido Nó Curto Cru</t>
+  </si>
+  <si>
+    <t>Saia tramado creme</t>
+  </si>
+  <si>
+    <t>Blusa Preta Básica</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Preto</t>
+  </si>
+  <si>
+    <t>Macacão Botões Ora Bolas</t>
+  </si>
+  <si>
+    <t>Macacão Pantalona Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Body Decotado Branco</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Azul</t>
+  </si>
+  <si>
+    <t>Body Gola Preto</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Azul</t>
+  </si>
+  <si>
+    <t>Blazer Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa decote X nas costas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Sereia Verde Pérola</t>
   </si>
   <si>
     <t>Camisa Social Bege</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vestido Longo Estampa Ora Bolas</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho jeans</t>
+    <t>Blusa Crepe Lavanda</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Poá</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Listras</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico  Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Bata Estampado Verde</t>
+  </si>
+  <si>
+    <t>Vestido Longo Boho preto</t>
+  </si>
+  <si>
+    <t>Vestido recorte assimétrico azul marinho</t>
+  </si>
+  <si>
+    <t>Saia Pareô Floral</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Listras</t>
   </si>
   <si>
     <t xml:space="preserve"> Kimono Estampado</t>
   </si>
   <si>
-    <t>Saia Pareô Floral</t>
-  </si>
-  <si>
-    <t>Macacão Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Longo Boho branco</t>
-  </si>
-  <si>
-    <t>Blusa Preta Básica</t>
-  </si>
-  <si>
-    <t>Macacão Botões Ora Bolas</t>
-  </si>
-  <si>
-    <t>Vestido Envelope branco</t>
-  </si>
-  <si>
-    <t>Macaquinho Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t>Vestido Nó Curto Cru</t>
-  </si>
-  <si>
-    <t>Camisa Cropped de Linho Listrada</t>
-  </si>
-  <si>
-    <t>Macacão Alças Cruzadas</t>
-  </si>
-  <si>
-    <t>Macacão Pantalona Preto</t>
-  </si>
-  <si>
-    <t>Macacão Julie</t>
-  </si>
-  <si>
-    <t>Macacão Malha Transpassado</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Listras</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico  Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Bata Estampado Verde</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Verde Pérola</t>
-  </si>
-  <si>
-    <t>Blusa decote X nas costas</t>
-  </si>
-  <si>
-    <t>Blazer Tramado Vermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Body Decotado Branco</t>
-  </si>
-  <si>
-    <t>Vestido recorte assimétrico azul marinho</t>
-  </si>
-  <si>
-    <t>Vestido Longo Boho preto</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Azul</t>
-  </si>
-  <si>
     <t>Calça Alfaiataria Ocre</t>
   </si>
   <si>
-    <t xml:space="preserve">Regata soltinha </t>
-  </si>
-  <si>
-    <t>Vestido Estampado Preto</t>
-  </si>
-  <si>
-    <t>Casaco Capitão em Jacquard preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Amarração Preto</t>
-  </si>
-  <si>
-    <t>Vestido Básico Rosa</t>
-  </si>
-  <si>
-    <t>Casaco Rosa Quartz</t>
-  </si>
-  <si>
-    <t>Saia tramado creme</t>
-  </si>
-  <si>
-    <t>Camisa Nó Branca</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Poá</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Preto</t>
-  </si>
-  <si>
-    <t>Casaco Matelassê Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Preta</t>
-  </si>
-  <si>
-    <t>Saia Fenda Preta</t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Bege</t>
-  </si>
-  <si>
-    <t>Vestido Nó Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Listras</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Estampa Nós</t>
-  </si>
-  <si>
-    <t>Casaco Capitão em Jacquard azul</t>
-  </si>
-  <si>
-    <t>Vestido Amarração Liberty</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho creme</t>
-  </si>
-  <si>
-    <t>Short Botão Duplo Preto</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Linho Azul Listrado</t>
-  </si>
-  <si>
-    <t>Saia Transpassada Tamanho Único</t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Preta</t>
-  </si>
-  <si>
-    <t>Vestido Mood 70S</t>
-  </si>
-  <si>
-    <t>Blusa Bata Abacaxis</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Verde</t>
-  </si>
-  <si>
-    <t>Blusa Bata Brisa de verão</t>
-  </si>
-  <si>
-    <t>Short Saia Azul Serenity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Short Estampado Xadrez</t>
-  </si>
-  <si>
-    <t>Blusa Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho preto</t>
-  </si>
-  <si>
-    <t>Blusa Alcinha Verde</t>
-  </si>
-  <si>
-    <t>Camisa Social Manga Frufru</t>
-  </si>
-  <si>
-    <t>Bata Ciganinha Vermelha</t>
-  </si>
-  <si>
-    <t>Calça Pantacourt Linho Cinza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Xadrez Cinza </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t>Saia Pareô Branca Ora Bolas</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Rosa</t>
-  </si>
-  <si>
-    <t>Kimono Glam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimono Tule Goiaba </t>
-  </si>
-  <si>
-    <t>Bata Flor da Praia</t>
-  </si>
-  <si>
-    <t>Kimono Pontos</t>
-  </si>
-  <si>
-    <t>Saia Sued</t>
-  </si>
-  <si>
-    <t>Vestido Bata Verde Listras</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Transpassada Creme</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Azul Marinho</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Verde</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Vermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blusa Malha Bege </t>
-  </si>
-  <si>
-    <t>Blusa dolce canelada bege</t>
-  </si>
-  <si>
-    <t>Blusa Alcinha Verde Listrada</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Preto</t>
-  </si>
-  <si>
-    <t>Calça Pantacourt Linho Preto</t>
-  </si>
-  <si>
-    <t>Macacão Solto Linho Preto</t>
-  </si>
-  <si>
-    <t>Short Estampado Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa dolce canelada branca</t>
-  </si>
-  <si>
-    <t>Saia Envelope Verde Musgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casaco Assimétrico Verde </t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Scarlet Cinza</t>
-  </si>
-  <si>
-    <t>Camisa Estampada Preto</t>
-  </si>
-  <si>
-    <t>Blusa Transpassada Estampado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Preto</t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Branco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Xadrez Preto</t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Cinza</t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Vinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
-  </si>
-  <si>
-    <t>Vestido Listras Azul</t>
-  </si>
-  <si>
-    <t>Vestido Listras Vermelho</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Rosê</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Azul Marinho</t>
-  </si>
-  <si>
-    <t>Calça Bailarina Sued Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Uva</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Azul</t>
-  </si>
-  <si>
-    <t>Body Gola Preto</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Azul</t>
-  </si>
-  <si>
-    <t>Camisa Social Rosa</t>
-  </si>
-  <si>
-    <t>Calça Flare Alfaiataria Creme</t>
-  </si>
-  <si>
-    <t>Blusa Malha Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Listras Branca</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Lavanda</t>
-  </si>
-  <si>
-    <t>Blusa Nó Botânica Rosa</t>
-  </si>
-  <si>
-    <t>Blusa Estampa Navegar</t>
-  </si>
-  <si>
-    <t>Saia Pantacourt</t>
-  </si>
-  <si>
-    <t>Blusa Verde Listras</t>
-  </si>
-  <si>
-    <t>Vestido Lastex Ciganinha</t>
-  </si>
-  <si>
-    <t>Macacão Colana</t>
-  </si>
-  <si>
-    <t>Vestido Longo Listras</t>
-  </si>
-  <si>
-    <t>Vestido Poá Botões</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Nó Melancia</t>
-  </si>
-  <si>
-    <t>Blazer de Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Nipônica</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador azul marinho</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Listras</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Cereja</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Branca</t>
-  </si>
-  <si>
-    <t>Cardigan Lilás</t>
-  </si>
-  <si>
-    <t>Saia Estampada Preta</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador Telha</t>
-  </si>
-  <si>
-    <t>Body Decotado Preto</t>
-  </si>
-  <si>
-    <t>Vestido Sino Bolas Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Pantacourt Viscose </t>
-  </si>
-  <si>
-    <t>Camisa Nó Preta</t>
-  </si>
-  <si>
-    <t>kimono Veludo Devorê</t>
-  </si>
-  <si>
-    <t>Kimono Estampa Botanic</t>
-  </si>
-  <si>
-    <t>Blusa Nó Branca</t>
-  </si>
-  <si>
-    <t>Vestido Kimono Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Camisa Social Goiaba</t>
-  </si>
-  <si>
-    <t>Top Malha Branco</t>
-  </si>
-  <si>
-    <t>Top Malha Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Malha Branca </t>
-  </si>
-  <si>
-    <t>Calça Bailarina Malha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedido angelica pagamento troca </t>
-  </si>
-  <si>
-    <t>Vestido Longo de Linho Rosa</t>
+    <t>VESTIDO BATA LISTRAS-Vestido tipo bata listrado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
   </si>
   <si>
     <t>Produto sem descrição.</t>
   </si>
   <si>
+    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
+  </si>
+  <si>
+    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
+  </si>
+  <si>
+    <t>BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decote nos ombros é o toque final da produção. Alças reguláveis com amarração e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
+  </si>
+  <si>
+    <t>CALÇA PANTACOURT LINHO CINZA-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nossa blusa bata abacaxi e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
+  </si>
+  <si>
+    <t>KIMONO GLAM-Kimono de tecido holográfico gráfite com amarração. Amplo e ajustavél.</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
+  </si>
+  <si>
+    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
+  </si>
+  <si>
+    <t>Casaco cardigan de malha, na cor cinza escuro, com pontas mais longas na lateral. É um cardigan muito leve de malha macia, que serve para proteger e trazer mais estilo ao look. Em tamanho único.</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO DE LINHO ROSA-Vestido longo em linho, abotoado a frente com botões de madrepérola até a fenda frontal. Acabamento manual que dá um toque leve e refinado a peça. Com amarração para ajusre do vestido na cintura. A manga 3/4 e a abertura de fenda central dão a peça um frescor de jovialidade. Esse vestido longo é uma boa pedida especial tanto para o dia a dia quanto para compor looks mais ousados. . Cintura ajustável . Descriçāo de tamanhos Tamanho P - Busto 84cm / cintura 72 cm Tamaho M - Busto 8...</t>
+  </si>
+  <si>
+    <t>pagamento troca evapore</t>
+  </si>
+  <si>
+    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
+  </si>
+  <si>
+    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
+  </si>
+  <si>
+    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
+  </si>
+  <si>
+    <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
+  </si>
+  <si>
+    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
+  </si>
+  <si>
+    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
+  </si>
+  <si>
+    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
+  </si>
+  <si>
+    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
+  </si>
+  <si>
+    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
+  </si>
+  <si>
     <t>VESTIDO LONGO ESTAMPA ORA BOLAS-O vestido longo estampa ora bolas é clássico e descontraído. O tom clássico fica por conta da releitura do poá que encontramos na estampa, o modelo de alças e a barra recortada trazem um ar descontraído e confortável ao modelo. Modelo com alças reguláveis. Tabela de tamanho P Busto 82cm | Altura 155cm M Busto 86cm | Altura 157cm G Busto 90cm | Altura 159cm</t>
   </si>
   <si>
+    <t>Casaco de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: preto, branco e bege</t>
+  </si>
+  <si>
+    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Forrado no quadril. Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Kimono em micro-tule. Peça leve e elegante!</t>
+  </si>
+  <si>
     <t>SHORT ALFAIATARIA EM LINHO JEANS- Modelo confortável, curto, casual e despojado. iodeal para dias quentas mas nada impede que seja usado com meias botas em dias mais frios. Peça super coringa do tipo tem que ter. Tabela de medidas P Cintura 76cms | Quadril 98cms | Altura 34cms M Cintura 80cms | Quadril 102cms | Altura 36 cms G Cintura 84cms | Quadril 106cms | Altura 38cms</t>
   </si>
   <si>
+    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
+  </si>
+  <si>
+    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
+  </si>
+  <si>
+    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
+  </si>
+  <si>
+    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
+  </si>
+  <si>
+    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
+  </si>
+  <si>
+    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
+  </si>
+  <si>
+    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
+  </si>
+  <si>
+    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
+  </si>
+  <si>
+    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
+  </si>
+  <si>
+    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
+  </si>
+  <si>
+    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
+  </si>
+  <si>
+    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
+  </si>
+  <si>
+    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
+  </si>
+  <si>
+    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
+  </si>
+  <si>
+    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
+  </si>
+  <si>
+    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
+  </si>
+  <si>
+    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
+  </si>
+  <si>
+    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
+  </si>
+  <si>
+    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
+  </si>
+  <si>
+    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
+  </si>
+  <si>
+    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
+  </si>
+  <si>
+    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
+  </si>
+  <si>
+    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
+  </si>
+  <si>
+    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
+  </si>
+  <si>
+    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
+  </si>
+  <si>
+    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
+  </si>
+  <si>
     <t>KIMONO ESTAMPADO-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO. Despojado , elegante , inspira originalidade e comportamento.</t>
   </si>
   <si>
-    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
-  </si>
-  <si>
-    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Forrado no quadril. Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
-  </si>
-  <si>
-    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
-  </si>
-  <si>
-    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
-  </si>
-  <si>
-    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
-  </si>
-  <si>
-    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
-  </si>
-  <si>
-    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
-  </si>
-  <si>
-    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
-  </si>
-  <si>
-    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
-  </si>
-  <si>
-    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
-  </si>
-  <si>
-    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
-  </si>
-  <si>
-    <t>Casaco de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: preto, branco e bege</t>
-  </si>
-  <si>
-    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
-  </si>
-  <si>
-    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
-  </si>
-  <si>
-    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
-  </si>
-  <si>
-    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decote nos ombros é o toque final da produção. Alças reguláveis com amarração e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
-  </si>
-  <si>
-    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
-  </si>
-  <si>
-    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
-  </si>
-  <si>
-    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
-  </si>
-  <si>
-    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
-  </si>
-  <si>
-    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
-  </si>
-  <si>
-    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
-  </si>
-  <si>
-    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
-  </si>
-  <si>
-    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
-  </si>
-  <si>
-    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
-  </si>
-  <si>
-    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
-  </si>
-  <si>
-    <t>CALÇA PANTACOURT LINHO CINZA-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nossa blusa bata abacaxi e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
-  </si>
-  <si>
-    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
-  </si>
-  <si>
-    <t>KIMONO GLAM-Kimono de tecido holográfico gráfite com amarração. Amplo e ajustavél.</t>
-  </si>
-  <si>
-    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
-  </si>
-  <si>
-    <t>VESTIDO BATA LISTRAS-Vestido tipo bata listrado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
-  </si>
-  <si>
-    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
-  </si>
-  <si>
-    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>Casaco cardigan de malha, na cor cinza escuro, com pontas mais longas na lateral. É um cardigan muito leve de malha macia, que serve para proteger e trazer mais estilo ao look. Em tamanho único.</t>
-  </si>
-  <si>
-    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
-  </si>
-  <si>
-    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
-  </si>
-  <si>
-    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
-  </si>
-  <si>
-    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
-  </si>
-  <si>
-    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
-  </si>
-  <si>
-    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
-  </si>
-  <si>
-    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
-  </si>
-  <si>
-    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>Kimono em micro-tule. Peça leve e elegante!</t>
-  </si>
-  <si>
-    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
-  </si>
-  <si>
-    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
-  </si>
-  <si>
-    <t>pagamento troca evapore</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO DE LINHO ROSA-Vestido longo em linho, abotoado a frente com botões de madrepérola até a fenda frontal. Acabamento manual que dá um toque leve e refinado a peça. Com amarração para ajusre do vestido na cintura. A manga 3/4 e a abertura de fenda central dão a peça um frescor de jovialidade. Esse vestido longo é uma boa pedida especial tanto para o dia a dia quanto para compor looks mais ousados. . Cintura ajustável . Descriçāo de tamanhos Tamanho P - Busto 84cm / cintura 72 cm Tamaho M - Busto 8...</t>
+    <t>https://loja.evapore.com.br/03039p8o7-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/luai0p60d-blusa-bata-ciganinha-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-alcinha-verde-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/pedido-angelica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/z1m68wcas-v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/casaco-capita-tramare-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-branquias-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pantacourt-viscose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/camisa-social-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/z1m68wcas-v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/d9bk1q7x2-kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/calca-branquias-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/casaco-capita-tramare-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-branquias-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/luai0p60d-blusa-bata-ciganinha-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/03039p8o7-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-alcinha-verde-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pantacourt-viscose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/pedido-angelica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228192/ffdf407a05.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26086498/a9779818fe.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327131/01f46f47b6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30801495/ece9a141b9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25989857/e2d117968e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797793/666ab0f962.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9826767/4ad2df4313.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149684/0422fe468d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327862/715039312d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980885/1c4d40cb95.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25989857/e2d117968e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29365439/d718f3785a.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149684/0422fe468d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9827067/a253352f2b.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797793/666ab0f962.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9826767/4ad2df4313.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26086498/a9779818fe.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228192/ffdf407a05.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327131/01f46f47b6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327862/715039312d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30801495/ece9a141b9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -2202,106 +2202,112 @@
     <t>in stock</t>
   </si>
   <si>
+    <t>239.00 BRL</t>
+  </si>
+  <si>
+    <t>269.00 BRL</t>
+  </si>
+  <si>
+    <t>279.00 BRL</t>
+  </si>
+  <si>
+    <t>129.00 BRL</t>
+  </si>
+  <si>
+    <t>139.00 BRL</t>
+  </si>
+  <si>
+    <t>169.00 BRL</t>
+  </si>
+  <si>
+    <t>189.00 BRL</t>
+  </si>
+  <si>
+    <t>259.00 BRL</t>
+  </si>
+  <si>
+    <t>179.00 BRL</t>
+  </si>
+  <si>
+    <t>89.00 BRL</t>
+  </si>
+  <si>
+    <t>99.00 BRL</t>
+  </si>
+  <si>
     <t>149.00 BRL</t>
   </si>
   <si>
+    <t>289.00 BRL</t>
+  </si>
+  <si>
+    <t>367.01 BRL</t>
+  </si>
+  <si>
+    <t>109.00 BRL</t>
+  </si>
+  <si>
+    <t>199.00 BRL</t>
+  </si>
+  <si>
+    <t>249.00 BRL</t>
+  </si>
+  <si>
+    <t>59.00 BRL</t>
+  </si>
+  <si>
+    <t>159.00 BRL</t>
+  </si>
+  <si>
+    <t>69.00 BRL</t>
+  </si>
+  <si>
     <t>229.00 BRL</t>
   </si>
   <si>
-    <t>109.00 BRL</t>
-  </si>
-  <si>
-    <t>169.00 BRL</t>
-  </si>
-  <si>
-    <t>139.00 BRL</t>
+    <t>359.00 BRL</t>
+  </si>
+  <si>
+    <t>309.00 BRL</t>
+  </si>
+  <si>
+    <t>209.00 BRL</t>
+  </si>
+  <si>
+    <t>219.00 BRL</t>
+  </si>
+  <si>
+    <t>230.00 BRL</t>
+  </si>
+  <si>
+    <t>119.00 BRL</t>
+  </si>
+  <si>
+    <t>270.00 BRL</t>
+  </si>
+  <si>
+    <t>45.00 BRL</t>
+  </si>
+  <si>
+    <t>79.00 BRL</t>
+  </si>
+  <si>
+    <t>349.00 BRL</t>
+  </si>
+  <si>
+    <t>75.00 BRL</t>
   </si>
   <si>
     <t>195.00 BRL</t>
   </si>
   <si>
-    <t>309.00 BRL</t>
-  </si>
-  <si>
-    <t>69.00 BRL</t>
-  </si>
-  <si>
-    <t>199.00 BRL</t>
-  </si>
-  <si>
-    <t>349.00 BRL</t>
-  </si>
-  <si>
-    <t>119.00 BRL</t>
-  </si>
-  <si>
-    <t>129.00 BRL</t>
-  </si>
-  <si>
-    <t>249.00 BRL</t>
-  </si>
-  <si>
-    <t>289.00 BRL</t>
-  </si>
-  <si>
-    <t>269.00 BRL</t>
-  </si>
-  <si>
-    <t>89.00 BRL</t>
-  </si>
-  <si>
-    <t>179.00 BRL</t>
-  </si>
-  <si>
-    <t>209.00 BRL</t>
-  </si>
-  <si>
-    <t>219.00 BRL</t>
-  </si>
-  <si>
-    <t>75.00 BRL</t>
-  </si>
-  <si>
-    <t>159.00 BRL</t>
-  </si>
-  <si>
     <t>175.00 BRL</t>
   </si>
   <si>
-    <t>45.00 BRL</t>
-  </si>
-  <si>
-    <t>359.00 BRL</t>
-  </si>
-  <si>
-    <t>99.00 BRL</t>
-  </si>
-  <si>
-    <t>230.00 BRL</t>
-  </si>
-  <si>
-    <t>270.00 BRL</t>
-  </si>
-  <si>
-    <t>79.00 BRL</t>
-  </si>
-  <si>
-    <t>239.00 BRL</t>
-  </si>
-  <si>
-    <t>59.00 BRL</t>
-  </si>
-  <si>
-    <t>189.00 BRL</t>
-  </si>
-  <si>
-    <t>279.00 BRL</t>
-  </si>
-  <si>
-    <t>259.00 BRL</t>
-  </si>
-  <si>
-    <t>367.01 BRL</t>
+    <t>Sem categoria</t>
+  </si>
+  <si>
+    <t>Macacões</t>
   </si>
   <si>
     <t>Blusas e Camisas</t>
@@ -2310,31 +2316,25 @@
     <t>Vestidos</t>
   </si>
   <si>
+    <t>Calças</t>
+  </si>
+  <si>
+    <t>Saias</t>
+  </si>
+  <si>
+    <t>Kimonos</t>
+  </si>
+  <si>
     <t>Shorts</t>
   </si>
   <si>
-    <t>Kimonos</t>
-  </si>
-  <si>
-    <t>Saias</t>
-  </si>
-  <si>
-    <t>Macacões</t>
-  </si>
-  <si>
-    <t>Sem categoria</t>
-  </si>
-  <si>
     <t>Casacos e Blazers</t>
   </si>
   <si>
+    <t>sale</t>
+  </si>
+  <si>
     <t>Bodys</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>Calças</t>
   </si>
   <si>
     <t>Para malhar</t>
@@ -2949,7 +2949,7 @@
         <v>725</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -2976,7 +2976,7 @@
         <v>172</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>421</v>
@@ -2994,10 +2994,10 @@
         <v>723</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3024,7 +3024,7 @@
         <v>173</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>422</v>
@@ -3042,10 +3042,10 @@
         <v>723</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -3072,7 +3072,7 @@
         <v>174</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>423</v>
@@ -3090,10 +3090,10 @@
         <v>723</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -3120,7 +3120,7 @@
         <v>175</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>424</v>
@@ -3138,10 +3138,10 @@
         <v>723</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -3168,7 +3168,7 @@
         <v>176</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>425</v>
@@ -3186,10 +3186,10 @@
         <v>723</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3216,7 +3216,7 @@
         <v>177</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>426</v>
@@ -3234,14 +3234,12 @@
         <v>723</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3266,7 +3264,7 @@
         <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>427</v>
@@ -3284,7 +3282,7 @@
         <v>723</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>758</v>
@@ -3314,7 +3312,7 @@
         <v>179</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>428</v>
@@ -3332,10 +3330,10 @@
         <v>723</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3362,7 +3360,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>429</v>
@@ -3380,14 +3378,12 @@
         <v>723</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>770</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3412,7 +3408,7 @@
         <v>181</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>430</v>
@@ -3430,10 +3426,10 @@
         <v>723</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -3460,7 +3456,7 @@
         <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>431</v>
@@ -3481,7 +3477,7 @@
         <v>727</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3508,7 +3504,7 @@
         <v>183</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>432</v>
@@ -3526,10 +3522,10 @@
         <v>723</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3556,7 +3552,7 @@
         <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>433</v>
@@ -3574,10 +3570,10 @@
         <v>723</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P16" s="1"/>
     </row>
@@ -3604,7 +3600,7 @@
         <v>185</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>434</v>
@@ -3622,10 +3618,10 @@
         <v>723</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -3652,7 +3648,7 @@
         <v>186</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>435</v>
@@ -3670,10 +3666,10 @@
         <v>723</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -3700,7 +3696,7 @@
         <v>187</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>436</v>
@@ -3718,7 +3714,7 @@
         <v>723</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>763</v>
@@ -3748,7 +3744,7 @@
         <v>188</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>437</v>
@@ -3766,10 +3762,10 @@
         <v>723</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -3796,7 +3792,7 @@
         <v>189</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>438</v>
@@ -3814,10 +3810,10 @@
         <v>723</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3844,7 +3840,7 @@
         <v>190</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>439</v>
@@ -3862,10 +3858,10 @@
         <v>723</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -3892,7 +3888,7 @@
         <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>440</v>
@@ -3910,14 +3906,12 @@
         <v>723</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3942,7 +3936,7 @@
         <v>192</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>441</v>
@@ -3960,14 +3954,12 @@
         <v>723</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3992,7 +3984,7 @@
         <v>193</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>442</v>
@@ -4010,14 +4002,12 @@
         <v>723</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>741</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4042,7 +4032,7 @@
         <v>194</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>443</v>
@@ -4060,10 +4050,10 @@
         <v>723</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -4090,7 +4080,7 @@
         <v>195</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>444</v>
@@ -4108,14 +4098,12 @@
         <v>723</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>771</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4140,7 +4128,7 @@
         <v>196</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>445</v>
@@ -4158,14 +4146,12 @@
         <v>723</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>737</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -4190,7 +4176,7 @@
         <v>197</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>446</v>
@@ -4208,14 +4194,12 @@
         <v>723</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -4240,7 +4224,7 @@
         <v>198</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>447</v>
@@ -4258,10 +4242,10 @@
         <v>723</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -4288,7 +4272,7 @@
         <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>448</v>
@@ -4306,10 +4290,10 @@
         <v>723</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -4336,7 +4320,7 @@
         <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>449</v>
@@ -4354,10 +4338,10 @@
         <v>723</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -4384,7 +4368,7 @@
         <v>201</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>450</v>
@@ -4402,14 +4386,12 @@
         <v>723</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>737</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -4434,7 +4416,7 @@
         <v>202</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>451</v>
@@ -4452,10 +4434,10 @@
         <v>723</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P34" s="1"/>
     </row>
@@ -4482,7 +4464,7 @@
         <v>203</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>452</v>
@@ -4500,12 +4482,14 @@
         <v>723</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="P35" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4530,7 +4514,7 @@
         <v>204</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>453</v>
@@ -4548,10 +4532,10 @@
         <v>723</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P36" s="1"/>
     </row>
@@ -4578,7 +4562,7 @@
         <v>205</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>454</v>
@@ -4596,14 +4580,12 @@
         <v>723</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>735</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4628,7 +4610,7 @@
         <v>206</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>455</v>
@@ -4646,10 +4628,10 @@
         <v>723</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="P38" s="1"/>
     </row>
@@ -4676,7 +4658,7 @@
         <v>207</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>456</v>
@@ -4694,10 +4676,10 @@
         <v>723</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P39" s="1"/>
     </row>
@@ -4724,7 +4706,7 @@
         <v>208</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>457</v>
@@ -4742,10 +4724,10 @@
         <v>723</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="P40" s="1"/>
     </row>
@@ -4772,7 +4754,7 @@
         <v>209</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>458</v>
@@ -4790,14 +4772,12 @@
         <v>723</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>741</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -4822,7 +4802,7 @@
         <v>210</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>459</v>
@@ -4840,10 +4820,10 @@
         <v>723</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -4870,7 +4850,7 @@
         <v>211</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>460</v>
@@ -4888,10 +4868,10 @@
         <v>723</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P43" s="1"/>
     </row>
@@ -4918,7 +4898,7 @@
         <v>212</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>461</v>
@@ -4936,10 +4916,10 @@
         <v>723</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -4966,7 +4946,7 @@
         <v>213</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>462</v>
@@ -4984,10 +4964,10 @@
         <v>723</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -5014,7 +4994,7 @@
         <v>214</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>463</v>
@@ -5032,14 +5012,12 @@
         <v>723</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>727</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -5064,7 +5042,7 @@
         <v>215</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>464</v>
@@ -5082,14 +5060,12 @@
         <v>723</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>732</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -5114,7 +5090,7 @@
         <v>216</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>465</v>
@@ -5132,13 +5108,13 @@
         <v>723</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -5164,7 +5140,7 @@
         <v>217</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>466</v>
@@ -5182,10 +5158,10 @@
         <v>723</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P49" s="1"/>
     </row>
@@ -5212,7 +5188,7 @@
         <v>218</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>467</v>
@@ -5230,7 +5206,7 @@
         <v>723</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>760</v>
@@ -5260,7 +5236,7 @@
         <v>219</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>468</v>
@@ -5278,10 +5254,10 @@
         <v>723</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P51" s="1"/>
     </row>
@@ -5308,7 +5284,7 @@
         <v>220</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>469</v>
@@ -5326,14 +5302,12 @@
         <v>723</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>751</v>
-      </c>
+      <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -5358,7 +5332,7 @@
         <v>221</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>470</v>
@@ -5376,10 +5350,10 @@
         <v>723</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -5406,7 +5380,7 @@
         <v>222</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>471</v>
@@ -5424,10 +5398,10 @@
         <v>723</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -5454,7 +5428,7 @@
         <v>223</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>472</v>
@@ -5472,10 +5446,10 @@
         <v>723</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="P55" s="1"/>
     </row>
@@ -5502,7 +5476,7 @@
         <v>224</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>473</v>
@@ -5520,10 +5494,10 @@
         <v>723</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P56" s="1"/>
     </row>
@@ -5550,7 +5524,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>474</v>
@@ -5568,10 +5542,10 @@
         <v>723</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P57" s="1"/>
     </row>
@@ -5598,7 +5572,7 @@
         <v>226</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>475</v>
@@ -5616,10 +5590,10 @@
         <v>723</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -5646,7 +5620,7 @@
         <v>227</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>476</v>
@@ -5664,10 +5638,10 @@
         <v>723</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P59" s="1"/>
     </row>
@@ -5694,7 +5668,7 @@
         <v>228</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>477</v>
@@ -5712,10 +5686,10 @@
         <v>723</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="P60" s="1"/>
     </row>
@@ -5742,7 +5716,7 @@
         <v>229</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>478</v>
@@ -5760,10 +5734,10 @@
         <v>723</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P61" s="1"/>
     </row>
@@ -5790,7 +5764,7 @@
         <v>230</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>479</v>
@@ -5808,10 +5782,10 @@
         <v>723</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="P62" s="1"/>
     </row>
@@ -5838,7 +5812,7 @@
         <v>231</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>480</v>
@@ -5856,14 +5830,12 @@
         <v>723</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>751</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -5888,7 +5860,7 @@
         <v>232</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>481</v>
@@ -5906,10 +5878,10 @@
         <v>723</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="P64" s="1"/>
     </row>
@@ -5936,7 +5908,7 @@
         <v>233</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>482</v>
@@ -5954,10 +5926,10 @@
         <v>723</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P65" s="1"/>
     </row>
@@ -5984,7 +5956,7 @@
         <v>234</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>483</v>
@@ -6002,7 +5974,7 @@
         <v>723</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>758</v>
@@ -6032,7 +6004,7 @@
         <v>235</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>484</v>
@@ -6050,10 +6022,10 @@
         <v>723</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="P67" s="1"/>
     </row>
@@ -6080,7 +6052,7 @@
         <v>236</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>485</v>
@@ -6098,10 +6070,10 @@
         <v>723</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="P68" s="1"/>
     </row>
@@ -6128,7 +6100,7 @@
         <v>237</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>486</v>
@@ -6146,10 +6118,10 @@
         <v>723</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="P69" s="1"/>
     </row>
@@ -6176,7 +6148,7 @@
         <v>238</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>487</v>
@@ -6194,10 +6166,10 @@
         <v>723</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="P70" s="1"/>
     </row>
@@ -6224,7 +6196,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>488</v>
@@ -6242,10 +6214,10 @@
         <v>723</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="P71" s="1"/>
     </row>
@@ -6272,7 +6244,7 @@
         <v>240</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>489</v>
@@ -6293,7 +6265,7 @@
         <v>727</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="P72" s="1"/>
     </row>
@@ -6320,7 +6292,7 @@
         <v>241</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>490</v>
@@ -6338,7 +6310,7 @@
         <v>723</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>761</v>
@@ -6368,7 +6340,7 @@
         <v>242</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>491</v>
@@ -6386,13 +6358,13 @@
         <v>723</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -6418,7 +6390,7 @@
         <v>243</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>492</v>
@@ -6436,10 +6408,10 @@
         <v>723</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P75" s="1"/>
     </row>
@@ -6466,7 +6438,7 @@
         <v>244</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>493</v>
@@ -6484,12 +6456,14 @@
         <v>723</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P76" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="77" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -6514,7 +6488,7 @@
         <v>245</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>494</v>
@@ -6532,7 +6506,7 @@
         <v>723</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>764</v>
@@ -6562,7 +6536,7 @@
         <v>246</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>495</v>
@@ -6580,7 +6554,7 @@
         <v>723</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>758</v>
@@ -6610,7 +6584,7 @@
         <v>247</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>496</v>
@@ -6628,10 +6602,10 @@
         <v>723</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="P79" s="1"/>
     </row>
@@ -6658,7 +6632,7 @@
         <v>248</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>497</v>
@@ -6676,7 +6650,7 @@
         <v>723</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>758</v>
@@ -6706,7 +6680,7 @@
         <v>249</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>498</v>
@@ -6724,10 +6698,10 @@
         <v>723</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P81" s="1"/>
     </row>
@@ -6754,7 +6728,7 @@
         <v>250</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>499</v>
@@ -6772,10 +6746,10 @@
         <v>723</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="P82" s="1"/>
     </row>
@@ -6802,7 +6776,7 @@
         <v>251</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>500</v>
@@ -6820,10 +6794,10 @@
         <v>723</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P83" s="1"/>
     </row>
@@ -6850,7 +6824,7 @@
         <v>252</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>501</v>
@@ -6868,12 +6842,14 @@
         <v>723</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P84" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="85" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -6898,7 +6874,7 @@
         <v>253</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>502</v>
@@ -6916,10 +6892,10 @@
         <v>723</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P85" s="1"/>
     </row>
@@ -6946,7 +6922,7 @@
         <v>254</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>503</v>
@@ -6964,10 +6940,10 @@
         <v>723</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="P86" s="1"/>
     </row>
@@ -6994,7 +6970,7 @@
         <v>255</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>504</v>
@@ -7012,7 +6988,7 @@
         <v>723</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>763</v>
@@ -7042,7 +7018,7 @@
         <v>256</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>505</v>
@@ -7060,10 +7036,10 @@
         <v>723</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P88" s="1"/>
     </row>
@@ -7090,7 +7066,7 @@
         <v>257</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>506</v>
@@ -7108,12 +7084,14 @@
         <v>723</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P89" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="90" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -7138,7 +7116,7 @@
         <v>258</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>507</v>
@@ -7156,10 +7134,10 @@
         <v>723</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P90" s="1"/>
     </row>
@@ -7186,7 +7164,7 @@
         <v>259</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>508</v>
@@ -7204,10 +7182,10 @@
         <v>723</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P91" s="1"/>
     </row>
@@ -7234,7 +7212,7 @@
         <v>260</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>509</v>
@@ -7252,10 +7230,10 @@
         <v>723</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P92" s="1"/>
     </row>
@@ -7282,7 +7260,7 @@
         <v>261</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>510</v>
@@ -7303,7 +7281,7 @@
         <v>735</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P93" s="1"/>
     </row>
@@ -7330,7 +7308,7 @@
         <v>262</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>511</v>
@@ -7348,10 +7326,10 @@
         <v>723</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P94" s="1"/>
     </row>
@@ -7378,7 +7356,7 @@
         <v>263</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>512</v>
@@ -7396,12 +7374,14 @@
         <v>723</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P95" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="96" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -7426,7 +7406,7 @@
         <v>264</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>513</v>
@@ -7444,10 +7424,10 @@
         <v>723</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="P96" s="1"/>
     </row>
@@ -7474,7 +7454,7 @@
         <v>265</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>514</v>
@@ -7492,10 +7472,10 @@
         <v>723</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P97" s="1"/>
     </row>
@@ -7522,7 +7502,7 @@
         <v>266</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>515</v>
@@ -7540,10 +7520,10 @@
         <v>723</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P98" s="1"/>
     </row>
@@ -7570,7 +7550,7 @@
         <v>267</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>516</v>
@@ -7588,10 +7568,10 @@
         <v>723</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P99" s="1"/>
     </row>
@@ -7618,7 +7598,7 @@
         <v>268</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>517</v>
@@ -7636,10 +7616,10 @@
         <v>723</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P100" s="1"/>
     </row>
@@ -7666,7 +7646,7 @@
         <v>269</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>518</v>
@@ -7684,10 +7664,10 @@
         <v>723</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P101" s="1"/>
     </row>
@@ -7714,7 +7694,7 @@
         <v>270</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>519</v>
@@ -7732,7 +7712,7 @@
         <v>723</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>759</v>
@@ -7762,7 +7742,7 @@
         <v>271</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>520</v>
@@ -7780,7 +7760,7 @@
         <v>723</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>764</v>
@@ -7810,7 +7790,7 @@
         <v>272</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>521</v>
@@ -7828,10 +7808,10 @@
         <v>723</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -7858,7 +7838,7 @@
         <v>273</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>522</v>
@@ -7876,10 +7856,10 @@
         <v>723</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P105" s="1"/>
     </row>
@@ -7906,7 +7886,7 @@
         <v>274</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>523</v>
@@ -7924,10 +7904,10 @@
         <v>723</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P106" s="1"/>
     </row>
@@ -7954,7 +7934,7 @@
         <v>275</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>524</v>
@@ -7972,10 +7952,10 @@
         <v>723</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="P107" s="1"/>
     </row>
@@ -8002,7 +7982,7 @@
         <v>276</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>525</v>
@@ -8020,10 +8000,10 @@
         <v>723</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P108" s="1"/>
     </row>
@@ -8050,7 +8030,7 @@
         <v>277</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>526</v>
@@ -8068,12 +8048,14 @@
         <v>723</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P109" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="110" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -8098,7 +8080,7 @@
         <v>278</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>527</v>
@@ -8116,10 +8098,10 @@
         <v>723</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P110" s="1"/>
     </row>
@@ -8146,7 +8128,7 @@
         <v>279</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>528</v>
@@ -8164,10 +8146,10 @@
         <v>723</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="P111" s="1"/>
     </row>
@@ -8194,7 +8176,7 @@
         <v>280</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>529</v>
@@ -8212,10 +8194,10 @@
         <v>723</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="P112" s="1"/>
     </row>
@@ -8242,7 +8224,7 @@
         <v>281</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>530</v>
@@ -8260,10 +8242,10 @@
         <v>723</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P113" s="1"/>
     </row>
@@ -8290,7 +8272,7 @@
         <v>282</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>531</v>
@@ -8308,10 +8290,10 @@
         <v>723</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="P114" s="1"/>
     </row>
@@ -8338,7 +8320,7 @@
         <v>283</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>532</v>
@@ -8356,12 +8338,14 @@
         <v>723</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P115" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="116" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -8386,7 +8370,7 @@
         <v>284</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>533</v>
@@ -8404,10 +8388,10 @@
         <v>723</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="P116" s="1"/>
     </row>
@@ -8434,7 +8418,7 @@
         <v>285</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>534</v>
@@ -8452,10 +8436,10 @@
         <v>723</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="P117" s="1"/>
     </row>
@@ -8482,7 +8466,7 @@
         <v>286</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>535</v>
@@ -8500,12 +8484,14 @@
         <v>723</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P118" s="1"/>
+        <v>765</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="119" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -8530,7 +8516,7 @@
         <v>287</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>536</v>
@@ -8548,10 +8534,10 @@
         <v>723</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="P119" s="1"/>
     </row>
@@ -8578,7 +8564,7 @@
         <v>288</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>537</v>
@@ -8596,10 +8582,10 @@
         <v>723</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P120" s="1"/>
     </row>
@@ -8626,7 +8612,7 @@
         <v>289</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>538</v>
@@ -8644,10 +8630,10 @@
         <v>723</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P121" s="1"/>
     </row>
@@ -8674,7 +8660,7 @@
         <v>290</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>539</v>
@@ -8692,10 +8678,10 @@
         <v>723</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P122" s="1"/>
     </row>
@@ -8722,7 +8708,7 @@
         <v>291</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>540</v>
@@ -8740,14 +8726,12 @@
         <v>723</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>727</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -8772,7 +8756,7 @@
         <v>292</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>541</v>
@@ -8790,10 +8774,10 @@
         <v>723</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P124" s="1"/>
     </row>
@@ -8820,7 +8804,7 @@
         <v>293</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>542</v>
@@ -8838,12 +8822,14 @@
         <v>723</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="P125" s="1"/>
+        <v>765</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="126" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8868,7 +8854,7 @@
         <v>294</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>543</v>
@@ -8886,10 +8872,10 @@
         <v>723</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P126" s="1"/>
     </row>
@@ -8916,7 +8902,7 @@
         <v>295</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>544</v>
@@ -8934,10 +8920,10 @@
         <v>723</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P127" s="1"/>
     </row>
@@ -8964,7 +8950,7 @@
         <v>296</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>545</v>
@@ -8982,12 +8968,14 @@
         <v>723</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="P128" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="129" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -9012,7 +9000,7 @@
         <v>297</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>546</v>
@@ -9030,10 +9018,10 @@
         <v>723</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P129" s="1"/>
     </row>
@@ -9060,7 +9048,7 @@
         <v>298</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>547</v>
@@ -9078,10 +9066,10 @@
         <v>723</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="P130" s="1"/>
     </row>
@@ -9108,7 +9096,7 @@
         <v>299</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>548</v>
@@ -9126,10 +9114,10 @@
         <v>723</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P131" s="1"/>
     </row>
@@ -9156,7 +9144,7 @@
         <v>300</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>549</v>
@@ -9174,10 +9162,10 @@
         <v>723</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="P132" s="1"/>
     </row>
@@ -9204,7 +9192,7 @@
         <v>301</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>550</v>
@@ -9222,10 +9210,10 @@
         <v>723</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="P133" s="1"/>
     </row>
@@ -9252,7 +9240,7 @@
         <v>302</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>551</v>
@@ -9270,10 +9258,10 @@
         <v>723</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P134" s="1"/>
     </row>
@@ -9300,7 +9288,7 @@
         <v>303</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>552</v>
@@ -9318,10 +9306,10 @@
         <v>723</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="P135" s="1"/>
     </row>
@@ -9348,7 +9336,7 @@
         <v>304</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>553</v>
@@ -9366,10 +9354,10 @@
         <v>723</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P136" s="1"/>
     </row>
@@ -9414,12 +9402,14 @@
         <v>723</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P137" s="1"/>
+        <v>758</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="138" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -9462,12 +9452,14 @@
         <v>723</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P138" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="139" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -9492,7 +9484,7 @@
         <v>307</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>556</v>
@@ -9510,10 +9502,10 @@
         <v>723</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P139" s="1"/>
     </row>
@@ -9540,7 +9532,7 @@
         <v>308</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>557</v>
@@ -9558,12 +9550,14 @@
         <v>723</v>
       </c>
       <c r="N140" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="P140" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="O140" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P140" s="1"/>
     </row>
     <row r="141" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -9588,7 +9582,7 @@
         <v>309</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>558</v>
@@ -9606,10 +9600,10 @@
         <v>723</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P141" s="1"/>
     </row>
@@ -9636,7 +9630,7 @@
         <v>310</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>559</v>
@@ -9654,10 +9648,10 @@
         <v>723</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P142" s="1"/>
     </row>
@@ -9684,7 +9678,7 @@
         <v>311</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>560</v>
@@ -9702,10 +9696,10 @@
         <v>723</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P143" s="1"/>
     </row>
@@ -9732,7 +9726,7 @@
         <v>312</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>561</v>
@@ -9750,10 +9744,10 @@
         <v>723</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P144" s="1"/>
     </row>
@@ -9780,7 +9774,7 @@
         <v>313</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>562</v>
@@ -9798,10 +9792,10 @@
         <v>723</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P145" s="1"/>
     </row>
@@ -9828,7 +9822,7 @@
         <v>314</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>563</v>
@@ -9846,7 +9840,7 @@
         <v>723</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>758</v>
@@ -9876,7 +9870,7 @@
         <v>315</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>321</v>
+        <v>415</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>564</v>
@@ -9894,12 +9888,14 @@
         <v>723</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="P147" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="148" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -9924,7 +9920,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>565</v>
@@ -9942,12 +9938,14 @@
         <v>723</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="P148" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="149" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -9972,7 +9970,7 @@
         <v>317</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>566</v>
@@ -9993,7 +9991,7 @@
         <v>735</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P149" s="1"/>
     </row>
@@ -10020,7 +10018,7 @@
         <v>318</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>567</v>
@@ -10038,12 +10036,14 @@
         <v>723</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="P150" s="1"/>
+        <v>767</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="151" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -10068,7 +10068,7 @@
         <v>319</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>568</v>
@@ -10086,10 +10086,10 @@
         <v>723</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="P151" s="1"/>
     </row>
@@ -10116,7 +10116,7 @@
         <v>320</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>569</v>
@@ -10134,10 +10134,10 @@
         <v>723</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="P152" s="1"/>
     </row>

--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
@@ -87,97 +87,211 @@
 Site: www.evapore.com.br</t>
   </si>
   <si>
+    <t>macacaodecotestmpprtjlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadorsjlh18</t>
+  </si>
+  <si>
+    <t>blusaamplacrepeazljlh18</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
+  </si>
+  <si>
+    <t>macacaoxadrezbrcjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadovnhjlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadoazljlh18</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
+  </si>
+  <si>
     <t>vestidobataverdelistrasfv18-03039P8O7</t>
   </si>
   <si>
-    <t>vestidotranspassadovnhjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadorsjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezbrcjlh18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpprtjlh18</t>
+    <t>calcabailarinasuedcafejlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezprtjlh18</t>
+  </si>
+  <si>
+    <t>vestidolistrasvermelho17-79TTOKM0F</t>
+  </si>
+  <si>
+    <t>blusaamplacrepevrdjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedbgjlh18</t>
+  </si>
+  <si>
+    <t>saiasuedjlh18</t>
+  </si>
+  <si>
+    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
+  </si>
+  <si>
+    <t>vestidolistrasazulv17</t>
+  </si>
+  <si>
+    <t>kimonopontoabril18</t>
+  </si>
+  <si>
+    <t>blusamalharosajlh18</t>
   </si>
   <si>
     <t>blusalistrasbrancajlh18</t>
   </si>
   <si>
-    <t>blusamalharosajlh18</t>
-  </si>
-  <si>
     <t>macacaodecotestmpvnhjlh18</t>
   </si>
   <si>
-    <t>vestidotranspassadoazljlh18</t>
-  </si>
-  <si>
-    <t>vestidolistrasazulv17</t>
-  </si>
-  <si>
-    <t>vestidolistrasvermelho17-79TTOKM0F</t>
-  </si>
-  <si>
-    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedbgjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezprtjlh18</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
-  </si>
-  <si>
-    <t>saiasuedjlh18</t>
-  </si>
-  <si>
-    <t>blusaamplacrepevrdjlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedcafejlh18</t>
-  </si>
-  <si>
-    <t>blusaamplacrepeazljlh18</t>
-  </si>
-  <si>
-    <t>kimonopontoabril18</t>
+    <t>blusanobotfv18-u</t>
+  </si>
+  <si>
+    <t>camisasocialasabrancafv18</t>
+  </si>
+  <si>
+    <t>cardiganlilasmrc18</t>
+  </si>
+  <si>
+    <t>saiaestampadapretafv18</t>
+  </si>
+  <si>
+    <t>macacaorecortesvermelhofv18</t>
+  </si>
+  <si>
+    <t>calcaalfpescadortelhafv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-NAV-BC</t>
+  </si>
+  <si>
+    <t>vestidolongolistrasfv18</t>
+  </si>
+  <si>
+    <t>vestidopoabotoesmrc18</t>
+  </si>
+  <si>
+    <t>macacaorecortesv17</t>
+  </si>
+  <si>
+    <t>vestidonofv18</t>
+  </si>
+  <si>
+    <t>blazerdelinhopretofv18</t>
+  </si>
+  <si>
+    <t>blusaverdelistrasjlh18</t>
+  </si>
+  <si>
+    <t>vestidolastexciganinhafv18</t>
+  </si>
+  <si>
+    <t>INT-MAC-COL-PT</t>
+  </si>
+  <si>
+    <t>blusaniponicafv18</t>
+  </si>
+  <si>
+    <t>BOT-CA-PESC-AZ</t>
+  </si>
+  <si>
+    <t>camisasocialasafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaocrjfv18</t>
+  </si>
+  <si>
+    <t>SaiaPantacourt</t>
+  </si>
+  <si>
+    <t>FWA4UDCHX</t>
+  </si>
+  <si>
+    <t>TOP-BL-DOLC-CN-BG</t>
+  </si>
+  <si>
+    <t>blusaalcinhavrdlstrjlh18</t>
+  </si>
+  <si>
+    <t>blusamalhabegejlh18</t>
+  </si>
+  <si>
+    <t>macacaosoltolinhopretofv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
+  </si>
+  <si>
+    <t>calcapantacourtprtfv18</t>
+  </si>
+  <si>
+    <t>macacaorecortespretofv18</t>
+  </si>
+  <si>
+    <t>saiapareoorabolasbrancav17</t>
+  </si>
+  <si>
+    <t>calcaxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>camisaestampadaptfv18</t>
+  </si>
+  <si>
+    <t>shortestampadopretofv18</t>
+  </si>
+  <si>
+    <t>kimonotulegoiabajlh18</t>
+  </si>
+  <si>
+    <t>bataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrmjlh18</t>
+  </si>
+  <si>
+    <t>calcapantacourtcinzfv18</t>
+  </si>
+  <si>
+    <t>bataflorpraiafv18</t>
+  </si>
+  <si>
+    <t>blusacreperosafv18</t>
+  </si>
+  <si>
+    <t>kimonoglamfv18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrdjlh18</t>
+  </si>
+  <si>
+    <t>casacoassimetricoscarletcnzfv18</t>
+  </si>
+  <si>
+    <t>saiaenvelopeverdemusgofv18</t>
   </si>
   <si>
     <t>bataciganinhavrmlhfv18</t>
   </si>
   <si>
-    <t>calcapantacourtcinzfv18</t>
-  </si>
-  <si>
-    <t>kimonoglamfv18</t>
-  </si>
-  <si>
-    <t>shortestampadopretofv18</t>
-  </si>
-  <si>
-    <t>camisaestampadaptfv18</t>
-  </si>
-  <si>
-    <t>blusaalcinhavrdlstrjlh18</t>
-  </si>
-  <si>
-    <t>saiapareoorabolasbrancav17</t>
-  </si>
-  <si>
-    <t>casacoassimetricoscarletcnzfv18</t>
-  </si>
-  <si>
-    <t>saiaenvelopeverdemusgofv18</t>
+    <t>topmalhabrcjlh18</t>
+  </si>
+  <si>
+    <t>topmalhaprtjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinamalhajlh18</t>
+  </si>
+  <si>
+    <t>calcamalhabrcjlh18</t>
   </si>
   <si>
     <t>EZ6TF7C7F</t>
@@ -186,451 +300,451 @@
     <t>3RYQVNVX4</t>
   </si>
   <si>
-    <t>INT-MAC-COL-PT</t>
-  </si>
-  <si>
-    <t>blusaniponicafv18</t>
-  </si>
-  <si>
-    <t>bataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>calcaxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>macacaorecortespretofv18</t>
-  </si>
-  <si>
-    <t>calcapantacourtprtfv18</t>
-  </si>
-  <si>
-    <t>blusamalhabegejlh18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrmjlh18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrdjlh18</t>
-  </si>
-  <si>
-    <t>kimonotulegoiabajlh18</t>
-  </si>
-  <si>
-    <t>blusacreperosafv18</t>
-  </si>
-  <si>
-    <t>macacaosoltolinhopretofv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
-  </si>
-  <si>
-    <t>bataflorpraiafv18</t>
-  </si>
-  <si>
-    <t>FWA4UDCHX</t>
-  </si>
-  <si>
-    <t>TOP-BL-DOLC-CN-BG</t>
-  </si>
-  <si>
-    <t>BOT-CA-PESC-AZ</t>
-  </si>
-  <si>
-    <t>camisasocialasafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaocrjfv18</t>
-  </si>
-  <si>
-    <t>camisasocialasabrancafv18</t>
-  </si>
-  <si>
-    <t>cardiganlilasmrc18</t>
-  </si>
-  <si>
-    <t>saiaestampadapretafv18</t>
-  </si>
-  <si>
-    <t>macacaorecortesvermelhofv18</t>
-  </si>
-  <si>
-    <t>calcaalfpescadortelhafv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-NAV-BC</t>
-  </si>
-  <si>
-    <t>SaiaPantacourt</t>
-  </si>
-  <si>
-    <t>vestidopoabotoesmrc18</t>
-  </si>
-  <si>
-    <t>macacaorecortesv17</t>
-  </si>
-  <si>
-    <t>vestidonofv18</t>
-  </si>
-  <si>
-    <t>blazerdelinhopretofv18</t>
-  </si>
-  <si>
-    <t>blusaverdelistrasjlh18</t>
-  </si>
-  <si>
-    <t>vestidolastexciganinhafv18</t>
-  </si>
-  <si>
-    <t>vestidolongolistrasfv18</t>
-  </si>
-  <si>
-    <t>blusanobotfv18-u</t>
-  </si>
-  <si>
-    <t>topmalhabrcjlh18</t>
-  </si>
-  <si>
-    <t>topmalhaprtjlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinamalhajlh18</t>
-  </si>
-  <si>
-    <t>calcamalhabrcjlh18</t>
+    <t>vestidoazulsereiafv18</t>
+  </si>
+  <si>
+    <t>camisasgoiabamrc18</t>
   </si>
   <si>
     <t>vestidolongoestampaobfv18</t>
   </si>
   <si>
+    <t>kimonoestampabotanicmrc18</t>
+  </si>
+  <si>
+    <t>blusanobrancav17</t>
+  </si>
+  <si>
+    <t>vestidomood70smaio18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-JNS</t>
+  </si>
+  <si>
+    <t>vestidokimonopretofv18</t>
+  </si>
+  <si>
+    <t>kimonoestampadomrc18</t>
+  </si>
+  <si>
+    <t>calcaalfocrefv18</t>
+  </si>
+  <si>
+    <t>vestidokaftalistrasv17</t>
+  </si>
+  <si>
+    <t>VE-LIS-RT-46-2016</t>
+  </si>
+  <si>
+    <t>vestidoverdesereiafv18</t>
+  </si>
+  <si>
+    <t>blusacrepelavandajlh18</t>
+  </si>
+  <si>
+    <t>blusacomfypoamrc18</t>
+  </si>
+  <si>
+    <t>blusacomfylistrasmrc18</t>
+  </si>
+  <si>
+    <t>casacoassimetricobabybluev17</t>
+  </si>
+  <si>
+    <t>vestidobataestampadoverdefv18</t>
+  </si>
+  <si>
+    <t>TOP-BLZ-TRA-VM</t>
+  </si>
+  <si>
+    <t>macacaoalcascruzadasfv18</t>
+  </si>
+  <si>
+    <t>calcaflaraalffv18</t>
+  </si>
+  <si>
+    <t>camisasclrosamrc18</t>
+  </si>
+  <si>
+    <t>BOT-SAI-TRAM-BG</t>
+  </si>
+  <si>
+    <t>blusapretabasicafv18</t>
+  </si>
+  <si>
+    <t>VE-AQ-48</t>
+  </si>
+  <si>
+    <t>macacaobotoesorabolasv17</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaoptfv18</t>
+  </si>
+  <si>
+    <t>macacaopantalonapretov171</t>
+  </si>
+  <si>
     <t>TOP-CAS-JAQ-PT</t>
   </si>
   <si>
     <t>calcaalfprtfv18</t>
   </si>
   <si>
+    <t>vestidosinoblazljlh18</t>
+  </si>
+  <si>
+    <t>vestidobasicorosafv18</t>
+  </si>
+  <si>
+    <t>TOP-REG-LINH-BR</t>
+  </si>
+  <si>
+    <t>BOT-SAI-FEN-PR</t>
+  </si>
+  <si>
+    <t>jardineiratramadobegefv18</t>
+  </si>
+  <si>
+    <t>jardineiratramadovermelhofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeuvafv18</t>
+  </si>
+  <si>
+    <t>macacaosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>vestidoestamppretofv18</t>
+  </si>
+  <si>
+    <t>vestidoamarracaolbrtjnh18</t>
+  </si>
+  <si>
+    <t>bodydecotadopretofv18-B53RI9TBI</t>
+  </si>
+  <si>
+    <t>TOP-CAS-JAQ-AZ</t>
+  </si>
+  <si>
+    <t>camisanopretav17-EEHOA275U</t>
+  </si>
+  <si>
+    <t>bodydecotadobrancofv18</t>
+  </si>
+  <si>
+    <t>camisasclasaazulmrc18</t>
+  </si>
+  <si>
+    <t>bodygolapretofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeazuljlh18</t>
+  </si>
+  <si>
+    <t>ShortSaiaBabyBluev17</t>
+  </si>
+  <si>
+    <t>macacaojuliev17</t>
+  </si>
+  <si>
+    <t>TOP-CAS-MET-PT</t>
+  </si>
+  <si>
+    <t>camisasociallinholistrasv17</t>
+  </si>
+  <si>
+    <t>vestidonov17</t>
+  </si>
+  <si>
+    <t>INT-VES-ENV-BR</t>
+  </si>
+  <si>
+    <t>camisasocifrufrufv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-LINHX-BC</t>
+  </si>
+  <si>
+    <t>camisasclbegemrc18</t>
+  </si>
+  <si>
+    <t>SaiaPareoFloralv17</t>
+  </si>
+  <si>
+    <t>INT-LONG-BOHO-PT</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-CR</t>
+  </si>
+  <si>
+    <t>ShortPescadorVerdev17</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-AZ</t>
+  </si>
+  <si>
+    <t>blusabataabacaxisfv18</t>
+  </si>
+  <si>
+    <t>blusabatabrisadeverao</t>
+  </si>
+  <si>
+    <t>bataciganinhaptfv18</t>
+  </si>
+  <si>
+    <t>camisanobrancav17</t>
+  </si>
+  <si>
+    <t>INT-VES-KAF-NOS</t>
+  </si>
+  <si>
+    <t>shortbotaoduplopretofv18</t>
+  </si>
+  <si>
+    <t>shortestampadoxadrezfv18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-PT</t>
+  </si>
+  <si>
+    <t>blusabataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>vestidonocurtocrufv18</t>
+  </si>
+  <si>
+    <t>macaquinhosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>blusaalcinhav17</t>
+  </si>
+  <si>
+    <t>saiatranspassadatamunicofv18</t>
+  </si>
+  <si>
+    <t>DB572WFUV</t>
+  </si>
+  <si>
+    <t>vestidoamarracaoprtjnh18</t>
+  </si>
+  <si>
+    <t>casacorosaquartzfv18</t>
+  </si>
+  <si>
     <t>INT-LONG-BOHO-BR</t>
   </si>
   <si>
-    <t>DB572WFUV</t>
-  </si>
-  <si>
-    <t>vestidomood70smaio18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-JNS</t>
-  </si>
-  <si>
-    <t>vestidokimonopretofv18</t>
-  </si>
-  <si>
-    <t>macacaoalcascruzadasfv18</t>
-  </si>
-  <si>
-    <t>calcaflaraalffv18</t>
-  </si>
-  <si>
-    <t>camisasclrosamrc18</t>
-  </si>
-  <si>
-    <t>TOP-CAS-JAQ-AZ</t>
-  </si>
-  <si>
-    <t>vestidoamarracaoprtjnh18</t>
-  </si>
-  <si>
-    <t>casacorosaquartzfv18</t>
-  </si>
-  <si>
-    <t>BOT-SAI-FEN-PR</t>
-  </si>
-  <si>
-    <t>jardineiratramadobegefv18</t>
-  </si>
-  <si>
-    <t>vestidoazulsereiafv18</t>
-  </si>
-  <si>
-    <t>camisasgoiabamrc18</t>
-  </si>
-  <si>
     <t>calcapantacourtviscosejlh18</t>
   </si>
   <si>
-    <t>blusanobrancav17</t>
-  </si>
-  <si>
-    <t>camisanopretav17-EEHOA275U</t>
-  </si>
-  <si>
-    <t>camisanobrancav17</t>
-  </si>
-  <si>
-    <t>INT-VES-KAF-NOS</t>
-  </si>
-  <si>
-    <t>bodydecotadopretofv18-B53RI9TBI</t>
-  </si>
-  <si>
-    <t>vestidoamarracaolbrtjnh18</t>
-  </si>
-  <si>
-    <t>vestidobasicorosafv18</t>
-  </si>
-  <si>
-    <t>TOP-REG-LINH-BR</t>
-  </si>
-  <si>
-    <t>jardineiratramadovermelhofv18</t>
-  </si>
-  <si>
-    <t>blusacrepeuvafv18</t>
-  </si>
-  <si>
-    <t>macacaosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>kimonoestampabotanicmrc18</t>
-  </si>
-  <si>
-    <t>vestidoestamppretofv18</t>
-  </si>
-  <si>
-    <t>vestidosinoblazljlh18</t>
-  </si>
-  <si>
-    <t>shortbotaoduplopretofv18</t>
-  </si>
-  <si>
-    <t>shortestampadoxadrezfv18</t>
-  </si>
-  <si>
-    <t>macacaojuliev17</t>
-  </si>
-  <si>
-    <t>TOP-CAS-MET-PT</t>
-  </si>
-  <si>
-    <t>macaquinhosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>blusaalcinhav17</t>
-  </si>
-  <si>
-    <t>saiatranspassadatamunicofv18</t>
-  </si>
-  <si>
-    <t>camisasociallinholistrasv17</t>
-  </si>
-  <si>
-    <t>vestidonov17</t>
-  </si>
-  <si>
-    <t>INT-VES-ENV-BR</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-CR</t>
-  </si>
-  <si>
-    <t>ShortPescadorVerdev17</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-AZ</t>
-  </si>
-  <si>
-    <t>ShortSaiaBabyBluev17</t>
-  </si>
-  <si>
-    <t>blusabataabacaxisfv18</t>
-  </si>
-  <si>
-    <t>blusabatabrisadeverao</t>
-  </si>
-  <si>
-    <t>bataciganinhaptfv18</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18</t>
-  </si>
-  <si>
-    <t>camisasocifrufrufv18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-PT</t>
-  </si>
-  <si>
-    <t>blusabataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>vestidonocurtocrufv18</t>
-  </si>
-  <si>
-    <t>BOT-SAI-TRAM-BG</t>
-  </si>
-  <si>
-    <t>blusapretabasicafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaoptfv18</t>
-  </si>
-  <si>
-    <t>macacaobotoesorabolasv17</t>
-  </si>
-  <si>
-    <t>macacaopantalonapretov171</t>
-  </si>
-  <si>
-    <t>bodydecotadobrancofv18</t>
-  </si>
-  <si>
-    <t>camisasclasaazulmrc18</t>
-  </si>
-  <si>
-    <t>bodygolapretofv18</t>
-  </si>
-  <si>
-    <t>blusacrepeazuljlh18</t>
-  </si>
-  <si>
-    <t>TOP-BLZ-TRA-VM</t>
-  </si>
-  <si>
-    <t>TOP-BL-LINHX-BC</t>
-  </si>
-  <si>
-    <t>VE-LIS-RT-46-2016</t>
-  </si>
-  <si>
-    <t>vestidoverdesereiafv18</t>
-  </si>
-  <si>
-    <t>camisasclbegemrc18</t>
-  </si>
-  <si>
-    <t>blusacrepelavandajlh18</t>
-  </si>
-  <si>
-    <t>blusacomfypoamrc18</t>
-  </si>
-  <si>
-    <t>blusacomfylistrasmrc18</t>
-  </si>
-  <si>
-    <t>casacoassimetricobabybluev17</t>
-  </si>
-  <si>
-    <t>vestidobataestampadoverdefv18</t>
-  </si>
-  <si>
-    <t>INT-LONG-BOHO-PT</t>
-  </si>
-  <si>
-    <t>VE-AQ-48</t>
-  </si>
-  <si>
-    <t>SaiaPareoFloralv17</t>
-  </si>
-  <si>
-    <t>vestidokaftalistrasv17</t>
-  </si>
-  <si>
-    <t>kimonoestampadomrc18</t>
-  </si>
-  <si>
-    <t>calcaalfocrefv18</t>
+    <t>Macacão Decote Estampado Preto</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Rosê</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Azul Marinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Branco</t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Cinza</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Azul Marinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Transpassada Creme</t>
   </si>
   <si>
     <t>Vestido Bata Verde Listras</t>
   </si>
   <si>
-    <t>Vestido Transpassado Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Rosê</t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Branco</t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Preto</t>
+    <t>Calça Bailarina Sued Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Xadrez Preto</t>
+  </si>
+  <si>
+    <t>Vestido Listras Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
+  </si>
+  <si>
+    <t>Saia Sued</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
+  </si>
+  <si>
+    <t>Vestido Listras Azul</t>
+  </si>
+  <si>
+    <t>Kimono Pontos</t>
+  </si>
+  <si>
+    <t>Blusa Malha Rosa</t>
   </si>
   <si>
     <t xml:space="preserve"> Blusa Listras Branca</t>
   </si>
   <si>
-    <t>Blusa Malha Rosa</t>
-  </si>
-  <si>
     <t>Macacão Decote Estampado Vinho</t>
   </si>
   <si>
-    <t>Vestido Transpassado Azul Marinho</t>
-  </si>
-  <si>
-    <t>Vestido Listras Azul</t>
-  </si>
-  <si>
-    <t>Vestido Listras Vermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Transpassada Creme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Cinza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Xadrez Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
-  </si>
-  <si>
-    <t>Saia Sued</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Verde</t>
-  </si>
-  <si>
-    <t>Calça Bailarina Sued Café</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Azul Marinho</t>
-  </si>
-  <si>
-    <t>Kimono Pontos</t>
+    <t>Blusa Nó Botânica Rosa</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Branca</t>
+  </si>
+  <si>
+    <t>Cardigan Lilás</t>
+  </si>
+  <si>
+    <t>Saia Estampada Preta</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Vermelho</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador Telha</t>
+  </si>
+  <si>
+    <t>Blusa Estampa Navegar</t>
+  </si>
+  <si>
+    <t>Vestido Longo Listras</t>
+  </si>
+  <si>
+    <t>Vestido Poá Botões</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Nó Melancia</t>
+  </si>
+  <si>
+    <t>Blazer de Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Verde Listras</t>
+  </si>
+  <si>
+    <t>Vestido Lastex Ciganinha</t>
+  </si>
+  <si>
+    <t>Macacão Colana</t>
+  </si>
+  <si>
+    <t>Blusa Nipônica</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador azul marinho</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Listras</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Cereja</t>
+  </si>
+  <si>
+    <t>Saia Pantacourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa dolce canelada branca</t>
+  </si>
+  <si>
+    <t>Blusa dolce canelada bege</t>
+  </si>
+  <si>
+    <t>Blusa Alcinha Verde Listrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blusa Malha Bege </t>
+  </si>
+  <si>
+    <t>Macacão Solto Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Transpassada Estampado</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Preto</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Preto</t>
+  </si>
+  <si>
+    <t>Saia Pareô Branca Ora Bolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Xadrez Cinza </t>
+  </si>
+  <si>
+    <t>Camisa Estampada Preto</t>
+  </si>
+  <si>
+    <t>Short Estampado Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimono Tule Goiaba </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Vermelho</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Cinza</t>
+  </si>
+  <si>
+    <t>Bata Flor da Praia</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Rosa</t>
+  </si>
+  <si>
+    <t>Kimono Glam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casaco Assimétrico Verde </t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Scarlet Cinza</t>
+  </si>
+  <si>
+    <t>Saia Envelope Verde Musgo</t>
   </si>
   <si>
     <t>Bata Ciganinha Vermelha</t>
   </si>
   <si>
-    <t>Calça Pantacourt Linho Cinza</t>
-  </si>
-  <si>
-    <t>Kimono Glam</t>
-  </si>
-  <si>
-    <t>Short Estampado Preto</t>
-  </si>
-  <si>
-    <t>Camisa Estampada Preto</t>
-  </si>
-  <si>
-    <t>Blusa Alcinha Verde Listrada</t>
-  </si>
-  <si>
-    <t>Saia Pareô Branca Ora Bolas</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Scarlet Cinza</t>
-  </si>
-  <si>
-    <t>Saia Envelope Verde Musgo</t>
+    <t>Top Malha Branco</t>
+  </si>
+  <si>
+    <t>Top Malha Preto</t>
+  </si>
+  <si>
+    <t>Calça Bailarina Malha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Malha Branca </t>
   </si>
   <si>
     <t>Vestido Longo de Linho Rosa</t>
@@ -639,379 +753,340 @@
     <t xml:space="preserve">pedido angelica pagamento troca </t>
   </si>
   <si>
-    <t>Macacão Colana</t>
-  </si>
-  <si>
-    <t>Blusa Nipônica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Xadrez Cinza </t>
-  </si>
-  <si>
-    <t>Macacão Recortes Preto</t>
-  </si>
-  <si>
-    <t>Calça Pantacourt Linho Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blusa Malha Bege </t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Vermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casaco Assimétrico Verde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimono Tule Goiaba </t>
-  </si>
-  <si>
-    <t>Blusa Crepe Rosa</t>
-  </si>
-  <si>
-    <t>Macacão Solto Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Transpassada Estampado</t>
-  </si>
-  <si>
-    <t>Bata Flor da Praia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa dolce canelada branca</t>
-  </si>
-  <si>
-    <t>Blusa dolce canelada bege</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador azul marinho</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Listras</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Cereja</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Branca</t>
-  </si>
-  <si>
-    <t>Cardigan Lilás</t>
-  </si>
-  <si>
-    <t>Saia Estampada Preta</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador Telha</t>
-  </si>
-  <si>
-    <t>Blusa Estampa Navegar</t>
-  </si>
-  <si>
-    <t>Saia Pantacourt</t>
-  </si>
-  <si>
-    <t>Vestido Poá Botões</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Nó Melancia</t>
-  </si>
-  <si>
-    <t>Blazer de Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Verde Listras</t>
-  </si>
-  <si>
-    <t>Vestido Lastex Ciganinha</t>
-  </si>
-  <si>
-    <t>Vestido Longo Listras</t>
-  </si>
-  <si>
-    <t>Blusa Nó Botânica Rosa</t>
-  </si>
-  <si>
-    <t>Top Malha Branco</t>
-  </si>
-  <si>
-    <t>Top Malha Preto</t>
-  </si>
-  <si>
-    <t>Calça Bailarina Malha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Malha Branca </t>
+    <t>Vestido Sereia Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Camisa Social Goiaba</t>
   </si>
   <si>
     <t xml:space="preserve"> Vestido Longo Estampa Ora Bolas</t>
   </si>
   <si>
+    <t>Kimono Estampa Botanic</t>
+  </si>
+  <si>
+    <t>Blusa Nó Branca</t>
+  </si>
+  <si>
+    <t>Vestido Mood 70S</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho jeans</t>
+  </si>
+  <si>
+    <t>Vestido Kimono Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kimono Estampado</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Ocre</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Listras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Sereia Verde Pérola</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Lavanda</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Poá</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Listras</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico  Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Bata Estampado Verde</t>
+  </si>
+  <si>
+    <t>Blazer Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Macacão Alças Cruzadas</t>
+  </si>
+  <si>
+    <t>Calça Flare Alfaiataria Creme</t>
+  </si>
+  <si>
+    <t>Camisa Social Rosa</t>
+  </si>
+  <si>
+    <t>Saia tramado creme</t>
+  </si>
+  <si>
+    <t>Blusa Preta Básica</t>
+  </si>
+  <si>
+    <t>Vestido recorte assimétrico azul marinho</t>
+  </si>
+  <si>
+    <t>Macacão Botões Ora Bolas</t>
+  </si>
+  <si>
+    <t>Macacão Malha Transpassado</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Preto</t>
+  </si>
+  <si>
+    <t>Macacão Pantalona Preto</t>
+  </si>
+  <si>
     <t>Casaco Capitão em Jacquard preto</t>
   </si>
   <si>
     <t>Calça Alfaiataria Preta</t>
   </si>
   <si>
+    <t>Vestido Sino Bolas Azul</t>
+  </si>
+  <si>
+    <t>Vestido Básico Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regata soltinha </t>
+  </si>
+  <si>
+    <t>Saia Fenda Preta</t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Bege</t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Uva</t>
+  </si>
+  <si>
+    <t>Macacão Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Vestido Estampado Preto</t>
+  </si>
+  <si>
+    <t>Vestido Amarração Liberty</t>
+  </si>
+  <si>
+    <t>Body Decotado Preto</t>
+  </si>
+  <si>
+    <t>Casaco Capitão em Jacquard azul</t>
+  </si>
+  <si>
+    <t>Camisa Nó Preta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Body Decotado Branco</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Azul</t>
+  </si>
+  <si>
+    <t>Body Gola Preto</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Azul</t>
+  </si>
+  <si>
+    <t>Short Saia Azul Serenity</t>
+  </si>
+  <si>
+    <t>Macacão Julie</t>
+  </si>
+  <si>
+    <t>Casaco Matelassê Preto</t>
+  </si>
+  <si>
+    <t>Camisa Cropped de Linho Listrada</t>
+  </si>
+  <si>
+    <t>Vestido Nó Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Envelope branco</t>
+  </si>
+  <si>
+    <t>Camisa Social Manga Frufru</t>
+  </si>
+  <si>
+    <t>Blusa decote X nas costas</t>
+  </si>
+  <si>
+    <t>Camisa Social Bege</t>
+  </si>
+  <si>
+    <t>Saia Pareô Floral</t>
+  </si>
+  <si>
+    <t>Vestido Longo Boho preto</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho creme</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Verde</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Linho Azul Listrado</t>
+  </si>
+  <si>
+    <t>Blusa Bata Abacaxis</t>
+  </si>
+  <si>
+    <t>Blusa Bata Brisa de verão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Preta</t>
+  </si>
+  <si>
+    <t>Camisa Nó Branca</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Estampa Nós</t>
+  </si>
+  <si>
+    <t>Short Botão Duplo Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Short Estampado Xadrez</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho preto</t>
+  </si>
+  <si>
+    <t>Blusa Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t>Vestido Nó Curto Cru</t>
+  </si>
+  <si>
+    <t>Macaquinho Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Blusa Alcinha Verde</t>
+  </si>
+  <si>
+    <t>Saia Transpassada Tamanho Único</t>
+  </si>
+  <si>
+    <t>kimono Veludo Devorê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Amarração Preto</t>
+  </si>
+  <si>
+    <t>Casaco Rosa Quartz</t>
+  </si>
+  <si>
     <t>Vestido Longo Boho branco</t>
   </si>
   <si>
-    <t>kimono Veludo Devorê</t>
-  </si>
-  <si>
-    <t>Vestido Mood 70S</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho jeans</t>
-  </si>
-  <si>
-    <t>Vestido Kimono Preto</t>
-  </si>
-  <si>
-    <t>Macacão Alças Cruzadas</t>
-  </si>
-  <si>
-    <t>Calça Flare Alfaiataria Creme</t>
-  </si>
-  <si>
-    <t>Camisa Social Rosa</t>
-  </si>
-  <si>
-    <t>Casaco Capitão em Jacquard azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Amarração Preto</t>
-  </si>
-  <si>
-    <t>Casaco Rosa Quartz</t>
-  </si>
-  <si>
-    <t>Saia Fenda Preta</t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Bege</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Camisa Social Goiaba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calça Pantacourt Viscose </t>
   </si>
   <si>
-    <t>Blusa Nó Branca</t>
-  </si>
-  <si>
-    <t>Camisa Nó Preta</t>
-  </si>
-  <si>
-    <t>Camisa Nó Branca</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Estampa Nós</t>
-  </si>
-  <si>
-    <t>Body Decotado Preto</t>
-  </si>
-  <si>
-    <t>Vestido Amarração Liberty</t>
-  </si>
-  <si>
-    <t>Vestido Básico Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regata soltinha </t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Vermelho</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Uva</t>
-  </si>
-  <si>
-    <t>Macacão Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t>Kimono Estampa Botanic</t>
-  </si>
-  <si>
-    <t>Vestido Estampado Preto</t>
-  </si>
-  <si>
-    <t>Vestido Sino Bolas Azul</t>
-  </si>
-  <si>
-    <t>Short Botão Duplo Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Short Estampado Xadrez</t>
-  </si>
-  <si>
-    <t>Macacão Julie</t>
-  </si>
-  <si>
-    <t>Casaco Matelassê Preto</t>
-  </si>
-  <si>
-    <t>Macaquinho Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t>Blusa Alcinha Verde</t>
-  </si>
-  <si>
-    <t>Saia Transpassada Tamanho Único</t>
-  </si>
-  <si>
-    <t>Camisa Cropped de Linho Listrada</t>
-  </si>
-  <si>
-    <t>Vestido Nó Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Envelope branco</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho creme</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Verde</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Linho Azul Listrado</t>
-  </si>
-  <si>
-    <t>Short Saia Azul Serenity</t>
-  </si>
-  <si>
-    <t>Blusa Bata Abacaxis</t>
-  </si>
-  <si>
-    <t>Blusa Bata Brisa de verão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Preta</t>
-  </si>
-  <si>
-    <t>Macacão Malha Transpassado</t>
-  </si>
-  <si>
-    <t>Camisa Social Manga Frufru</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho preto</t>
-  </si>
-  <si>
-    <t>Blusa Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t>Vestido Nó Curto Cru</t>
-  </si>
-  <si>
-    <t>Saia tramado creme</t>
-  </si>
-  <si>
-    <t>Blusa Preta Básica</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Preto</t>
-  </si>
-  <si>
-    <t>Macacão Botões Ora Bolas</t>
-  </si>
-  <si>
-    <t>Macacão Pantalona Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Body Decotado Branco</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Azul</t>
-  </si>
-  <si>
-    <t>Body Gola Preto</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Azul</t>
-  </si>
-  <si>
-    <t>Blazer Tramado Vermelho</t>
-  </si>
-  <si>
-    <t>Blusa decote X nas costas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Verde Pérola</t>
-  </si>
-  <si>
-    <t>Camisa Social Bege</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Lavanda</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Poá</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Listras</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico  Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Bata Estampado Verde</t>
-  </si>
-  <si>
-    <t>Vestido Longo Boho preto</t>
-  </si>
-  <si>
-    <t>Vestido recorte assimétrico azul marinho</t>
-  </si>
-  <si>
-    <t>Saia Pareô Floral</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Listras</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kimono Estampado</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Ocre</t>
+    <t>Produto sem descrição.</t>
+  </si>
+  <si>
+    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
+  </si>
+  <si>
+    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
   </si>
   <si>
     <t>VESTIDO BATA LISTRAS-Vestido tipo bata listrado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
   </si>
   <si>
-    <t>Produto sem descrição.</t>
+    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
   </si>
   <si>
     <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
   </si>
   <si>
-    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
-  </si>
-  <si>
-    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
+    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
+  </si>
+  <si>
+    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
+  </si>
+  <si>
+    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
+  </si>
+  <si>
+    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
+  </si>
+  <si>
+    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
+  </si>
+  <si>
+    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
+  </si>
+  <si>
+    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
+  </si>
+  <si>
+    <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
+  </si>
+  <si>
+    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
   </si>
   <si>
     <t>BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decote nos ombros é o toque final da produção. Alças reguláveis com amarração e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
@@ -1020,18 +1095,12 @@
     <t>CALÇA PANTACOURT LINHO CINZA-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nossa blusa bata abacaxi e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
   </si>
   <si>
+    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
+  </si>
+  <si>
     <t>KIMONO GLAM-Kimono de tecido holográfico gráfite com amarração. Amplo e ajustavél.</t>
   </si>
   <si>
-    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
-  </si>
-  <si>
-    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
-  </si>
-  <si>
     <t>Casaco cardigan de malha, na cor cinza escuro, com pontas mais longas na lateral. É um cardigan muito leve de malha macia, que serve para proteger e trazer mais estilo ao look. Em tamanho único.</t>
   </si>
   <si>
@@ -1041,343 +1110,388 @@
     <t>pagamento troca evapore</t>
   </si>
   <si>
-    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
-  </si>
-  <si>
-    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
-  </si>
-  <si>
-    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
-  </si>
-  <si>
-    <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
-  </si>
-  <si>
-    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
-  </si>
-  <si>
-    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
-  </si>
-  <si>
-    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
-  </si>
-  <si>
-    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
-  </si>
-  <si>
-    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
+    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
   </si>
   <si>
     <t>VESTIDO LONGO ESTAMPA ORA BOLAS-O vestido longo estampa ora bolas é clássico e descontraído. O tom clássico fica por conta da releitura do poá que encontramos na estampa, o modelo de alças e a barra recortada trazem um ar descontraído e confortável ao modelo. Modelo com alças reguláveis. Tabela de tamanho P Busto 82cm | Altura 155cm M Busto 86cm | Altura 157cm G Busto 90cm | Altura 159cm</t>
   </si>
   <si>
+    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
+  </si>
+  <si>
+    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA EM LINHO JEANS- Modelo confortável, curto, casual e despojado. iodeal para dias quentas mas nada impede que seja usado com meias botas em dias mais frios. Peça super coringa do tipo tem que ter. Tabela de medidas P Cintura 76cms | Quadril 98cms | Altura 34cms M Cintura 80cms | Quadril 102cms | Altura 36 cms G Cintura 84cms | Quadril 106cms | Altura 38cms</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
+  </si>
+  <si>
+    <t>KIMONO ESTAMPADO-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO. Despojado , elegante , inspira originalidade e comportamento.</t>
+  </si>
+  <si>
+    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
+  </si>
+  <si>
+    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
+  </si>
+  <si>
+    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
+  </si>
+  <si>
+    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
+  </si>
+  <si>
+    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
+  </si>
+  <si>
+    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
+  </si>
+  <si>
+    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
+  </si>
+  <si>
+    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
+  </si>
+  <si>
     <t>Casaco de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: preto, branco e bege</t>
   </si>
   <si>
-    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
+  </si>
+  <si>
+    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
+  </si>
+  <si>
+    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
+  </si>
+  <si>
+    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
+  </si>
+  <si>
+    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
+  </si>
+  <si>
+    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
+  </si>
+  <si>
+    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
+  </si>
+  <si>
+    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
+  </si>
+  <si>
+    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
+  </si>
+  <si>
+    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
+  </si>
+  <si>
+    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
+  </si>
+  <si>
+    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
+  </si>
+  <si>
+    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
+  </si>
+  <si>
+    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
+  </si>
+  <si>
+    <t>Kimono em micro-tule. Peça leve e elegante!</t>
+  </si>
+  <si>
+    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
   </si>
   <si>
     <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Forrado no quadril. Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
   </si>
   <si>
-    <t>Kimono em micro-tule. Peça leve e elegante!</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA EM LINHO JEANS- Modelo confortável, curto, casual e despojado. iodeal para dias quentas mas nada impede que seja usado com meias botas em dias mais frios. Peça super coringa do tipo tem que ter. Tabela de medidas P Cintura 76cms | Quadril 98cms | Altura 34cms M Cintura 80cms | Quadril 102cms | Altura 36 cms G Cintura 84cms | Quadril 106cms | Altura 38cms</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
-  </si>
-  <si>
-    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
-  </si>
-  <si>
-    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
-  </si>
-  <si>
-    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
-  </si>
-  <si>
-    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
-  </si>
-  <si>
-    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
-  </si>
-  <si>
-    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
-  </si>
-  <si>
-    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
-  </si>
-  <si>
-    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
-  </si>
-  <si>
-    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
-  </si>
-  <si>
-    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
-  </si>
-  <si>
-    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
-  </si>
-  <si>
-    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
-  </si>
-  <si>
-    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
-  </si>
-  <si>
-    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
-  </si>
-  <si>
-    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
-  </si>
-  <si>
-    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
-  </si>
-  <si>
-    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
-  </si>
-  <si>
-    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
-  </si>
-  <si>
-    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
-  </si>
-  <si>
-    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
-  </si>
-  <si>
-    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
-  </si>
-  <si>
-    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
-  </si>
-  <si>
-    <t>KIMONO ESTAMPADO-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO. Despojado , elegante , inspira originalidade e comportamento.</t>
+    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/03039p8o7-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-alcinha-verde-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/luai0p60d-blusa-bata-ciganinha-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-alcinha-verde-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
@@ -1386,451 +1500,451 @@
     <t>https://loja.evapore.com.br/pedido-angelica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/z1m68wcas-v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
+    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/d9bk1q7x2-kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-branquias-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
     <t>https://loja.evapore.com.br/casaco-capita-tramare-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/calca-branquias-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
+    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
     <t>https://loja.evapore.com.br/produto/vestido-boho-retro-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/calca-pantacourt-viscose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/d9bk1q7x2-kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-branquias-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228192/ffdf407a05.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327131/01f46f47b6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26086498/a9779818fe.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327131/01f46f47b6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
@@ -1839,360 +1953,246 @@
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30801495/ece9a141b9.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25989857/e2d117968e.jpg</t>
   </si>
   <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29365439/d718f3785a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9827067/a253352f2b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
+  </si>
+  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797793/666ab0f962.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9826767/4ad2df4313.jpg</t>
   </si>
   <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980885/1c4d40cb95.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
+  </si>
+  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149684/0422fe468d.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327862/715039312d.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980885/1c4d40cb95.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29365439/d718f3785a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9827067/a253352f2b.jpg</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -2202,40 +2202,58 @@
     <t>in stock</t>
   </si>
   <si>
+    <t>279.00 BRL</t>
+  </si>
+  <si>
+    <t>269.00 BRL</t>
+  </si>
+  <si>
+    <t>179.00 BRL</t>
+  </si>
+  <si>
+    <t>259.00 BRL</t>
+  </si>
+  <si>
+    <t>129.00 BRL</t>
+  </si>
+  <si>
     <t>239.00 BRL</t>
   </si>
   <si>
-    <t>269.00 BRL</t>
-  </si>
-  <si>
-    <t>279.00 BRL</t>
-  </si>
-  <si>
-    <t>129.00 BRL</t>
+    <t>189.00 BRL</t>
+  </si>
+  <si>
+    <t>169.00 BRL</t>
   </si>
   <si>
     <t>139.00 BRL</t>
   </si>
   <si>
-    <t>169.00 BRL</t>
-  </si>
-  <si>
-    <t>189.00 BRL</t>
-  </si>
-  <si>
-    <t>259.00 BRL</t>
-  </si>
-  <si>
-    <t>179.00 BRL</t>
+    <t>149.00 BRL</t>
+  </si>
+  <si>
+    <t>249.00 BRL</t>
   </si>
   <si>
     <t>89.00 BRL</t>
   </si>
   <si>
+    <t>199.00 BRL</t>
+  </si>
+  <si>
+    <t>109.00 BRL</t>
+  </si>
+  <si>
+    <t>159.00 BRL</t>
+  </si>
+  <si>
+    <t>59.00 BRL</t>
+  </si>
+  <si>
     <t>99.00 BRL</t>
   </si>
   <si>
-    <t>149.00 BRL</t>
+    <t>69.00 BRL</t>
   </si>
   <si>
     <t>289.00 BRL</t>
@@ -2244,106 +2262,88 @@
     <t>367.01 BRL</t>
   </si>
   <si>
-    <t>109.00 BRL</t>
-  </si>
-  <si>
-    <t>199.00 BRL</t>
-  </si>
-  <si>
-    <t>249.00 BRL</t>
-  </si>
-  <si>
-    <t>59.00 BRL</t>
-  </si>
-  <si>
-    <t>159.00 BRL</t>
-  </si>
-  <si>
-    <t>69.00 BRL</t>
+    <t>219.00 BRL</t>
   </si>
   <si>
     <t>229.00 BRL</t>
   </si>
   <si>
+    <t>119.00 BRL</t>
+  </si>
+  <si>
+    <t>195.00 BRL</t>
+  </si>
+  <si>
+    <t>209.00 BRL</t>
+  </si>
+  <si>
+    <t>175.00 BRL</t>
+  </si>
+  <si>
     <t>359.00 BRL</t>
   </si>
   <si>
+    <t>45.00 BRL</t>
+  </si>
+  <si>
+    <t>230.00 BRL</t>
+  </si>
+  <si>
+    <t>349.00 BRL</t>
+  </si>
+  <si>
+    <t>75.00 BRL</t>
+  </si>
+  <si>
     <t>309.00 BRL</t>
   </si>
   <si>
-    <t>209.00 BRL</t>
-  </si>
-  <si>
-    <t>219.00 BRL</t>
-  </si>
-  <si>
-    <t>230.00 BRL</t>
-  </si>
-  <si>
-    <t>119.00 BRL</t>
-  </si>
-  <si>
     <t>270.00 BRL</t>
   </si>
   <si>
-    <t>45.00 BRL</t>
-  </si>
-  <si>
     <t>79.00 BRL</t>
   </si>
   <si>
-    <t>349.00 BRL</t>
-  </si>
-  <si>
-    <t>75.00 BRL</t>
-  </si>
-  <si>
-    <t>195.00 BRL</t>
-  </si>
-  <si>
-    <t>175.00 BRL</t>
+    <t>Macacões</t>
   </si>
   <si>
     <t>Sem categoria</t>
   </si>
   <si>
-    <t>Macacões</t>
-  </si>
-  <si>
     <t>Blusas e Camisas</t>
   </si>
   <si>
+    <t>Calças</t>
+  </si>
+  <si>
+    <t>Saias</t>
+  </si>
+  <si>
     <t>Vestidos</t>
   </si>
   <si>
-    <t>Calças</t>
-  </si>
-  <si>
-    <t>Saias</t>
-  </si>
-  <si>
     <t>Kimonos</t>
   </si>
   <si>
+    <t>Casacos e Blazers</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>Bodys</t>
+  </si>
+  <si>
     <t>Shorts</t>
   </si>
   <si>
-    <t>Casacos e Blazers</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>Bodys</t>
-  </si>
-  <si>
     <t>Para malhar</t>
   </si>
   <si>
+    <t>105.00 BRL</t>
+  </si>
+  <si>
     <t>190.00 BRL</t>
-  </si>
-  <si>
-    <t>105.00 BRL</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2928,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>420</v>
@@ -2949,7 +2949,7 @@
         <v>725</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -2976,7 +2976,7 @@
         <v>172</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>421</v>
@@ -2994,10 +2994,10 @@
         <v>723</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3042,10 +3042,10 @@
         <v>723</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -3072,7 +3072,7 @@
         <v>174</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>423</v>
@@ -3090,10 +3090,10 @@
         <v>723</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -3120,7 +3120,7 @@
         <v>175</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>424</v>
@@ -3138,10 +3138,10 @@
         <v>723</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -3168,7 +3168,7 @@
         <v>176</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>425</v>
@@ -3186,10 +3186,10 @@
         <v>723</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3216,7 +3216,7 @@
         <v>177</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>426</v>
@@ -3234,7 +3234,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>759</v>
@@ -3264,7 +3264,7 @@
         <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>427</v>
@@ -3282,10 +3282,10 @@
         <v>723</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -3312,7 +3312,7 @@
         <v>179</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>428</v>
@@ -3333,7 +3333,7 @@
         <v>729</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3360,7 +3360,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>429</v>
@@ -3378,10 +3378,10 @@
         <v>723</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -3408,7 +3408,7 @@
         <v>181</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>430</v>
@@ -3456,7 +3456,7 @@
         <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>431</v>
@@ -3474,10 +3474,10 @@
         <v>723</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3504,7 +3504,7 @@
         <v>183</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>432</v>
@@ -3522,10 +3522,10 @@
         <v>723</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3552,7 +3552,7 @@
         <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>433</v>
@@ -3570,10 +3570,10 @@
         <v>723</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P16" s="1"/>
     </row>
@@ -3600,7 +3600,7 @@
         <v>185</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>434</v>
@@ -3618,10 +3618,10 @@
         <v>723</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -3648,7 +3648,7 @@
         <v>186</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>435</v>
@@ -3666,7 +3666,7 @@
         <v>723</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>759</v>
@@ -3696,7 +3696,7 @@
         <v>187</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>436</v>
@@ -3714,7 +3714,7 @@
         <v>723</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>763</v>
@@ -3744,7 +3744,7 @@
         <v>188</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>437</v>
@@ -3765,7 +3765,7 @@
         <v>732</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -3792,7 +3792,7 @@
         <v>189</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>438</v>
@@ -3810,10 +3810,10 @@
         <v>723</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3840,7 +3840,7 @@
         <v>190</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>439</v>
@@ -3858,7 +3858,7 @@
         <v>723</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>760</v>
@@ -3888,7 +3888,7 @@
         <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>440</v>
@@ -3906,10 +3906,10 @@
         <v>723</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -3954,7 +3954,7 @@
         <v>723</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>760</v>
@@ -4002,10 +4002,10 @@
         <v>723</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -4050,10 +4050,10 @@
         <v>723</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -4098,10 +4098,10 @@
         <v>723</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -4146,10 +4146,10 @@
         <v>723</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -4176,7 +4176,7 @@
         <v>197</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>446</v>
@@ -4194,10 +4194,10 @@
         <v>723</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -4224,7 +4224,7 @@
         <v>198</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>447</v>
@@ -4245,7 +4245,7 @@
         <v>735</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -4272,7 +4272,7 @@
         <v>199</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>448</v>
@@ -4290,10 +4290,10 @@
         <v>723</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -4320,7 +4320,7 @@
         <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>449</v>
@@ -4338,10 +4338,10 @@
         <v>723</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -4368,7 +4368,7 @@
         <v>201</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>450</v>
@@ -4386,10 +4386,10 @@
         <v>723</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -4416,7 +4416,7 @@
         <v>202</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>451</v>
@@ -4434,10 +4434,10 @@
         <v>723</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P34" s="1"/>
     </row>
@@ -4464,7 +4464,7 @@
         <v>203</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>452</v>
@@ -4482,14 +4482,12 @@
         <v>723</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>729</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -4514,7 +4512,7 @@
         <v>204</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>453</v>
@@ -4532,7 +4530,7 @@
         <v>723</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>760</v>
@@ -4562,7 +4560,7 @@
         <v>205</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>454</v>
@@ -4580,10 +4578,10 @@
         <v>723</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P37" s="1"/>
     </row>
@@ -4610,7 +4608,7 @@
         <v>206</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>455</v>
@@ -4628,12 +4626,14 @@
         <v>723</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P38" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4658,7 +4658,7 @@
         <v>207</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>456</v>
@@ -4676,10 +4676,10 @@
         <v>723</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P39" s="1"/>
     </row>
@@ -4706,7 +4706,7 @@
         <v>208</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>457</v>
@@ -4724,10 +4724,10 @@
         <v>723</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="P40" s="1"/>
     </row>
@@ -4754,7 +4754,7 @@
         <v>209</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>458</v>
@@ -4775,7 +4775,7 @@
         <v>733</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -4802,7 +4802,7 @@
         <v>210</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>459</v>
@@ -4820,10 +4820,10 @@
         <v>723</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -4850,7 +4850,7 @@
         <v>211</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>460</v>
@@ -4868,10 +4868,10 @@
         <v>723</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="P43" s="1"/>
     </row>
@@ -4898,7 +4898,7 @@
         <v>212</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>461</v>
@@ -4916,10 +4916,10 @@
         <v>723</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -4946,7 +4946,7 @@
         <v>213</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>462</v>
@@ -4964,7 +4964,7 @@
         <v>723</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>760</v>
@@ -4994,7 +4994,7 @@
         <v>214</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>463</v>
@@ -5012,10 +5012,10 @@
         <v>723</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P46" s="1"/>
     </row>
@@ -5042,7 +5042,7 @@
         <v>215</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>464</v>
@@ -5060,10 +5060,10 @@
         <v>723</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P47" s="1"/>
     </row>
@@ -5090,7 +5090,7 @@
         <v>216</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>465</v>
@@ -5108,14 +5108,12 @@
         <v>723</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>733</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -5140,7 +5138,7 @@
         <v>217</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>466</v>
@@ -5158,7 +5156,7 @@
         <v>723</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>760</v>
@@ -5188,7 +5186,7 @@
         <v>218</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>467</v>
@@ -5206,10 +5204,10 @@
         <v>723</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P50" s="1"/>
     </row>
@@ -5236,7 +5234,7 @@
         <v>219</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>468</v>
@@ -5254,7 +5252,7 @@
         <v>723</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>758</v>
@@ -5284,7 +5282,7 @@
         <v>220</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>469</v>
@@ -5302,10 +5300,10 @@
         <v>723</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P52" s="1"/>
     </row>
@@ -5332,7 +5330,7 @@
         <v>221</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>470</v>
@@ -5350,10 +5348,10 @@
         <v>723</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -5380,7 +5378,7 @@
         <v>222</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>471</v>
@@ -5398,7 +5396,7 @@
         <v>723</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>760</v>
@@ -5428,7 +5426,7 @@
         <v>223</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>472</v>
@@ -5446,10 +5444,10 @@
         <v>723</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="P55" s="1"/>
     </row>
@@ -5476,7 +5474,7 @@
         <v>224</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>473</v>
@@ -5494,10 +5492,10 @@
         <v>723</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="P56" s="1"/>
     </row>
@@ -5524,7 +5522,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>474</v>
@@ -5545,7 +5543,7 @@
         <v>740</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P57" s="1"/>
     </row>
@@ -5572,7 +5570,7 @@
         <v>226</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>475</v>
@@ -5590,10 +5588,10 @@
         <v>723</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -5620,7 +5618,7 @@
         <v>227</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>476</v>
@@ -5638,10 +5636,10 @@
         <v>723</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P59" s="1"/>
     </row>
@@ -5668,7 +5666,7 @@
         <v>228</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>477</v>
@@ -5686,12 +5684,14 @@
         <v>723</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P60" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -5716,7 +5716,7 @@
         <v>229</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>478</v>
@@ -5734,10 +5734,10 @@
         <v>723</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P61" s="1"/>
     </row>
@@ -5764,7 +5764,7 @@
         <v>230</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>479</v>
@@ -5782,10 +5782,10 @@
         <v>723</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="P62" s="1"/>
     </row>
@@ -5812,7 +5812,7 @@
         <v>231</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>480</v>
@@ -5830,10 +5830,10 @@
         <v>723</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="P63" s="1"/>
     </row>
@@ -5878,10 +5878,10 @@
         <v>723</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P64" s="1"/>
     </row>
@@ -5908,7 +5908,7 @@
         <v>233</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>482</v>
@@ -5926,10 +5926,10 @@
         <v>723</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P65" s="1"/>
     </row>
@@ -5956,7 +5956,7 @@
         <v>234</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>483</v>
@@ -5974,10 +5974,10 @@
         <v>723</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P66" s="1"/>
     </row>
@@ -6004,7 +6004,7 @@
         <v>235</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>484</v>
@@ -6022,10 +6022,10 @@
         <v>723</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="P67" s="1"/>
     </row>
@@ -6052,7 +6052,7 @@
         <v>236</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>485</v>
@@ -6070,10 +6070,10 @@
         <v>723</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="P68" s="1"/>
     </row>
@@ -6100,7 +6100,7 @@
         <v>237</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>486</v>
@@ -6118,7 +6118,7 @@
         <v>723</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>769</v>
@@ -6148,7 +6148,7 @@
         <v>238</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>487</v>
@@ -6166,7 +6166,7 @@
         <v>723</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>769</v>
@@ -6196,7 +6196,7 @@
         <v>239</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>488</v>
@@ -6214,10 +6214,10 @@
         <v>723</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P71" s="1"/>
     </row>
@@ -6244,7 +6244,7 @@
         <v>240</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>489</v>
@@ -6262,10 +6262,10 @@
         <v>723</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="P72" s="1"/>
     </row>
@@ -6313,9 +6313,11 @@
         <v>744</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P73" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="74" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -6340,7 +6342,7 @@
         <v>242</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>491</v>
@@ -6358,14 +6360,12 @@
         <v>723</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P74" s="1"/>
     </row>
     <row r="75" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -6390,7 +6390,7 @@
         <v>243</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>492</v>
@@ -6408,10 +6408,10 @@
         <v>723</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P75" s="1"/>
     </row>
@@ -6438,7 +6438,7 @@
         <v>244</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>493</v>
@@ -6456,14 +6456,12 @@
         <v>723</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="P76" s="1"/>
     </row>
     <row r="77" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -6488,7 +6486,7 @@
         <v>245</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>494</v>
@@ -6506,10 +6504,10 @@
         <v>723</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P77" s="1"/>
     </row>
@@ -6536,7 +6534,7 @@
         <v>246</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>495</v>
@@ -6554,10 +6552,10 @@
         <v>723</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P78" s="1"/>
     </row>
@@ -6584,7 +6582,7 @@
         <v>247</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>496</v>
@@ -6602,10 +6600,10 @@
         <v>723</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="P79" s="1"/>
     </row>
@@ -6632,7 +6630,7 @@
         <v>248</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>497</v>
@@ -6650,10 +6648,10 @@
         <v>723</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P80" s="1"/>
     </row>
@@ -6680,7 +6678,7 @@
         <v>249</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>498</v>
@@ -6698,10 +6696,10 @@
         <v>723</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="P81" s="1"/>
     </row>
@@ -6728,7 +6726,7 @@
         <v>250</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>499</v>
@@ -6746,10 +6744,10 @@
         <v>723</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P82" s="1"/>
     </row>
@@ -6776,7 +6774,7 @@
         <v>251</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>500</v>
@@ -6794,12 +6792,14 @@
         <v>723</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P83" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="84" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -6842,14 +6842,12 @@
         <v>723</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="P84" s="1"/>
     </row>
     <row r="85" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -6874,7 +6872,7 @@
         <v>253</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>502</v>
@@ -6892,12 +6890,14 @@
         <v>723</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P85" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="86" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -6922,7 +6922,7 @@
         <v>254</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>503</v>
@@ -6940,7 +6940,7 @@
         <v>723</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>760</v>
@@ -6970,7 +6970,7 @@
         <v>255</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>504</v>
@@ -6988,10 +6988,10 @@
         <v>723</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P87" s="1"/>
     </row>
@@ -7018,7 +7018,7 @@
         <v>256</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>505</v>
@@ -7036,10 +7036,10 @@
         <v>723</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P88" s="1"/>
     </row>
@@ -7066,7 +7066,7 @@
         <v>257</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>506</v>
@@ -7084,14 +7084,12 @@
         <v>723</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="P89" s="1"/>
     </row>
     <row r="90" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -7116,7 +7114,7 @@
         <v>258</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>507</v>
@@ -7134,10 +7132,10 @@
         <v>723</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P90" s="1"/>
     </row>
@@ -7164,7 +7162,7 @@
         <v>259</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>508</v>
@@ -7182,12 +7180,14 @@
         <v>723</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P91" s="1"/>
+        <v>759</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="92" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -7230,10 +7230,10 @@
         <v>723</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P92" s="1"/>
     </row>
@@ -7278,10 +7278,10 @@
         <v>723</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P93" s="1"/>
     </row>
@@ -7308,7 +7308,7 @@
         <v>262</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>511</v>
@@ -7326,7 +7326,7 @@
         <v>723</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>760</v>
@@ -7356,7 +7356,7 @@
         <v>263</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>512</v>
@@ -7374,13 +7374,13 @@
         <v>723</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -7406,7 +7406,7 @@
         <v>264</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>513</v>
@@ -7424,10 +7424,10 @@
         <v>723</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="P96" s="1"/>
     </row>
@@ -7454,7 +7454,7 @@
         <v>265</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>514</v>
@@ -7472,12 +7472,14 @@
         <v>723</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P97" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="98" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -7502,7 +7504,7 @@
         <v>266</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>515</v>
@@ -7520,7 +7522,7 @@
         <v>723</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>758</v>
@@ -7550,7 +7552,7 @@
         <v>267</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>516</v>
@@ -7568,10 +7570,10 @@
         <v>723</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P99" s="1"/>
     </row>
@@ -7598,7 +7600,7 @@
         <v>268</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>517</v>
@@ -7616,10 +7618,10 @@
         <v>723</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="P100" s="1"/>
     </row>
@@ -7646,7 +7648,7 @@
         <v>269</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>518</v>
@@ -7664,10 +7666,10 @@
         <v>723</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P101" s="1"/>
     </row>
@@ -7694,7 +7696,7 @@
         <v>270</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>519</v>
@@ -7712,12 +7714,14 @@
         <v>723</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P102" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="103" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -7742,7 +7746,7 @@
         <v>271</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>520</v>
@@ -7760,10 +7764,10 @@
         <v>723</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -7790,7 +7794,7 @@
         <v>272</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>521</v>
@@ -7808,10 +7812,10 @@
         <v>723</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -7838,7 +7842,7 @@
         <v>273</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>522</v>
@@ -7856,10 +7860,10 @@
         <v>723</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P105" s="1"/>
     </row>
@@ -7886,7 +7890,7 @@
         <v>274</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>523</v>
@@ -7904,10 +7908,10 @@
         <v>723</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P106" s="1"/>
     </row>
@@ -7934,7 +7938,7 @@
         <v>275</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>524</v>
@@ -7952,10 +7956,10 @@
         <v>723</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P107" s="1"/>
     </row>
@@ -7982,7 +7986,7 @@
         <v>276</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>525</v>
@@ -8000,10 +8004,10 @@
         <v>723</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P108" s="1"/>
     </row>
@@ -8030,7 +8034,7 @@
         <v>277</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>526</v>
@@ -8048,14 +8052,12 @@
         <v>723</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>747</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -8080,7 +8082,7 @@
         <v>278</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>527</v>
@@ -8098,10 +8100,10 @@
         <v>723</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P110" s="1"/>
     </row>
@@ -8128,7 +8130,7 @@
         <v>279</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>528</v>
@@ -8146,10 +8148,10 @@
         <v>723</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P111" s="1"/>
     </row>
@@ -8176,7 +8178,7 @@
         <v>280</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>529</v>
@@ -8194,10 +8196,10 @@
         <v>723</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P112" s="1"/>
     </row>
@@ -8224,7 +8226,7 @@
         <v>281</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>530</v>
@@ -8242,10 +8244,10 @@
         <v>723</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P113" s="1"/>
     </row>
@@ -8272,7 +8274,7 @@
         <v>282</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>531</v>
@@ -8290,10 +8292,10 @@
         <v>723</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="P114" s="1"/>
     </row>
@@ -8320,7 +8322,7 @@
         <v>283</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>532</v>
@@ -8338,13 +8340,13 @@
         <v>723</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -8370,7 +8372,7 @@
         <v>284</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>533</v>
@@ -8388,10 +8390,10 @@
         <v>723</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P116" s="1"/>
     </row>
@@ -8418,7 +8420,7 @@
         <v>285</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>534</v>
@@ -8436,10 +8438,10 @@
         <v>723</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P117" s="1"/>
     </row>
@@ -8466,7 +8468,7 @@
         <v>286</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>397</v>
+        <v>321</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>535</v>
@@ -8487,11 +8489,9 @@
         <v>738</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P118" s="1"/>
     </row>
     <row r="119" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -8516,7 +8516,7 @@
         <v>287</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>536</v>
@@ -8534,10 +8534,10 @@
         <v>723</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P119" s="1"/>
     </row>
@@ -8564,7 +8564,7 @@
         <v>288</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>537</v>
@@ -8582,7 +8582,7 @@
         <v>723</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>760</v>
@@ -8612,7 +8612,7 @@
         <v>289</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>538</v>
@@ -8630,10 +8630,10 @@
         <v>723</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="P121" s="1"/>
     </row>
@@ -8660,7 +8660,7 @@
         <v>290</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>539</v>
@@ -8678,10 +8678,10 @@
         <v>723</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P122" s="1"/>
     </row>
@@ -8708,7 +8708,7 @@
         <v>291</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>540</v>
@@ -8726,12 +8726,14 @@
         <v>723</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P123" s="1"/>
+        <v>766</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="124" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -8756,7 +8758,7 @@
         <v>292</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>541</v>
@@ -8774,7 +8776,7 @@
         <v>723</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>760</v>
@@ -8804,7 +8806,7 @@
         <v>293</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>542</v>
@@ -8822,14 +8824,12 @@
         <v>723</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>753</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="P125" s="1"/>
     </row>
     <row r="126" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8854,7 +8854,7 @@
         <v>294</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>543</v>
@@ -8872,12 +8872,14 @@
         <v>723</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P126" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="127" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -8902,7 +8904,7 @@
         <v>295</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>544</v>
@@ -8920,10 +8922,10 @@
         <v>723</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P127" s="1"/>
     </row>
@@ -8950,7 +8952,7 @@
         <v>296</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>545</v>
@@ -8968,13 +8970,13 @@
         <v>723</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -9000,7 +9002,7 @@
         <v>297</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>546</v>
@@ -9018,7 +9020,7 @@
         <v>723</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>760</v>
@@ -9048,7 +9050,7 @@
         <v>298</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>547</v>
@@ -9066,10 +9068,10 @@
         <v>723</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P130" s="1"/>
     </row>
@@ -9096,7 +9098,7 @@
         <v>299</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>548</v>
@@ -9114,12 +9116,14 @@
         <v>723</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P131" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="132" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -9144,7 +9148,7 @@
         <v>300</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>549</v>
@@ -9162,10 +9166,10 @@
         <v>723</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="P132" s="1"/>
     </row>
@@ -9192,7 +9196,7 @@
         <v>301</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>550</v>
@@ -9210,7 +9214,7 @@
         <v>723</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>768</v>
@@ -9240,7 +9244,7 @@
         <v>302</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>551</v>
@@ -9258,12 +9262,14 @@
         <v>723</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P134" s="1"/>
+        <v>768</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="135" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -9288,7 +9294,7 @@
         <v>303</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>552</v>
@@ -9306,10 +9312,10 @@
         <v>723</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="P135" s="1"/>
     </row>
@@ -9336,7 +9342,7 @@
         <v>304</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>553</v>
@@ -9354,7 +9360,7 @@
         <v>723</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>760</v>
@@ -9384,7 +9390,7 @@
         <v>305</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>554</v>
@@ -9402,14 +9408,12 @@
         <v>723</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>747</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P137" s="1"/>
     </row>
     <row r="138" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -9434,7 +9438,7 @@
         <v>306</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>555</v>
@@ -9452,14 +9456,12 @@
         <v>723</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="P138" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="P138" s="1"/>
     </row>
     <row r="139" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -9484,7 +9486,7 @@
         <v>307</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>556</v>
@@ -9505,9 +9507,11 @@
         <v>756</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P139" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="140" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -9532,7 +9536,7 @@
         <v>308</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>557</v>
@@ -9550,14 +9554,12 @@
         <v>723</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="P140" s="1"/>
     </row>
     <row r="141" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -9582,7 +9584,7 @@
         <v>309</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>558</v>
@@ -9600,10 +9602,10 @@
         <v>723</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="P141" s="1"/>
     </row>
@@ -9630,7 +9632,7 @@
         <v>310</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>559</v>
@@ -9648,12 +9650,14 @@
         <v>723</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P142" s="1"/>
+        <v>768</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="143" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -9678,7 +9682,7 @@
         <v>311</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>560</v>
@@ -9696,10 +9700,10 @@
         <v>723</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P143" s="1"/>
     </row>
@@ -9726,7 +9730,7 @@
         <v>312</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>322</v>
+        <v>412</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>561</v>
@@ -9744,10 +9748,10 @@
         <v>723</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P144" s="1"/>
     </row>
@@ -9792,10 +9796,10 @@
         <v>723</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="P145" s="1"/>
     </row>
@@ -9840,10 +9844,10 @@
         <v>723</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P146" s="1"/>
     </row>
@@ -9888,14 +9892,12 @@
         <v>723</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="P147" s="1"/>
     </row>
     <row r="148" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -9920,7 +9922,7 @@
         <v>316</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>565</v>
@@ -9938,14 +9940,12 @@
         <v>723</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>757</v>
+        <v>731</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>771</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="P148" s="1"/>
     </row>
     <row r="149" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -9970,7 +9970,7 @@
         <v>317</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>416</v>
+        <v>321</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>566</v>
@@ -9988,10 +9988,10 @@
         <v>723</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P149" s="1"/>
     </row>
@@ -10036,14 +10036,12 @@
         <v>723</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>729</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="P150" s="1"/>
     </row>
     <row r="151" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -10086,12 +10084,14 @@
         <v>723</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="P151" s="1"/>
+        <v>763</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="152" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -10116,7 +10116,7 @@
         <v>320</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>569</v>
@@ -10134,10 +10134,10 @@
         <v>723</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P152" s="1"/>
     </row>

--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="766">
   <si>
     <t>version</t>
   </si>
@@ -114,105 +114,105 @@
     <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
   </si>
   <si>
+    <t>calcabailarinasuedcafejlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezprtjlh18</t>
+  </si>
+  <si>
+    <t>vestidolistrasvermelho17-79TTOKM0F</t>
+  </si>
+  <si>
+    <t>blusaamplacrepevrdjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedbgjlh18</t>
+  </si>
+  <si>
+    <t>saiasuedjlh18</t>
+  </si>
+  <si>
+    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
+  </si>
+  <si>
+    <t>vestidolistrasazulv17</t>
+  </si>
+  <si>
+    <t>kimonopontoabril18</t>
+  </si>
+  <si>
+    <t>blusamalharosajlh18</t>
+  </si>
+  <si>
+    <t>blusalistrasbrancajlh18</t>
+  </si>
+  <si>
+    <t>macacaodecotestmpvnhjlh18</t>
+  </si>
+  <si>
+    <t>blusanobotfv18-u</t>
+  </si>
+  <si>
+    <t>camisasocialasabrancafv18</t>
+  </si>
+  <si>
+    <t>cardiganlilasmrc18</t>
+  </si>
+  <si>
+    <t>saiaestampadapretafv18</t>
+  </si>
+  <si>
+    <t>macacaorecortesvermelhofv18</t>
+  </si>
+  <si>
+    <t>calcaalfpescadortelhafv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-NAV-BC</t>
+  </si>
+  <si>
+    <t>vestidolongolistrasfv18</t>
+  </si>
+  <si>
+    <t>vestidopoabotoesmrc18</t>
+  </si>
+  <si>
+    <t>macacaorecortesv17</t>
+  </si>
+  <si>
+    <t>vestidonofv18</t>
+  </si>
+  <si>
+    <t>blazerdelinhopretofv18</t>
+  </si>
+  <si>
+    <t>blusaverdelistrasjlh18</t>
+  </si>
+  <si>
+    <t>vestidolastexciganinhafv18</t>
+  </si>
+  <si>
+    <t>INT-MAC-COL-PT</t>
+  </si>
+  <si>
+    <t>blusaniponicafv18</t>
+  </si>
+  <si>
+    <t>BOT-CA-PESC-AZ</t>
+  </si>
+  <si>
+    <t>camisasocialasafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaocrjfv18</t>
+  </si>
+  <si>
+    <t>SaiaPantacourt</t>
+  </si>
+  <si>
     <t>vestidobataverdelistrasfv18-03039P8O7</t>
   </si>
   <si>
-    <t>calcabailarinasuedcafejlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezprtjlh18</t>
-  </si>
-  <si>
-    <t>vestidolistrasvermelho17-79TTOKM0F</t>
-  </si>
-  <si>
-    <t>blusaamplacrepevrdjlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedbgjlh18</t>
-  </si>
-  <si>
-    <t>saiasuedjlh18</t>
-  </si>
-  <si>
-    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
-  </si>
-  <si>
-    <t>vestidolistrasazulv17</t>
-  </si>
-  <si>
-    <t>kimonopontoabril18</t>
-  </si>
-  <si>
-    <t>blusamalharosajlh18</t>
-  </si>
-  <si>
-    <t>blusalistrasbrancajlh18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpvnhjlh18</t>
-  </si>
-  <si>
-    <t>blusanobotfv18-u</t>
-  </si>
-  <si>
-    <t>camisasocialasabrancafv18</t>
-  </si>
-  <si>
-    <t>cardiganlilasmrc18</t>
-  </si>
-  <si>
-    <t>saiaestampadapretafv18</t>
-  </si>
-  <si>
-    <t>macacaorecortesvermelhofv18</t>
-  </si>
-  <si>
-    <t>calcaalfpescadortelhafv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-NAV-BC</t>
-  </si>
-  <si>
-    <t>vestidolongolistrasfv18</t>
-  </si>
-  <si>
-    <t>vestidopoabotoesmrc18</t>
-  </si>
-  <si>
-    <t>macacaorecortesv17</t>
-  </si>
-  <si>
-    <t>vestidonofv18</t>
-  </si>
-  <si>
-    <t>blazerdelinhopretofv18</t>
-  </si>
-  <si>
-    <t>blusaverdelistrasjlh18</t>
-  </si>
-  <si>
-    <t>vestidolastexciganinhafv18</t>
-  </si>
-  <si>
-    <t>INT-MAC-COL-PT</t>
-  </si>
-  <si>
-    <t>blusaniponicafv18</t>
-  </si>
-  <si>
-    <t>BOT-CA-PESC-AZ</t>
-  </si>
-  <si>
-    <t>camisasocialasafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaocrjfv18</t>
-  </si>
-  <si>
-    <t>SaiaPantacourt</t>
-  </si>
-  <si>
     <t>FWA4UDCHX</t>
   </si>
   <si>
@@ -297,9 +297,6 @@
     <t>EZ6TF7C7F</t>
   </si>
   <si>
-    <t>3RYQVNVX4</t>
-  </si>
-  <si>
     <t>vestidoazulsereiafv18</t>
   </si>
   <si>
@@ -567,105 +564,105 @@
     <t xml:space="preserve"> Blusa Transpassada Creme</t>
   </si>
   <si>
+    <t>Calça Bailarina Sued Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Xadrez Preto</t>
+  </si>
+  <si>
+    <t>Vestido Listras Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
+  </si>
+  <si>
+    <t>Saia Sued</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
+  </si>
+  <si>
+    <t>Vestido Listras Azul</t>
+  </si>
+  <si>
+    <t>Kimono Pontos</t>
+  </si>
+  <si>
+    <t>Blusa Malha Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Listras Branca</t>
+  </si>
+  <si>
+    <t>Macacão Decote Estampado Vinho</t>
+  </si>
+  <si>
+    <t>Blusa Nó Botânica Rosa</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Branca</t>
+  </si>
+  <si>
+    <t>Cardigan Lilás</t>
+  </si>
+  <si>
+    <t>Saia Estampada Preta</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Vermelho</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador Telha</t>
+  </si>
+  <si>
+    <t>Blusa Estampa Navegar</t>
+  </si>
+  <si>
+    <t>Vestido Longo Listras</t>
+  </si>
+  <si>
+    <t>Vestido Poá Botões</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Nó Melancia</t>
+  </si>
+  <si>
+    <t>Blazer de Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Verde Listras</t>
+  </si>
+  <si>
+    <t>Vestido Lastex Ciganinha</t>
+  </si>
+  <si>
+    <t>Macacão Colana</t>
+  </si>
+  <si>
+    <t>Blusa Nipônica</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador azul marinho</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Listras</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Cereja</t>
+  </si>
+  <si>
+    <t>Saia Pantacourt</t>
+  </si>
+  <si>
     <t>Vestido Bata Verde Listras</t>
   </si>
   <si>
-    <t>Calça Bailarina Sued Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Xadrez Preto</t>
-  </si>
-  <si>
-    <t>Vestido Listras Vermelho</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
-  </si>
-  <si>
-    <t>Saia Sued</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
-  </si>
-  <si>
-    <t>Vestido Listras Azul</t>
-  </si>
-  <si>
-    <t>Kimono Pontos</t>
-  </si>
-  <si>
-    <t>Blusa Malha Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Listras Branca</t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Vinho</t>
-  </si>
-  <si>
-    <t>Blusa Nó Botânica Rosa</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Branca</t>
-  </si>
-  <si>
-    <t>Cardigan Lilás</t>
-  </si>
-  <si>
-    <t>Saia Estampada Preta</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador Telha</t>
-  </si>
-  <si>
-    <t>Blusa Estampa Navegar</t>
-  </si>
-  <si>
-    <t>Vestido Longo Listras</t>
-  </si>
-  <si>
-    <t>Vestido Poá Botões</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Nó Melancia</t>
-  </si>
-  <si>
-    <t>Blazer de Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Verde Listras</t>
-  </si>
-  <si>
-    <t>Vestido Lastex Ciganinha</t>
-  </si>
-  <si>
-    <t>Macacão Colana</t>
-  </si>
-  <si>
-    <t>Blusa Nipônica</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador azul marinho</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Listras</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Cereja</t>
-  </si>
-  <si>
-    <t>Saia Pantacourt</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Blusa dolce canelada branca</t>
   </si>
   <si>
@@ -750,9 +747,6 @@
     <t>Vestido Longo de Linho Rosa</t>
   </si>
   <si>
-    <t xml:space="preserve">pedido angelica pagamento troca </t>
-  </si>
-  <si>
     <t>Vestido Sereia Azul</t>
   </si>
   <si>
@@ -1002,72 +996,72 @@
     <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
   </si>
   <si>
+    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
+  </si>
+  <si>
+    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
+  </si>
+  <si>
+    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
+  </si>
+  <si>
+    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
+  </si>
+  <si>
+    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
+  </si>
+  <si>
+    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
+  </si>
+  <si>
+    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
+  </si>
+  <si>
+    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
+  </si>
+  <si>
     <t>VESTIDO BATA LISTRAS-Vestido tipo bata listrado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
   </si>
   <si>
-    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
-  </si>
-  <si>
-    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
-  </si>
-  <si>
-    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
-  </si>
-  <si>
-    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
-  </si>
-  <si>
-    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
-  </si>
-  <si>
-    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
-  </si>
-  <si>
-    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
-  </si>
-  <si>
-    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
-  </si>
-  <si>
     <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
   </si>
   <si>
@@ -1107,9 +1101,6 @@
     <t>VESTIDO LONGO DE LINHO ROSA-Vestido longo em linho, abotoado a frente com botões de madrepérola até a fenda frontal. Acabamento manual que dá um toque leve e refinado a peça. Com amarração para ajusre do vestido na cintura. A manga 3/4 e a abertura de fenda central dão a peça um frescor de jovialidade. Esse vestido longo é uma boa pedida especial tanto para o dia a dia quanto para compor looks mais ousados. . Cintura ajustável . Descriçāo de tamanhos Tamanho P - Busto 84cm / cintura 72 cm Tamaho M - Busto 8...</t>
   </si>
   <si>
-    <t>pagamento troca evapore</t>
-  </si>
-  <si>
     <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
   </si>
   <si>
@@ -1314,105 +1305,105 @@
     <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
     <t>https://loja.evapore.com.br/03039p8o7-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
@@ -1497,9 +1488,6 @@
     <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/pedido-angelica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
@@ -1767,105 +1755,105 @@
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
   </si>
   <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
+  </si>
+  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228192/ffdf407a05.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
   </si>
   <si>
@@ -1950,9 +1938,6 @@
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30801495/ece9a141b9.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
   </si>
   <si>
@@ -2217,15 +2202,15 @@
     <t>129.00 BRL</t>
   </si>
   <si>
+    <t>189.00 BRL</t>
+  </si>
+  <si>
+    <t>169.00 BRL</t>
+  </si>
+  <si>
     <t>239.00 BRL</t>
   </si>
   <si>
-    <t>189.00 BRL</t>
-  </si>
-  <si>
-    <t>169.00 BRL</t>
-  </si>
-  <si>
     <t>139.00 BRL</t>
   </si>
   <si>
@@ -2257,9 +2242,6 @@
   </si>
   <si>
     <t>289.00 BRL</t>
-  </si>
-  <si>
-    <t>367.01 BRL</t>
   </si>
   <si>
     <t>219.00 BRL</t>
@@ -2466,8 +2448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P152" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:P152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P151" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:P151"/>
   <tableColumns count="16">
     <tableColumn id="1" uniqueName="version" name="version">
       <xmlColumnPr mapId="1" xpath="/rss/@version" xmlDataType="double"/>
@@ -2785,7 +2767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2877,31 +2859,31 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -2925,31 +2907,31 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -2973,31 +2955,31 @@
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3021,31 +3003,31 @@
         <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -3069,31 +3051,31 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -3117,31 +3099,31 @@
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -3165,31 +3147,31 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3213,31 +3195,31 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -3261,31 +3243,31 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -3309,31 +3291,31 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3357,31 +3339,31 @@
         <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -3405,31 +3387,31 @@
         <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -3453,31 +3435,31 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>731</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3501,31 +3483,31 @@
         <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3549,31 +3531,31 @@
         <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="P16" s="1"/>
     </row>
@@ -3597,31 +3579,31 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -3645,31 +3627,31 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -3693,31 +3675,31 @@
         <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3741,31 +3723,31 @@
         <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -3789,31 +3771,31 @@
         <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="O21" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3837,31 +3819,31 @@
         <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -3885,31 +3867,31 @@
         <v>40</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -3933,31 +3915,31 @@
         <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -3981,31 +3963,31 @@
         <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -4029,31 +4011,31 @@
         <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="P26" s="1"/>
     </row>
@@ -4077,31 +4059,31 @@
         <v>44</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -4125,31 +4107,31 @@
         <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -4173,31 +4155,31 @@
         <v>46</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>730</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -4221,31 +4203,31 @@
         <v>47</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -4269,31 +4251,31 @@
         <v>48</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -4317,31 +4299,31 @@
         <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -4365,31 +4347,31 @@
         <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -4413,28 +4395,28 @@
         <v>51</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>759</v>
@@ -4461,31 +4443,31 @@
         <v>52</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="P35" s="1"/>
     </row>
@@ -4509,31 +4491,31 @@
         <v>53</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="P36" s="1"/>
     </row>
@@ -4557,33 +4539,35 @@
         <v>54</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P37" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4605,35 +4589,33 @@
         <v>55</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>731</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -4655,31 +4637,31 @@
         <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="P39" s="1"/>
     </row>
@@ -4703,31 +4685,31 @@
         <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P40" s="1"/>
     </row>
@@ -4751,31 +4733,31 @@
         <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>733</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -4799,31 +4781,31 @@
         <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -4847,31 +4829,31 @@
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="P43" s="1"/>
     </row>
@@ -4895,31 +4877,31 @@
         <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -4943,31 +4925,31 @@
         <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -4991,31 +4973,31 @@
         <v>63</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P46" s="1"/>
     </row>
@@ -5039,31 +5021,31 @@
         <v>64</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P47" s="1"/>
     </row>
@@ -5087,31 +5069,31 @@
         <v>65</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K48" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="O48" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P48" s="1"/>
     </row>
@@ -5135,31 +5117,31 @@
         <v>66</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P49" s="1"/>
     </row>
@@ -5183,31 +5165,31 @@
         <v>67</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P50" s="1"/>
     </row>
@@ -5231,31 +5213,31 @@
         <v>68</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P51" s="1"/>
     </row>
@@ -5279,31 +5261,31 @@
         <v>69</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P52" s="1"/>
     </row>
@@ -5327,31 +5309,31 @@
         <v>70</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -5375,31 +5357,31 @@
         <v>71</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M54" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="O54" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P54" s="1"/>
     </row>
@@ -5423,31 +5405,31 @@
         <v>72</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P55" s="1"/>
     </row>
@@ -5471,31 +5453,31 @@
         <v>73</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P56" s="1"/>
     </row>
@@ -5519,31 +5501,31 @@
         <v>74</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P57" s="1"/>
     </row>
@@ -5567,31 +5549,31 @@
         <v>75</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -5615,31 +5597,31 @@
         <v>76</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P59" s="1"/>
     </row>
@@ -5663,34 +5645,34 @@
         <v>77</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -5713,31 +5695,31 @@
         <v>78</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P61" s="1"/>
     </row>
@@ -5761,31 +5743,31 @@
         <v>79</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P62" s="1"/>
     </row>
@@ -5809,31 +5791,31 @@
         <v>80</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P63" s="1"/>
     </row>
@@ -5857,31 +5839,31 @@
         <v>81</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K64" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="O64" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P64" s="1"/>
     </row>
@@ -5905,31 +5887,31 @@
         <v>82</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P65" s="1"/>
     </row>
@@ -5953,31 +5935,31 @@
         <v>83</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P66" s="1"/>
     </row>
@@ -6001,31 +5983,31 @@
         <v>84</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P67" s="1"/>
     </row>
@@ -6049,31 +6031,31 @@
         <v>85</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P68" s="1"/>
     </row>
@@ -6097,31 +6079,31 @@
         <v>86</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="O69" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P69" s="1"/>
     </row>
@@ -6145,31 +6127,31 @@
         <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M70" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="O70" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P70" s="1"/>
     </row>
@@ -6193,31 +6175,31 @@
         <v>88</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P71" s="1"/>
     </row>
@@ -6241,33 +6223,35 @@
         <v>89</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P72" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="73" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -6289,35 +6273,33 @@
         <v>90</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>732</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P73" s="1"/>
     </row>
     <row r="74" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -6339,31 +6321,31 @@
         <v>91</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P74" s="1"/>
     </row>
@@ -6387,31 +6369,31 @@
         <v>92</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="P75" s="1"/>
     </row>
@@ -6435,31 +6417,31 @@
         <v>93</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="P76" s="1"/>
     </row>
@@ -6483,31 +6465,31 @@
         <v>94</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="P77" s="1"/>
     </row>
@@ -6531,31 +6513,31 @@
         <v>95</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="P78" s="1"/>
     </row>
@@ -6579,31 +6561,31 @@
         <v>96</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="P79" s="1"/>
     </row>
@@ -6627,31 +6609,31 @@
         <v>97</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P80" s="1"/>
     </row>
@@ -6675,31 +6657,31 @@
         <v>98</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="P81" s="1"/>
     </row>
@@ -6723,33 +6705,35 @@
         <v>99</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="O82" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P82" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="83" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -6771,35 +6755,33 @@
         <v>100</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>731</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P83" s="1"/>
     </row>
     <row r="84" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -6821,33 +6803,35 @@
         <v>101</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P84" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="85" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -6869,35 +6853,33 @@
         <v>102</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>732</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P85" s="1"/>
     </row>
     <row r="86" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -6919,31 +6901,31 @@
         <v>103</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P86" s="1"/>
     </row>
@@ -6967,31 +6949,31 @@
         <v>104</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P87" s="1"/>
     </row>
@@ -7015,31 +6997,31 @@
         <v>105</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N88" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="O88" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P88" s="1"/>
     </row>
@@ -7063,31 +7045,31 @@
         <v>106</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="P89" s="1"/>
     </row>
@@ -7111,33 +7093,35 @@
         <v>107</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P90" s="1"/>
+        <v>753</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="91" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -7159,35 +7143,33 @@
         <v>108</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>748</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -7209,31 +7191,31 @@
         <v>109</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P92" s="1"/>
     </row>
@@ -7257,31 +7239,31 @@
         <v>110</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="P93" s="1"/>
     </row>
@@ -7305,25 +7287,25 @@
         <v>111</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>733</v>
@@ -7331,7 +7313,9 @@
       <c r="O94" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="P94" s="1"/>
+      <c r="P94" s="1" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="95" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -7353,35 +7337,33 @@
         <v>112</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>728</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P95" s="1"/>
     </row>
     <row r="96" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -7403,33 +7385,35 @@
         <v>113</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="P96" s="1"/>
+      <c r="P96" s="1" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="97" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -7451,35 +7435,33 @@
         <v>114</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>770</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="P97" s="1"/>
     </row>
     <row r="98" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -7501,31 +7483,31 @@
         <v>115</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P98" s="1"/>
     </row>
@@ -7549,31 +7531,31 @@
         <v>116</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="P99" s="1"/>
     </row>
@@ -7597,31 +7579,31 @@
         <v>117</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="P100" s="1"/>
     </row>
@@ -7645,33 +7627,35 @@
         <v>118</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P101" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="102" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -7693,35 +7677,33 @@
         <v>119</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>742</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="P102" s="1"/>
     </row>
     <row r="103" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -7743,31 +7725,31 @@
         <v>120</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="P103" s="1"/>
     </row>
@@ -7791,31 +7773,31 @@
         <v>121</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -7839,31 +7821,31 @@
         <v>122</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P105" s="1"/>
     </row>
@@ -7887,31 +7869,31 @@
         <v>123</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P106" s="1"/>
     </row>
@@ -7935,31 +7917,31 @@
         <v>124</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="P107" s="1"/>
     </row>
@@ -7983,31 +7965,31 @@
         <v>125</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N108" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="P108" s="1"/>
     </row>
@@ -8031,31 +8013,31 @@
         <v>126</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="P109" s="1"/>
     </row>
@@ -8079,31 +8061,31 @@
         <v>127</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="P110" s="1"/>
     </row>
@@ -8127,31 +8109,31 @@
         <v>128</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K111" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N111" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="O111" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P111" s="1"/>
     </row>
@@ -8175,31 +8157,31 @@
         <v>129</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P112" s="1"/>
     </row>
@@ -8223,31 +8205,31 @@
         <v>130</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>321</v>
+        <v>385</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P113" s="1"/>
     </row>
@@ -8271,33 +8253,35 @@
         <v>131</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="P114" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="115" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -8319,35 +8303,33 @@
         <v>132</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>742</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P115" s="1"/>
     </row>
     <row r="116" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -8369,31 +8351,31 @@
         <v>133</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>733</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P116" s="1"/>
     </row>
@@ -8417,31 +8399,31 @@
         <v>134</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="P117" s="1"/>
     </row>
@@ -8465,31 +8447,31 @@
         <v>135</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P118" s="1"/>
     </row>
@@ -8513,31 +8495,31 @@
         <v>136</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="P119" s="1"/>
     </row>
@@ -8561,31 +8543,31 @@
         <v>137</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P120" s="1"/>
     </row>
@@ -8609,31 +8591,31 @@
         <v>138</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="P121" s="1"/>
     </row>
@@ -8657,33 +8639,35 @@
         <v>139</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P122" s="1"/>
+        <v>760</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="123" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -8705,35 +8689,33 @@
         <v>140</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M123" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="N123" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="O123" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>748</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P123" s="1"/>
     </row>
     <row r="124" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -8755,31 +8737,31 @@
         <v>141</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="P124" s="1"/>
     </row>
@@ -8803,33 +8785,35 @@
         <v>142</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P125" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="126" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8851,35 +8835,33 @@
         <v>143</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>771</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P126" s="1"/>
     </row>
     <row r="127" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -8901,33 +8883,35 @@
         <v>144</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P127" s="1"/>
+        <v>754</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="128" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -8949,35 +8933,33 @@
         <v>145</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>400</v>
+        <v>319</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N128" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="O128" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>739</v>
-      </c>
+      <c r="P128" s="1"/>
     </row>
     <row r="129" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -8999,31 +8981,31 @@
         <v>146</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P129" s="1"/>
     </row>
@@ -9047,33 +9029,35 @@
         <v>147</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="P130" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="131" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -9095,35 +9079,33 @@
         <v>148</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>742</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="P131" s="1"/>
     </row>
     <row r="132" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -9145,31 +9127,31 @@
         <v>149</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P132" s="1"/>
     </row>
@@ -9193,33 +9175,35 @@
         <v>150</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P133" s="1"/>
+        <v>762</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="134" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -9241,35 +9225,33 @@
         <v>151</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>757</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P134" s="1"/>
     </row>
     <row r="135" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -9291,31 +9273,31 @@
         <v>152</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P135" s="1"/>
     </row>
@@ -9339,31 +9321,31 @@
         <v>153</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P136" s="1"/>
     </row>
@@ -9387,31 +9369,31 @@
         <v>154</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P137" s="1"/>
     </row>
@@ -9435,33 +9417,35 @@
         <v>155</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P138" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="139" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -9483,35 +9467,33 @@
         <v>156</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>736</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="P139" s="1"/>
     </row>
     <row r="140" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -9533,31 +9515,31 @@
         <v>157</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P140" s="1"/>
     </row>
@@ -9581,33 +9563,35 @@
         <v>158</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P141" s="1"/>
+        <v>762</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="142" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -9629,35 +9613,33 @@
         <v>159</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>757</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P142" s="1"/>
     </row>
     <row r="143" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -9679,31 +9661,31 @@
         <v>160</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P143" s="1"/>
     </row>
@@ -9727,31 +9709,31 @@
         <v>161</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="P144" s="1"/>
     </row>
@@ -9775,31 +9757,31 @@
         <v>162</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="P145" s="1"/>
     </row>
@@ -9823,31 +9805,31 @@
         <v>163</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P146" s="1"/>
     </row>
@@ -9871,31 +9853,31 @@
         <v>164</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="P147" s="1"/>
     </row>
@@ -9919,31 +9901,31 @@
         <v>165</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>416</v>
+        <v>319</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="P148" s="1"/>
     </row>
@@ -9967,31 +9949,31 @@
         <v>166</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P149" s="1"/>
     </row>
@@ -10015,33 +9997,35 @@
         <v>167</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P150" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="151" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -10063,83 +10047,33 @@
         <v>168</v>
       </c>
       <c r="G151" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="I151" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="N151" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="O151" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="390" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>2</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P152" s="1"/>
+      <c r="P151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
+++ b/FacebookCatalog/Evapore/remo_evap-LojaIntegrada--export__FBxml.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="facebook" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Users\Raphael\Desktop\facebook.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\Users\Raphael\3D Objects\facebook.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -87,2097 +87,2097 @@
 Site: www.evapore.com.br</t>
   </si>
   <si>
+    <t>vestidosinoblazljlh18</t>
+  </si>
+  <si>
+    <t>blusaamplacrepevrdjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezbrcjlh18</t>
+  </si>
+  <si>
+    <t>bodydecotadopretofv18-B53RI9TBI</t>
+  </si>
+  <si>
+    <t>blusalistrasbrancajlh18</t>
+  </si>
+  <si>
+    <t>blusanobotfv18-u</t>
+  </si>
+  <si>
+    <t>saiasuedjlh18</t>
+  </si>
+  <si>
+    <t>vestidolistrasazulv17</t>
+  </si>
+  <si>
+    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
+  </si>
+  <si>
+    <t>vestidolistrasvermelho17-79TTOKM0F</t>
+  </si>
+  <si>
+    <t>macacaoxadrezprtjlh18</t>
+  </si>
+  <si>
+    <t>macacaoxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>blusaamplacrepeazljlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadorsjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedbgjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinasuedcafejlh18</t>
+  </si>
+  <si>
+    <t>vestidotranspassadovnhjlh18</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
+  </si>
+  <si>
+    <t>vestidotranspassadoazljlh18</t>
+  </si>
+  <si>
+    <t>macacaodecotestmpprtjlh18</t>
+  </si>
+  <si>
+    <t>macacaodecotestmpvnhjlh18</t>
+  </si>
+  <si>
+    <t>blusamalharosajlh18</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
+  </si>
+  <si>
+    <t>kimonopontoabril18</t>
+  </si>
+  <si>
+    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
+  </si>
+  <si>
+    <t>macacaosoltolinhopretofv18</t>
+  </si>
+  <si>
+    <t>camisaestampadaptfv18</t>
+  </si>
+  <si>
+    <t>kimonotulegoiabajlh18</t>
+  </si>
+  <si>
+    <t>bataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>calcapantacourtprtfv18</t>
+  </si>
+  <si>
+    <t>macacaorecortespretofv18</t>
+  </si>
+  <si>
+    <t>saiapareoorabolasbrancav17</t>
+  </si>
+  <si>
+    <t>calcaxadrezcnzjlh18</t>
+  </si>
+  <si>
+    <t>bataciganinhavrmlhfv18</t>
+  </si>
+  <si>
+    <t>blusacreperosafv18</t>
+  </si>
+  <si>
+    <t>calcapantacourtcinzfv18</t>
+  </si>
+  <si>
+    <t>EZ6TF7C7F</t>
+  </si>
+  <si>
+    <t>SaiaPantacourt</t>
+  </si>
+  <si>
+    <t>camisasocialasabrancafv18</t>
+  </si>
+  <si>
+    <t>cardiganlilasmrc18</t>
+  </si>
+  <si>
+    <t>saiaestampadapretafv18</t>
+  </si>
+  <si>
+    <t>macacaorecortesvermelhofv18</t>
+  </si>
+  <si>
+    <t>calcaalfpescadortelhafv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-NAV-BC</t>
+  </si>
+  <si>
+    <t>vestidolongolistrasfv18</t>
+  </si>
+  <si>
+    <t>vestidopoabotoesmrc18</t>
+  </si>
+  <si>
+    <t>macacaorecortesv17</t>
+  </si>
+  <si>
+    <t>vestidonofv18</t>
+  </si>
+  <si>
+    <t>blazerdelinhopretofv18</t>
+  </si>
+  <si>
+    <t>blusaniponicafv18</t>
+  </si>
+  <si>
+    <t>blusaverdelistrasjlh18</t>
+  </si>
+  <si>
+    <t>vestidolastexciganinhafv18</t>
+  </si>
+  <si>
+    <t>INT-MAC-COL-PT</t>
+  </si>
+  <si>
+    <t>BOT-CA-PESC-AZ</t>
+  </si>
+  <si>
+    <t>camisasocialasafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaocrjfv18</t>
+  </si>
+  <si>
+    <t>kimonoglamfv18</t>
+  </si>
+  <si>
+    <t>bataflorpraiafv18</t>
+  </si>
+  <si>
+    <t>blusamalhabegejlh18</t>
+  </si>
+  <si>
+    <t>shortestampadopretofv18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrdjlh18</t>
+  </si>
+  <si>
+    <t>saiaenvelopeverdemusgofv18</t>
+  </si>
+  <si>
+    <t>kimonotecidovrmjlh18</t>
+  </si>
+  <si>
+    <t>casacoassimetricoscarletcnzfv18</t>
+  </si>
+  <si>
+    <t>TOP-BL-DOLC-CN-BG</t>
+  </si>
+  <si>
     <t>FWA4UDCHX</t>
   </si>
   <si>
-    <t>TOP-BL-DOLC-CN-BG</t>
-  </si>
-  <si>
     <t>blusaalcinhavrdlstrjlh18</t>
   </si>
   <si>
-    <t>blusamalhabegejlh18</t>
-  </si>
-  <si>
-    <t>macacaosoltolinhopretofv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-EST-VK9HGH0N4-2AR6NZCJ0</t>
-  </si>
-  <si>
-    <t>calcapantacourtprtfv18</t>
-  </si>
-  <si>
-    <t>macacaorecortespretofv18</t>
-  </si>
-  <si>
-    <t>saiapareoorabolasbrancav17</t>
-  </si>
-  <si>
-    <t>calcaxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>camisaestampadaptfv18</t>
-  </si>
-  <si>
-    <t>shortestampadopretofv18</t>
-  </si>
-  <si>
-    <t>kimonotulegoiabajlh18</t>
-  </si>
-  <si>
-    <t>bataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrmjlh18</t>
-  </si>
-  <si>
-    <t>calcapantacourtcinzfv18</t>
-  </si>
-  <si>
-    <t>bataflorpraiafv18</t>
-  </si>
-  <si>
-    <t>blusacreperosafv18</t>
-  </si>
-  <si>
-    <t>kimonoglamfv18</t>
-  </si>
-  <si>
-    <t>kimonotecidovrdjlh18</t>
-  </si>
-  <si>
-    <t>casacoassimetricoscarletcnzfv18</t>
-  </si>
-  <si>
-    <t>saiaenvelopeverdemusgofv18</t>
-  </si>
-  <si>
-    <t>bataciganinhavrmlhfv18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpprtjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadorsjlh18</t>
-  </si>
-  <si>
-    <t>blusaamplacrepeazljlh18</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18-Q9IC2JXWD</t>
-  </si>
-  <si>
-    <t>macacaoxadrezcnzjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadovnhjlh18</t>
-  </si>
-  <si>
-    <t>vestidotranspassadoazljlh18</t>
-  </si>
-  <si>
-    <t>TOP-BL-TRANS-CRM-VK9HGH0N4</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedcafejlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezprtjlh18</t>
-  </si>
-  <si>
-    <t>vestidolistrasvermelho17-79TTOKM0F</t>
-  </si>
-  <si>
-    <t>calcabailarinasuedbgjlh18</t>
-  </si>
-  <si>
-    <t>saiasuedjlh18</t>
-  </si>
-  <si>
-    <t>vestidokimonopretobolasfv18-OBGXO84GL</t>
-  </si>
-  <si>
-    <t>vestidolistrasazulv17</t>
-  </si>
-  <si>
-    <t>kimonopontoabril18</t>
-  </si>
-  <si>
-    <t>blusamalharosajlh18</t>
-  </si>
-  <si>
-    <t>macacaodecotestmpvnhjlh18</t>
-  </si>
-  <si>
-    <t>blusanobotfv18-u</t>
-  </si>
-  <si>
-    <t>camisasocialasabrancafv18</t>
-  </si>
-  <si>
-    <t>cardiganlilasmrc18</t>
-  </si>
-  <si>
-    <t>saiaestampadapretafv18</t>
-  </si>
-  <si>
-    <t>macacaorecortesvermelhofv18</t>
-  </si>
-  <si>
-    <t>calcaalfpescadortelhafv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-NAV-BC</t>
-  </si>
-  <si>
-    <t>vestidolongolistrasfv18</t>
-  </si>
-  <si>
-    <t>vestidopoabotoesmrc18</t>
-  </si>
-  <si>
-    <t>macacaorecortesv17</t>
-  </si>
-  <si>
-    <t>vestidonofv18</t>
-  </si>
-  <si>
-    <t>blazerdelinhopretofv18</t>
-  </si>
-  <si>
-    <t>blusaverdelistrasjlh18</t>
-  </si>
-  <si>
-    <t>vestidolastexciganinhafv18</t>
-  </si>
-  <si>
-    <t>INT-MAC-COL-PT</t>
-  </si>
-  <si>
-    <t>blusaniponicafv18</t>
-  </si>
-  <si>
-    <t>BOT-CA-PESC-AZ</t>
-  </si>
-  <si>
-    <t>camisasocialasafv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaocrjfv18</t>
-  </si>
-  <si>
-    <t>SaiaPantacourt</t>
+    <t>topmalhabrcjlh18</t>
+  </si>
+  <si>
+    <t>topmalhaprtjlh18</t>
+  </si>
+  <si>
+    <t>calcabailarinamalhajlh18</t>
+  </si>
+  <si>
+    <t>calcamalhabrcjlh18</t>
+  </si>
+  <si>
+    <t>TOP-BL-LINHX-BC</t>
+  </si>
+  <si>
+    <t>camisasclbegemrc18</t>
+  </si>
+  <si>
+    <t>blusacrepelavandajlh18</t>
+  </si>
+  <si>
+    <t>blusacomfypoamrc18</t>
+  </si>
+  <si>
+    <t>blusacomfylistrasmrc18</t>
+  </si>
+  <si>
+    <t>casacoassimetricobabybluev17</t>
+  </si>
+  <si>
+    <t>vestidobataestampadoverdefv18</t>
+  </si>
+  <si>
+    <t>vestidoazulsereiafv18</t>
+  </si>
+  <si>
+    <t>vestidokaftalistrasv17</t>
+  </si>
+  <si>
+    <t>kimonoestampadomrc18</t>
+  </si>
+  <si>
+    <t>calcaalfocrefv18</t>
+  </si>
+  <si>
+    <t>calcapantacourtviscosejlh18</t>
+  </si>
+  <si>
+    <t>blusanobrancav17</t>
+  </si>
+  <si>
+    <t>vestidokimonopretofv18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-CR</t>
+  </si>
+  <si>
+    <t>ShortPescadorVerdev17</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-AZ</t>
+  </si>
+  <si>
+    <t>blusabataabacaxisfv18</t>
+  </si>
+  <si>
+    <t>blusabatabrisadeverao</t>
+  </si>
+  <si>
+    <t>bataciganinhaptfv18</t>
+  </si>
+  <si>
+    <t>camisanobrancav17</t>
+  </si>
+  <si>
+    <t>INT-VES-KAF-NOS</t>
+  </si>
+  <si>
+    <t>TOP-CAS-JAQ-PT</t>
+  </si>
+  <si>
+    <t>calcaalfprtfv18</t>
+  </si>
+  <si>
+    <t>TOP-CAS-JAQ-AZ</t>
+  </si>
+  <si>
+    <t>INT-LONG-BOHO-BR</t>
+  </si>
+  <si>
+    <t>vestidoamarracaolbrtjnh18</t>
+  </si>
+  <si>
+    <t>vestidoamarracaoprtjnh18</t>
+  </si>
+  <si>
+    <t>casacorosaquartzfv18</t>
+  </si>
+  <si>
+    <t>camisasgoiabamrc18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-PT</t>
+  </si>
+  <si>
+    <t>blusabataciganinhabrfv18</t>
+  </si>
+  <si>
+    <t>vestidonocurtocrufv18</t>
+  </si>
+  <si>
+    <t>macaquinhosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>blusaalcinhav17</t>
+  </si>
+  <si>
+    <t>saiatranspassadatamunicofv18</t>
+  </si>
+  <si>
+    <t>macacaoalcascruzadasfv18</t>
+  </si>
+  <si>
+    <t>calcaflaraalffv18</t>
+  </si>
+  <si>
+    <t>camisasclrosamrc18</t>
+  </si>
+  <si>
+    <t>ShortSaiaBabyBluev17</t>
+  </si>
+  <si>
+    <t>shortbotaoduplopretofv18</t>
+  </si>
+  <si>
+    <t>shortestampadoxadrezfv18</t>
+  </si>
+  <si>
+    <t>bodydecotadobrancofv18</t>
+  </si>
+  <si>
+    <t>camisasclasaazulmrc18</t>
+  </si>
+  <si>
+    <t>bodygolapretofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeazuljlh18</t>
+  </si>
+  <si>
+    <t>macacaojuliev17</t>
+  </si>
+  <si>
+    <t>TOP-CAS-MET-PT</t>
+  </si>
+  <si>
+    <t>vestidobasicorosafv18</t>
+  </si>
+  <si>
+    <t>TOP-REG-LINH-BR</t>
+  </si>
+  <si>
+    <t>kimonoestampabotanicmrc18</t>
+  </si>
+  <si>
+    <t>vestidolongoestampaobfv18</t>
+  </si>
+  <si>
+    <t>camisasociallinholistrasv17</t>
+  </si>
+  <si>
+    <t>vestidonov17</t>
+  </si>
+  <si>
+    <t>INT-VES-ENV-BR</t>
+  </si>
+  <si>
+    <t>macacaopantalonapretov171</t>
+  </si>
+  <si>
+    <t>macacaomalhatraspassefv18</t>
+  </si>
+  <si>
+    <t>camisasocifrufrufv18</t>
+  </si>
+  <si>
+    <t>macacaobotoesorabolasv17</t>
+  </si>
+  <si>
+    <t>BOT-SAI-FEN-PR</t>
+  </si>
+  <si>
+    <t>jardineiratramadobegefv18</t>
+  </si>
+  <si>
+    <t>jardineiratramadovermelhofv18</t>
+  </si>
+  <si>
+    <t>blusacrepeuvafv18</t>
+  </si>
+  <si>
+    <t>macacaosoltoaquafv18</t>
+  </si>
+  <si>
+    <t>camisanopretav17-EEHOA275U</t>
+  </si>
+  <si>
+    <t>vestidoestamppretofv18</t>
+  </si>
+  <si>
+    <t>VE-LIS-RT-46-2016</t>
+  </si>
+  <si>
+    <t>vestidoverdesereiafv18</t>
+  </si>
+  <si>
+    <t>TOP-BLZ-TRA-VM</t>
+  </si>
+  <si>
+    <t>BOT-SAI-TRAM-BG</t>
+  </si>
+  <si>
+    <t>blusapretabasicafv18</t>
+  </si>
+  <si>
+    <t>bodydecotadoamarracaoptfv18</t>
+  </si>
+  <si>
+    <t>VE-AQ-48</t>
+  </si>
+  <si>
+    <t>SaiaPareoFloralv17</t>
+  </si>
+  <si>
+    <t>INT-LONG-BOHO-PT</t>
+  </si>
+  <si>
+    <t>DB572WFUV</t>
+  </si>
+  <si>
+    <t>vestidomood70smaio18</t>
+  </si>
+  <si>
+    <t>BOT-SH-LINH-JNS</t>
   </si>
   <si>
     <t>vestidobataverdelistrasfv18-03039P8O7</t>
   </si>
   <si>
-    <t>topmalhabrcjlh18</t>
-  </si>
-  <si>
-    <t>topmalhaprtjlh18</t>
-  </si>
-  <si>
-    <t>calcabailarinamalhajlh18</t>
-  </si>
-  <si>
-    <t>calcamalhabrcjlh18</t>
-  </si>
-  <si>
-    <t>EZ6TF7C7F</t>
-  </si>
-  <si>
-    <t>vestidoazulsereiafv18</t>
-  </si>
-  <si>
-    <t>camisasgoiabamrc18</t>
-  </si>
-  <si>
-    <t>vestidolongoestampaobfv18</t>
-  </si>
-  <si>
-    <t>kimonoestampabotanicmrc18</t>
-  </si>
-  <si>
-    <t>blusanobrancav17</t>
-  </si>
-  <si>
-    <t>vestidomood70smaio18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-JNS</t>
-  </si>
-  <si>
-    <t>vestidokimonopretofv18</t>
-  </si>
-  <si>
-    <t>kimonoestampadomrc18</t>
-  </si>
-  <si>
-    <t>calcaalfocrefv18</t>
-  </si>
-  <si>
-    <t>vestidokaftalistrasv17</t>
-  </si>
-  <si>
-    <t>VE-LIS-RT-46-2016</t>
-  </si>
-  <si>
-    <t>vestidoverdesereiafv18</t>
-  </si>
-  <si>
-    <t>blusacrepelavandajlh18</t>
-  </si>
-  <si>
-    <t>blusacomfypoamrc18</t>
-  </si>
-  <si>
-    <t>blusacomfylistrasmrc18</t>
-  </si>
-  <si>
-    <t>casacoassimetricobabybluev17</t>
-  </si>
-  <si>
-    <t>vestidobataestampadoverdefv18</t>
-  </si>
-  <si>
-    <t>TOP-BLZ-TRA-VM</t>
-  </si>
-  <si>
-    <t>macacaoalcascruzadasfv18</t>
-  </si>
-  <si>
-    <t>calcaflaraalffv18</t>
-  </si>
-  <si>
-    <t>camisasclrosamrc18</t>
-  </si>
-  <si>
-    <t>BOT-SAI-TRAM-BG</t>
-  </si>
-  <si>
-    <t>blusapretabasicafv18</t>
-  </si>
-  <si>
-    <t>VE-AQ-48</t>
-  </si>
-  <si>
-    <t>macacaobotoesorabolasv17</t>
-  </si>
-  <si>
-    <t>macacaomalhatraspassefv18</t>
-  </si>
-  <si>
-    <t>bodydecotadoamarracaoptfv18</t>
-  </si>
-  <si>
-    <t>macacaopantalonapretov171</t>
-  </si>
-  <si>
-    <t>TOP-CAS-JAQ-PT</t>
-  </si>
-  <si>
-    <t>calcaalfprtfv18</t>
-  </si>
-  <si>
-    <t>vestidobasicorosafv18</t>
-  </si>
-  <si>
-    <t>TOP-REG-LINH-BR</t>
-  </si>
-  <si>
-    <t>BOT-SAI-FEN-PR</t>
-  </si>
-  <si>
-    <t>jardineiratramadobegefv18</t>
-  </si>
-  <si>
-    <t>jardineiratramadovermelhofv18</t>
-  </si>
-  <si>
-    <t>blusacrepeuvafv18</t>
-  </si>
-  <si>
-    <t>macacaosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>vestidoestamppretofv18</t>
-  </si>
-  <si>
-    <t>vestidoamarracaolbrtjnh18</t>
-  </si>
-  <si>
-    <t>TOP-CAS-JAQ-AZ</t>
-  </si>
-  <si>
-    <t>camisanopretav17-EEHOA275U</t>
-  </si>
-  <si>
-    <t>bodydecotadobrancofv18</t>
-  </si>
-  <si>
-    <t>camisasclasaazulmrc18</t>
-  </si>
-  <si>
-    <t>bodygolapretofv18</t>
-  </si>
-  <si>
-    <t>blusacrepeazuljlh18</t>
-  </si>
-  <si>
-    <t>ShortSaiaBabyBluev17</t>
-  </si>
-  <si>
-    <t>macacaojuliev17</t>
-  </si>
-  <si>
-    <t>TOP-CAS-MET-PT</t>
-  </si>
-  <si>
-    <t>camisasociallinholistrasv17</t>
-  </si>
-  <si>
-    <t>vestidonov17</t>
-  </si>
-  <si>
-    <t>INT-VES-ENV-BR</t>
-  </si>
-  <si>
-    <t>camisasocifrufrufv18</t>
-  </si>
-  <si>
-    <t>TOP-BL-LINHX-BC</t>
-  </si>
-  <si>
-    <t>camisasclbegemrc18</t>
-  </si>
-  <si>
-    <t>SaiaPareoFloralv17</t>
-  </si>
-  <si>
-    <t>INT-LONG-BOHO-PT</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-CR</t>
-  </si>
-  <si>
-    <t>ShortPescadorVerdev17</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-AZ</t>
-  </si>
-  <si>
-    <t>blusabataabacaxisfv18</t>
-  </si>
-  <si>
-    <t>blusabatabrisadeverao</t>
-  </si>
-  <si>
-    <t>bataciganinhaptfv18</t>
-  </si>
-  <si>
-    <t>camisanobrancav17</t>
-  </si>
-  <si>
-    <t>INT-VES-KAF-NOS</t>
-  </si>
-  <si>
-    <t>shortbotaoduplopretofv18</t>
-  </si>
-  <si>
-    <t>shortestampadoxadrezfv18</t>
-  </si>
-  <si>
-    <t>BOT-SH-LINH-PT</t>
-  </si>
-  <si>
-    <t>blusabataciganinhabrfv18</t>
-  </si>
-  <si>
-    <t>vestidonocurtocrufv18</t>
-  </si>
-  <si>
-    <t>macaquinhosoltoaquafv18</t>
-  </si>
-  <si>
-    <t>blusaalcinhav17</t>
-  </si>
-  <si>
-    <t>saiatranspassadatamunicofv18</t>
-  </si>
-  <si>
-    <t>DB572WFUV</t>
-  </si>
-  <si>
-    <t>vestidoamarracaoprtjnh18</t>
-  </si>
-  <si>
-    <t>casacorosaquartzfv18</t>
-  </si>
-  <si>
-    <t>INT-LONG-BOHO-BR</t>
-  </si>
-  <si>
-    <t>calcapantacourtviscosejlh18</t>
-  </si>
-  <si>
-    <t>vestidosinoblazljlh18</t>
-  </si>
-  <si>
-    <t>blusaamplacrepevrdjlh18</t>
-  </si>
-  <si>
-    <t>macacaoxadrezbrcjlh18</t>
-  </si>
-  <si>
-    <t>bodydecotadopretofv18-B53RI9TBI</t>
-  </si>
-  <si>
-    <t>blusalistrasbrancajlh18</t>
+    <t>Vestido Sino Bolas Azul</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Verde</t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Branco</t>
+  </si>
+  <si>
+    <t>Body Decotado Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Listras Branca</t>
+  </si>
+  <si>
+    <t>Blusa Nó Botânica Rosa</t>
+  </si>
+  <si>
+    <t>Saia Sued</t>
+  </si>
+  <si>
+    <t>Vestido Listras Azul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
+  </si>
+  <si>
+    <t>Vestido Listras Vermelho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Xadrez Preto</t>
+  </si>
+  <si>
+    <t>Macacão Xadrez Cinza</t>
+  </si>
+  <si>
+    <t>Blusa Ampla Crepe Azul Marinho</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Rosê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
+  </si>
+  <si>
+    <t>Calça Bailarina Sued Café</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Vinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
+  </si>
+  <si>
+    <t>Vestido Transpassado Azul Marinho</t>
+  </si>
+  <si>
+    <t>Macacão Decote Estampado Preto</t>
+  </si>
+  <si>
+    <t>Macacão Decote Estampado Vinho</t>
+  </si>
+  <si>
+    <t>Blusa Malha Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blusa Transpassada Creme</t>
+  </si>
+  <si>
+    <t>Kimono Pontos</t>
+  </si>
+  <si>
+    <t>Blusa Transpassada Estampado</t>
+  </si>
+  <si>
+    <t>Macacão Solto Linho Preto</t>
+  </si>
+  <si>
+    <t>Camisa Estampada Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimono Tule Goiaba </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Preto</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Preto</t>
+  </si>
+  <si>
+    <t>Saia Pareô Branca Ora Bolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Xadrez Cinza </t>
+  </si>
+  <si>
+    <t>Bata Ciganinha Vermelha</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Rosa</t>
+  </si>
+  <si>
+    <t>Calça Pantacourt Linho Cinza</t>
+  </si>
+  <si>
+    <t>Vestido Longo de Linho Rosa</t>
+  </si>
+  <si>
+    <t>Saia Pantacourt</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Branca</t>
+  </si>
+  <si>
+    <t>Cardigan Lilás</t>
+  </si>
+  <si>
+    <t>Saia Estampada Preta</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Vermelho</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador Telha</t>
+  </si>
+  <si>
+    <t>Blusa Estampa Navegar</t>
+  </si>
+  <si>
+    <t>Vestido Longo Listras</t>
+  </si>
+  <si>
+    <t>Vestido Poá Botões</t>
+  </si>
+  <si>
+    <t>Macacão Recortes Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Nó Melancia</t>
+  </si>
+  <si>
+    <t>Blazer de Linho Preto</t>
+  </si>
+  <si>
+    <t>Blusa Nipônica</t>
+  </si>
+  <si>
+    <t>Blusa Verde Listras</t>
+  </si>
+  <si>
+    <t>Vestido Lastex Ciganinha</t>
+  </si>
+  <si>
+    <t>Macacão Colana</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Pescador azul marinho</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Listras</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Cereja</t>
+  </si>
+  <si>
+    <t>Kimono Glam</t>
+  </si>
+  <si>
+    <t>Bata Flor da Praia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blusa Malha Bege </t>
+  </si>
+  <si>
+    <t>Short Estampado Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casaco Assimétrico Verde </t>
+  </si>
+  <si>
+    <t>Saia Envelope Verde Musgo</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Vermelho</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico Scarlet Cinza</t>
+  </si>
+  <si>
+    <t>Blusa dolce canelada bege</t>
   </si>
   <si>
     <t xml:space="preserve"> Blusa dolce canelada branca</t>
   </si>
   <si>
-    <t>Blusa dolce canelada bege</t>
-  </si>
-  <si>
     <t>Blusa Alcinha Verde Listrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Blusa Malha Bege </t>
-  </si>
-  <si>
-    <t>Macacão Solto Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Transpassada Estampado</t>
-  </si>
-  <si>
-    <t>Calça Pantacourt Linho Preto</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Preto</t>
-  </si>
-  <si>
-    <t>Saia Pareô Branca Ora Bolas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Xadrez Cinza </t>
-  </si>
-  <si>
-    <t>Camisa Estampada Preto</t>
-  </si>
-  <si>
-    <t>Short Estampado Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimono Tule Goiaba </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Pantacourt Linho Cinza</t>
-  </si>
-  <si>
-    <t>Bata Flor da Praia</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Rosa</t>
-  </si>
-  <si>
-    <t>Kimono Glam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casaco Assimétrico Verde </t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico Scarlet Cinza</t>
-  </si>
-  <si>
-    <t>Saia Envelope Verde Musgo</t>
-  </si>
-  <si>
-    <t>Bata Ciganinha Vermelha</t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Preto</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Rosê</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Azul Marinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Malha Transpassado Estampado</t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Cinza</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Transpassado Azul Marinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Transpassada Creme</t>
-  </si>
-  <si>
-    <t>Calça Bailarina Sued Café</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Macacão Xadrez Preto</t>
-  </si>
-  <si>
-    <t>Vestido Listras Vermelho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Bailarina Sued Bege </t>
-  </si>
-  <si>
-    <t>Saia Sued</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Kimono Preto Bolas</t>
-  </si>
-  <si>
-    <t>Vestido Listras Azul</t>
-  </si>
-  <si>
-    <t>Kimono Pontos</t>
-  </si>
-  <si>
-    <t>Blusa Malha Rosa</t>
-  </si>
-  <si>
-    <t>Macacão Decote Estampado Vinho</t>
-  </si>
-  <si>
-    <t>Blusa Nó Botânica Rosa</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Branca</t>
-  </si>
-  <si>
-    <t>Cardigan Lilás</t>
-  </si>
-  <si>
-    <t>Saia Estampada Preta</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Vermelho</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador Telha</t>
-  </si>
-  <si>
-    <t>Blusa Estampa Navegar</t>
-  </si>
-  <si>
-    <t>Vestido Longo Listras</t>
-  </si>
-  <si>
-    <t>Vestido Poá Botões</t>
-  </si>
-  <si>
-    <t>Macacão Recortes Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Nó Melancia</t>
-  </si>
-  <si>
-    <t>Blazer de Linho Preto</t>
-  </si>
-  <si>
-    <t>Blusa Verde Listras</t>
-  </si>
-  <si>
-    <t>Vestido Lastex Ciganinha</t>
-  </si>
-  <si>
-    <t>Macacão Colana</t>
-  </si>
-  <si>
-    <t>Blusa Nipônica</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Pescador azul marinho</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Listras</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Cereja</t>
-  </si>
-  <si>
-    <t>Saia Pantacourt</t>
+    <t>Top Malha Branco</t>
+  </si>
+  <si>
+    <t>Top Malha Preto</t>
+  </si>
+  <si>
+    <t>Calça Bailarina Malha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Malha Branca </t>
+  </si>
+  <si>
+    <t>Blusa decote X nas costas</t>
+  </si>
+  <si>
+    <t>Camisa Social Bege</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Lavanda</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Poá</t>
+  </si>
+  <si>
+    <t>Blusa Comfy Listras</t>
+  </si>
+  <si>
+    <t>Casaco Assimétrico  Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Bata Estampado Verde</t>
+  </si>
+  <si>
+    <t>Vestido Sereia Azul</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Listras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kimono Estampado</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Ocre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calça Pantacourt Viscose </t>
+  </si>
+  <si>
+    <t>Blusa Nó Branca</t>
+  </si>
+  <si>
+    <t>Vestido Kimono Preto</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho creme</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Verde</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria Linho Azul Listrado</t>
+  </si>
+  <si>
+    <t>Blusa Bata Abacaxis</t>
+  </si>
+  <si>
+    <t>Blusa Bata Brisa de verão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bata Ciganinha Preta</t>
+  </si>
+  <si>
+    <t>Camisa Nó Branca</t>
+  </si>
+  <si>
+    <t>Vestido Kafta Estampa Nós</t>
+  </si>
+  <si>
+    <t>Casaco Capitão em Jacquard preto</t>
+  </si>
+  <si>
+    <t>Calça Alfaiataria Preta</t>
+  </si>
+  <si>
+    <t>Casaco Capitão em Jacquard azul</t>
+  </si>
+  <si>
+    <t>Vestido Longo Boho branco</t>
+  </si>
+  <si>
+    <t>Vestido Amarração Liberty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Amarração Preto</t>
+  </si>
+  <si>
+    <t>Casaco Rosa Quartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Camisa Social Goiaba</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho preto</t>
+  </si>
+  <si>
+    <t>Blusa Bata Ciganinha Branca</t>
+  </si>
+  <si>
+    <t>Vestido Nó Curto Cru</t>
+  </si>
+  <si>
+    <t>Macaquinho Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Blusa Alcinha Verde</t>
+  </si>
+  <si>
+    <t>Saia Transpassada Tamanho Único</t>
+  </si>
+  <si>
+    <t>Macacão Alças Cruzadas</t>
+  </si>
+  <si>
+    <t>Calça Flare Alfaiataria Creme</t>
+  </si>
+  <si>
+    <t>Camisa Social Rosa</t>
+  </si>
+  <si>
+    <t>Short Saia Azul Serenity</t>
+  </si>
+  <si>
+    <t>Short Botão Duplo Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Short Estampado Xadrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Body Decotado Branco</t>
+  </si>
+  <si>
+    <t>Camisa Social Asa Azul</t>
+  </si>
+  <si>
+    <t>Body Gola Preto</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Azul</t>
+  </si>
+  <si>
+    <t>Macacão Julie</t>
+  </si>
+  <si>
+    <t>Casaco Matelassê Preto</t>
+  </si>
+  <si>
+    <t>Vestido Básico Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regata soltinha </t>
+  </si>
+  <si>
+    <t>Kimono Estampa Botanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Longo Estampa Ora Bolas</t>
+  </si>
+  <si>
+    <t>Camisa Cropped de Linho Listrada</t>
+  </si>
+  <si>
+    <t>Vestido Nó Azul Serenity</t>
+  </si>
+  <si>
+    <t>Vestido Envelope branco</t>
+  </si>
+  <si>
+    <t>Macacão Pantalona Preto</t>
+  </si>
+  <si>
+    <t>Macacão Malha Transpassado</t>
+  </si>
+  <si>
+    <t>Camisa Social Manga Frufru</t>
+  </si>
+  <si>
+    <t>Macacão Botões Ora Bolas</t>
+  </si>
+  <si>
+    <t>Saia Fenda Preta</t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Bege</t>
+  </si>
+  <si>
+    <t>Jardineira Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Blusa Crepe Uva</t>
+  </si>
+  <si>
+    <t>Macacão Solto Estampa Aquarela</t>
+  </si>
+  <si>
+    <t>Camisa Nó Preta</t>
+  </si>
+  <si>
+    <t>Vestido Estampado Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
+  </si>
+  <si>
+    <t>Vestido Sereia Verde Pérola</t>
+  </si>
+  <si>
+    <t>Blazer Tramado Vermelho</t>
+  </si>
+  <si>
+    <t>Saia tramado creme</t>
+  </si>
+  <si>
+    <t>Blusa Preta Básica</t>
+  </si>
+  <si>
+    <t>Body Decotado Amarração Preto</t>
+  </si>
+  <si>
+    <t>Vestido recorte assimétrico azul marinho</t>
+  </si>
+  <si>
+    <t>Saia Pareô Floral</t>
+  </si>
+  <si>
+    <t>Vestido Longo Boho preto</t>
+  </si>
+  <si>
+    <t>kimono Veludo Devorê</t>
+  </si>
+  <si>
+    <t>Vestido Mood 70S</t>
+  </si>
+  <si>
+    <t>Short Alfaiataria em linho jeans</t>
   </si>
   <si>
     <t>Vestido Bata Verde Listras</t>
   </si>
   <si>
-    <t>Top Malha Branco</t>
-  </si>
-  <si>
-    <t>Top Malha Preto</t>
-  </si>
-  <si>
-    <t>Calça Bailarina Malha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Malha Branca </t>
-  </si>
-  <si>
-    <t>Vestido Longo de Linho Rosa</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Camisa Social Goiaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Longo Estampa Ora Bolas</t>
-  </si>
-  <si>
-    <t>Kimono Estampa Botanic</t>
-  </si>
-  <si>
-    <t>Blusa Nó Branca</t>
-  </si>
-  <si>
-    <t>Vestido Mood 70S</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho jeans</t>
-  </si>
-  <si>
-    <t>Vestido Kimono Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kimono Estampado</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Ocre</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Listras</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Liso Reto Vinho</t>
-  </si>
-  <si>
-    <t>Vestido Sereia Verde Pérola</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Lavanda</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Poá</t>
-  </si>
-  <si>
-    <t>Blusa Comfy Listras</t>
-  </si>
-  <si>
-    <t>Casaco Assimétrico  Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Bata Estampado Verde</t>
-  </si>
-  <si>
-    <t>Blazer Tramado Vermelho</t>
-  </si>
-  <si>
-    <t>Macacão Alças Cruzadas</t>
-  </si>
-  <si>
-    <t>Calça Flare Alfaiataria Creme</t>
-  </si>
-  <si>
-    <t>Camisa Social Rosa</t>
-  </si>
-  <si>
-    <t>Saia tramado creme</t>
-  </si>
-  <si>
-    <t>Blusa Preta Básica</t>
-  </si>
-  <si>
-    <t>Vestido recorte assimétrico azul marinho</t>
-  </si>
-  <si>
-    <t>Macacão Botões Ora Bolas</t>
-  </si>
-  <si>
-    <t>Macacão Malha Transpassado</t>
-  </si>
-  <si>
-    <t>Body Decotado Amarração Preto</t>
-  </si>
-  <si>
-    <t>Macacão Pantalona Preto</t>
-  </si>
-  <si>
-    <t>Casaco Capitão em Jacquard preto</t>
-  </si>
-  <si>
-    <t>Calça Alfaiataria Preta</t>
-  </si>
-  <si>
-    <t>Vestido Básico Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regata soltinha </t>
-  </si>
-  <si>
-    <t>Saia Fenda Preta</t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Bege</t>
-  </si>
-  <si>
-    <t>Jardineira Tramado Vermelho</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Uva</t>
-  </si>
-  <si>
-    <t>Macacão Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t>Vestido Estampado Preto</t>
-  </si>
-  <si>
-    <t>Vestido Amarração Liberty</t>
-  </si>
-  <si>
-    <t>Casaco Capitão em Jacquard azul</t>
-  </si>
-  <si>
-    <t>Camisa Nó Preta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Body Decotado Branco</t>
-  </si>
-  <si>
-    <t>Camisa Social Asa Azul</t>
-  </si>
-  <si>
-    <t>Body Gola Preto</t>
-  </si>
-  <si>
-    <t>Blusa Crepe Azul</t>
-  </si>
-  <si>
-    <t>Short Saia Azul Serenity</t>
-  </si>
-  <si>
-    <t>Macacão Julie</t>
-  </si>
-  <si>
-    <t>Casaco Matelassê Preto</t>
-  </si>
-  <si>
-    <t>Camisa Cropped de Linho Listrada</t>
-  </si>
-  <si>
-    <t>Vestido Nó Azul Serenity</t>
-  </si>
-  <si>
-    <t>Vestido Envelope branco</t>
-  </si>
-  <si>
-    <t>Camisa Social Manga Frufru</t>
-  </si>
-  <si>
-    <t>Blusa decote X nas costas</t>
-  </si>
-  <si>
-    <t>Camisa Social Bege</t>
-  </si>
-  <si>
-    <t>Saia Pareô Floral</t>
-  </si>
-  <si>
-    <t>Vestido Longo Boho preto</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho creme</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Verde</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria Linho Azul Listrado</t>
-  </si>
-  <si>
-    <t>Blusa Bata Abacaxis</t>
-  </si>
-  <si>
-    <t>Blusa Bata Brisa de verão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bata Ciganinha Preta</t>
-  </si>
-  <si>
-    <t>Camisa Nó Branca</t>
-  </si>
-  <si>
-    <t>Vestido Kafta Estampa Nós</t>
-  </si>
-  <si>
-    <t>Short Botão Duplo Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Short Estampado Xadrez</t>
-  </si>
-  <si>
-    <t>Short Alfaiataria em linho preto</t>
-  </si>
-  <si>
-    <t>Blusa Bata Ciganinha Branca</t>
-  </si>
-  <si>
-    <t>Vestido Nó Curto Cru</t>
-  </si>
-  <si>
-    <t>Macaquinho Solto Estampa Aquarela</t>
-  </si>
-  <si>
-    <t>Blusa Alcinha Verde</t>
-  </si>
-  <si>
-    <t>Saia Transpassada Tamanho Único</t>
-  </si>
-  <si>
-    <t>kimono Veludo Devorê</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vestido Amarração Preto</t>
-  </si>
-  <si>
-    <t>Casaco Rosa Quartz</t>
-  </si>
-  <si>
-    <t>Vestido Longo Boho branco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calça Pantacourt Viscose </t>
-  </si>
-  <si>
-    <t>Vestido Sino Bolas Azul</t>
-  </si>
-  <si>
-    <t>Blusa Ampla Crepe Verde</t>
-  </si>
-  <si>
-    <t>Macacão Xadrez Branco</t>
-  </si>
-  <si>
-    <t>Body Decotado Preto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blusa Listras Branca</t>
+    <t>Produto sem descrição.</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
+  </si>
+  <si>
+    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
+  </si>
+  <si>
+    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
+  </si>
+  <si>
+    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
+  </si>
+  <si>
+    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
+  </si>
+  <si>
+    <t>BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decote nos ombros é o toque final da produção. Alças reguláveis com amarração e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
+  </si>
+  <si>
+    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
+  </si>
+  <si>
+    <t>CALÇA PANTACOURT LINHO CINZA-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nossa blusa bata abacaxi e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO DE LINHO ROSA-Vestido longo em linho, abotoado a frente com botões de madrepérola até a fenda frontal. Acabamento manual que dá um toque leve e refinado a peça. Com amarração para ajusre do vestido na cintura. A manga 3/4 e a abertura de fenda central dão a peça um frescor de jovialidade. Esse vestido longo é uma boa pedida especial tanto para o dia a dia quanto para compor looks mais ousados. . Cintura ajustável . Descriçāo de tamanhos Tamanho P - Busto 84cm / cintura 72 cm Tamaho M - Busto 8...</t>
+  </si>
+  <si>
+    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
+  </si>
+  <si>
+    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
+  </si>
+  <si>
+    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
+  </si>
+  <si>
+    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
+  </si>
+  <si>
+    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
+  </si>
+  <si>
+    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
+  </si>
+  <si>
+    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
+  </si>
+  <si>
+    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>KIMONO GLAM-Kimono de tecido holográfico gráfite com amarração. Amplo e ajustavél.</t>
+  </si>
+  <si>
+    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
+  </si>
+  <si>
+    <t>Casaco cardigan de malha, na cor cinza escuro, com pontas mais longas na lateral. É um cardigan muito leve de malha macia, que serve para proteger e trazer mais estilo ao look. Em tamanho único.</t>
   </si>
   <si>
     <t>Tecido: malha canelada de algodão, com forro na parte do busto Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
   </si>
   <si>
-    <t>Produto sem descrição.</t>
-  </si>
-  <si>
-    <t>Macacão soltinho linho preto. Com botões frontais em madrepérola, alças reguláveis e bolsos laterais. Essa peça é um coringa, podendo ser usado em vários looks, com blusinha justa por baixo, de manga curta ou comprida, ou sozinho. É uma peça única, com ar casual e confortável, a queridinha do guarda-roupa. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>Blusa tranpassada manga longa, modelo super básico. Tecido: malha casca de ovo, Santa Constância. Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>CALÇA PANTACOURT LINHO PRETO-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nosso Kimono pontos e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES PRETO-Macacão em viscose com alças regulaveis e fechamento nas costas por ziper invisivel. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>Saia pareô com amarraçāo lateral, de viscose em estampa ora bolas, preta com bolinhas brancas. Peça leve que tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa.</t>
-  </si>
-  <si>
-    <t>CAMISA ESTAMPADA PRETO-Camisa de tecido com estampa de flores pretas, vai do trabalho as ocasiões mais informais. Pode ser usada com sobreposições em dias mais frios, calças, shorts, bermudas, saias, curtas, longas, sapatilhas, botas, rasteiras. Delicada e despretenciosa oferece um toque diferente as mais diversas combinações sem competir pois tem estampa discreta. Aberta para um pós praia ou fechada para ocasiões todas as ocasiões. Tabela de tamanhos P Busto 94cm | Altura 66cm M Busto 98m | Altura 68cm G B...</t>
-  </si>
-  <si>
-    <t>SHORT ESTAMPADO PRETO-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa de flores preta é discreta e casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decote nos ombros é o toque final da produção. Alças reguláveis com amarração e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
-  </si>
-  <si>
-    <t>CALÇA PANTACOURT LINHO CINZA-A calça pantacourt linho oferece conforto, beleza e elegância para qualquer visual. Sua cintura mais alta oferece ajuste perfeito e seu tom neutro possibilita uma infinidade de combinações. Esse modelo é do tipo tem que ter. Combinações com nossa blusa bata abacaxi e blusa bata ciganinha são ótimas opções. Tabela de tamanho P Cintura 70cm | Quadril 90cm | Altura 82cm M Cintura 74cm | Quadril 94cm | Altura 84cm G Cintura 78cm | Quadril 98cm | Altura 86cm</t>
-  </si>
-  <si>
-    <t>BATA FLOR DA PRAIA-Blusa bata estampada em viscose com alças reguláveis. A modelagem dessa bata é super versátil, podendo ser combianda com short, calça e saias. Leve, descontraída e neutra para um verão sem preocupações como deve ser. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 100cm | Altura 63cm G Busto 104cm | Altura 65cm Alças ajustáveis que regulam a altura da blusa bata flor da praia</t>
-  </si>
-  <si>
-    <t>KIMONO GLAM-Kimono de tecido holográfico gráfite com amarração. Amplo e ajustavél.</t>
-  </si>
-  <si>
-    <t>Casaco cardigan de malha, na cor cinza escuro, com pontas mais longas na lateral. É um cardigan muito leve de malha macia, que serve para proteger e trazer mais estilo ao look. Em tamanho único.</t>
-  </si>
-  <si>
-    <t>Macacão de malha preto, transpassado com amarração. A proposta dessa peça é trazer conforto e elegância, vestindo bem todos os tipos de corpos. A malha é suave e traz um caimento que não marca o corpo, fazendo dessa uma peça elegante e confortável. Uma dica é investir em acessórios com cores vibrantes, turquesa, amarelo, vermelho. Tabela de tamanho - Busto com amarração ajustável. P Altura 150cm M Altura 152cm G Altura 154cm</t>
-  </si>
-  <si>
-    <t>VESTIDO LISTRAS VERMELHO-Vestido listrado em vermelho serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO POÁ-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm |...</t>
-  </si>
-  <si>
-    <t>VESTIDO LISTRAS AZUL-Vestido listrado em azul serenity. Modelo tipo retrô, com elastico em formato de ‘x’ nas costas o que possibilita o ajuste do vestido no busto. Com bolsos laterais, o modelo é casual, sendo uma peça fresca e boa pedida para o verāo. Tabela de tamanho Busto 70cm | Cintura 75cm Busto 82cm | Cintura 79cm Busto 90cm | Cintura 84cm</t>
-  </si>
-  <si>
-    <t>Blusa nó transpassada estampa relicário botâncio rosa. Desenvolvida em tecido leve, estampa floral que inspira frescor, versatilidade e delicadeza. Ideal para diversas ocasiões durante o verão, proporcionando também a possibilidade de fazer sobreposição com blusas básicas de diversas outras cores ampliando ainda mais seu uso. A amarração pode ser frontal, lateral ou nas costas. Desenvolvida em um único tamanho. Tabela de tamanho Tamanho único | Ajustável</t>
-  </si>
-  <si>
-    <t>Camisa social branca, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Tabela de tamanho P Busto 100cm | Altura 60cm M Busto 104cm | Altura 62cm G Busto 108cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>CARDIGAN LILÁS - Cardigan em malha scarlet tamanho único para esquentar o look fresquinho sem perder a leveza. Prático e elegante.</t>
-  </si>
-  <si>
-    <t>Saia estampada na cor preta. Saia midi , estampa floral pequena. Funciona muito bem de dia mas também pode ser usada a noite, a variação do look fica por conta das peças que serão usadas na parte superior e os calçados. Modelo confortável aberto as mais diversas combinações. Tabela de tamanhos P Cintura 80cm | Altura 83cm M Cintura 84cm | Altura 85cm G Cintura 88cm | Altura 87cm</t>
-  </si>
-  <si>
-    <t>Macacão pantacourt com recortes laterais, em viscose. Peça quente do verão, sua modelagem é versatil e elegante. As alças são regulaveis para um melhor ajuste no corpo. Para qualquer hora do dia e estação do ano pois proporciona a possibilidade de sobreposições, o uso de rasteiras até botas em estações e climas mais frios. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm |...</t>
-  </si>
-  <si>
-    <t>CALÇA ALFAIATARIA PANTACOURT-Calça com amarraçāo em sarja, na cor verde telha com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, comprimento médio.Tecido: Sarja 100%Algodão com gio penteado.Tecido Plano. P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho, super confortável, com manga de cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO LISTRAS-Vestido longo de tecido com barra colocada. Casual e sofisticado proporciona muitas possibilidades. Tabela de Tamanho P M G</t>
-  </si>
-  <si>
-    <t>VESTIDO POÁ BOTÕES - Vestido de poá todo de botões e amarração ajustável na cintura . Corte atemporal assim como a estampa. Tabela de tamanhos P M G</t>
-  </si>
-  <si>
-    <t>MACACÃO RECORTES AZUL SERENETY-Macacão pantacourt com recortes laterais, em viscose. Peça única, evocativa, fresca e marcante. A cor azul serenity é a tendencia do verão, e a modelagem do macacão pantacourt é versatil e elegante. As alças são regulaveis. Tabela de tamanho P Busto 78cm | Cintura 60cm | Quadril 90cm | Altura 125cm ( alças reguláveis) M Busto 82cm | Cintura 64cm | Quadril 94cm | Altura 127cm (alças reguláveis) G Busto 86cm | Cintura 68cm | Quadril 98cm | Altura 129cm (alças reguláveis)</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ MELANCIA-Vestido em viscose maquinetada, na cor melancia. Modelagem tubular com amarração na frente fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. P Busto 88cm | Quadril 99cm M Busto 90cm | Quadril 104cm G Busto 94cm | Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Linho preto | Tecido plano Forro: cetim preto Tabela de medidas P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Tecido: malha ity.Macacão de malha totalmente ajustável.</t>
-  </si>
-  <si>
-    <t>BLUSA NIPÔNICA FLORAL-Blusa estampada com botões. Vai do trabalho ao fim de semana. Tabela de tamanhos P Busto 92cms | Altura 53cms M Blusa 96cms | Altura 55cms G Blusa 100cms | Altura 57cms</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 100%Algodão Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Camisa social asa listras, em crepe, com botões de madreperola. Manga 3/4, ótima para o verāo, seja para trabalho ou para uma saída. O detalhe das costas, em asa, é o diferencial da peça, conferindo bossa ao look. Listras azul e branco completamente atemporal. Tabela de tamanho P Busto 50cm | Altura 60cm M Busto 54cm | Altura 62cm G Busto 58cm | Altura 64cm</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanhos | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Saia mais longa da frente do que nas laterais, detalhe que confere o charme da peça, e modelagem ampla. Desenvolvida em viscose e linho preto. Seu fechamento se da por amarração em cordinha com ponteira de frufru.</t>
+    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
+  </si>
+  <si>
+    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
+  </si>
+  <si>
+    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
+  </si>
+  <si>
+    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
+  </si>
+  <si>
+    <t>KIMONO ESTAMPADO-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO. Despojado , elegante , inspira originalidade e comportamento.</t>
+  </si>
+  <si>
+    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
+  </si>
+  <si>
+    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
+  </si>
+  <si>
+    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
+  </si>
+  <si>
+    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
+  </si>
+  <si>
+    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
+  </si>
+  <si>
+    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
+  </si>
+  <si>
+    <t>Casaco de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: preto, branco e bege</t>
+  </si>
+  <si>
+    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Forrado no quadril. Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
+  </si>
+  <si>
+    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
+  </si>
+  <si>
+    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
+  </si>
+  <si>
+    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
+  </si>
+  <si>
+    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
+  </si>
+  <si>
+    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
+  </si>
+  <si>
+    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
+  </si>
+  <si>
+    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
+  </si>
+  <si>
+    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
+  </si>
+  <si>
+    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
+  </si>
+  <si>
+    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
+  </si>
+  <si>
+    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
+  </si>
+  <si>
+    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO ESTAMPA ORA BOLAS-O vestido longo estampa ora bolas é clássico e descontraído. O tom clássico fica por conta da releitura do poá que encontramos na estampa, o modelo de alças e a barra recortada trazem um ar descontraído e confortável ao modelo. Modelo com alças reguláveis. Tabela de tamanho P Busto 82cm | Altura 155cm M Busto 86cm | Altura 157cm G Busto 90cm | Altura 159cm</t>
+  </si>
+  <si>
+    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
+  </si>
+  <si>
+    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
+  </si>
+  <si>
+    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
+  </si>
+  <si>
+    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
+  </si>
+  <si>
+    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
+  </si>
+  <si>
+    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
+  </si>
+  <si>
+    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
+  </si>
+  <si>
+    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
+  </si>
+  <si>
+    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
+  </si>
+  <si>
+    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
+  </si>
+  <si>
+    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
+  </si>
+  <si>
+    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
+  </si>
+  <si>
+    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
+  </si>
+  <si>
+    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
+  </si>
+  <si>
+    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
+  </si>
+  <si>
+    <t>Kimono em micro-tule. Peça leve e elegante!</t>
+  </si>
+  <si>
+    <t>SHORT ALFAIATARIA EM LINHO JEANS- Modelo confortável, curto, casual e despojado. iodeal para dias quentas mas nada impede que seja usado com meias botas em dias mais frios. Peça super coringa do tipo tem que ter. Tabela de medidas P Cintura 76cms | Quadril 98cms | Altura 34cms M Cintura 80cms | Quadril 102cms | Altura 36 cms G Cintura 84cms | Quadril 106cms | Altura 38cms</t>
   </si>
   <si>
     <t>VESTIDO BATA LISTRAS-Vestido tipo bata listrado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
   </si>
   <si>
-    <t>VESTIDO LONGO DE LINHO ROSA-Vestido longo em linho, abotoado a frente com botões de madrepérola até a fenda frontal. Acabamento manual que dá um toque leve e refinado a peça. Com amarração para ajusre do vestido na cintura. A manga 3/4 e a abertura de fenda central dão a peça um frescor de jovialidade. Esse vestido longo é uma boa pedida especial tanto para o dia a dia quanto para compor looks mais ousados. . Cintura ajustável . Descriçāo de tamanhos Tamanho P - Busto 84cm / cintura 72 cm Tamaho M - Busto 8...</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA AZUL-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO ESTAMPA ORA BOLAS-O vestido longo estampa ora bolas é clássico e descontraído. O tom clássico fica por conta da releitura do poá que encontramos na estampa, o modelo de alças e a barra recortada trazem um ar descontraído e confortável ao modelo. Modelo com alças reguláveis. Tabela de tamanho P Busto 82cm | Altura 155cm M Busto 86cm | Altura 157cm G Busto 90cm | Altura 159cm</t>
-  </si>
-  <si>
-    <t>KIMONO ESTAMPA BOTANIC-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO.</t>
-  </si>
-  <si>
-    <t>Blusa de viscose branca, com amarraçāo em nó na frente. Blusa levinha, super charmosa. O detalhe do nó frontal daá charme em toda produçāo. Busto 100cm P Busto M 106cm Busto G 112cm Comprimento blusa frente 46cm Comprimento blusa costas 45cm</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA EM LINHO JEANS- Modelo confortável, curto, casual e despojado. iodeal para dias quentas mas nada impede que seja usado com meias botas em dias mais frios. Peça super coringa do tipo tem que ter. Tabela de medidas P Cintura 76cms | Quadril 98cms | Altura 34cms M Cintura 80cms | Quadril 102cms | Altura 36 cms G Cintura 84cms | Quadril 106cms | Altura 38cms</t>
-  </si>
-  <si>
-    <t>VESTIDO KIMONO PRETO-O vestido kimono preto vem com amarração na cintura, decote curto, comprimento midi. Elegante e leve é a versão repaginada do tradicional pretinho básico. Ideal para todas as ocasiões permitindo as mais diversas combinações com acessórios, meias, sapatos, bota, tênis, rasteiras, deixando livre a criatividade de cada um. Tabela de tamanho P Busto 90cm | Cintura 70cm | Quadril 106cm | Altura 109cm M Busto 94cm | Cintura 74cm | Quadril 110cm | Altura 111cm G Busto 98cm | Cintura 78cm | Qua...</t>
-  </si>
-  <si>
-    <t>KIMONO ESTAMPADO-Kimono estampado tamanho único. Ideal para dar um calorzinho naquele look básico. Com corte elegante ele transforma qualquer produção NA PRODUÇÃO. Despojado , elegante , inspira originalidade e comportamento.</t>
-  </si>
-  <si>
-    <t>Tecido: Viscose encorpada Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107</t>
-  </si>
-  <si>
-    <t>Vestido modelo kaftan, com modelagem ampla e tubular, com decote sutíl. Confeccionado em viscose e algodāo o modelo é ideal um look casual ou para uma festa. Com forro de viscose. Listras azul e branco altamente atemporal. Quadril amplo, modelo reto. Tabela de tamanho P Busto 92cm | Altura 96cm M Busto 96cm | Altura 98cm G Busto 100cm | Altura 100cm</t>
-  </si>
-  <si>
-    <t>Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>VESTIDO SEREIA VERDE PÉROLA-Vestido de viscose, leve, confortável, casual e elegante. Tem um toque romântico e descontraído ao mesmo tempo. Permite combinações diversas, vai do tênis ao salto. Tabela de tamanho P Busto 80cm | Altura (frente) 113cm (costas)130cm M Busto 88cm | Altura (frente) 115cm (costas)132cm G Busto 92cm | Altura (frente) 117cm (costas)134cm</t>
-  </si>
-  <si>
-    <t>Para usar aberto, é um cardigan com pontas assimétricas e barras alongadas, confeccionado em malha maquinetada, é um material macio e fluido que modela muito bem o corpo. Na cor do verão, o casaco assimétrico azul serenity pode transformar qualquer look básico em um look elegante e fluido. Tamanho único.</t>
-  </si>
-  <si>
-    <t>VESTIDO BATA ESTAMPADO VERDE-Vestido tipo bata em crepe estampado. Vestido de comprimento curto, em tecido leve, com mangas longas e amplas. Decote em V, com amarraçāo por cordão, logo abaixo do busto. Modelagem ampla. Este vestido se adapta às mais diversas ocasiões e tipos de corpo, de maneira bem elegante. Amarraçāo com ponteira fru-fru. Tabela de tamanho P Busto 88cm | Quadril 94cm | Altura 86cm M Busto 92cm | Quadril 98cm | Altura 88cm G Busto 96cm | Quadril 102cm | Altura 90cm</t>
-  </si>
-  <si>
-    <t>Tecido: tecido tramado, vermelho e branco, 100%algodão, estruturado, com forro. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>MACACÃO ALÇAS CRUZADAS-O modelo possui elastano que oferece mobilidade e o torna mais ajustável ao corpo. Tem caimento leve e elegante. Vai dos primeiros momentos do dia aos eventos noturnos só trocando os acessórios. Tabela de tamanho P Busto 80cm | Quadril 90cm | Altura 161cm M Busto 84cm | Quadril 94cm | Altura 163cm G Busto 88cm | Quadril 98cm | Altura 165cm</t>
-  </si>
-  <si>
-    <t>O modelo flare tem a boca da calça levemente mais aberta assim como os modelos boca de sino. O corte alfaiataria oferece estrutura ao modelo, o toque de elastano proporciona elasticidade, aderência e movimento. A cor crua é sóbria e permite múltiplas combinações. P Cintura Alta 72cm | Quadril 78cm | Altura 106cm M Cintura Alta 76cm | Quadril 82cm | Altura 108cm G Cintura Alta 80cm | Quadril 86cm | Altura 110cm</t>
-  </si>
-  <si>
-    <t>Informações: Botões de pressão Tecido: Tecido 100%algodão, tramado em branco e bege, estruturado.</t>
-  </si>
-  <si>
-    <t>Este macacão tem modelagem solta e confortavel. A estampa de bolinhas fizeram desta uma peça única. É uma peça muito fresca, a cara do Rio de Janeiro. Feito de viscose leve, botões de madre perola na frente e zíper invisivel nas costas. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO AMARRAÇÃO-Body decotado justo com amarração no pescoço regulável. Alças finas regulam a profundidade de um belíssimo e elegante decote levemente arredondado. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Macacāo em crepe de viscose. Peça ampla, seu tecido e modelagem alongam o corpo da mulher. O preto é uma cor classica. Veste bem corpos de todos os tipos, e vem com faixa para acinturar a peça. Busto P 99cm / cintura 90 / quadril 108 Busto M 104cm / cintura 94 / quadril 112 Busto G 108 / cintura 98 / quadril 118</t>
-  </si>
-  <si>
-    <t>Casaco de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: preto, branco e bege</t>
-  </si>
-  <si>
-    <t>VESTIDO BÁSICO ROSA-O vestido básico rosa é uma peça chave para muitas produções, o tom é um rosa chá neutro que abre para sobreposições, acessórios diversos, meias em dias mais frios, casacos, botas, tênis, rasteiras nos mais quentes. Modelo amplo, confortável e versátil. Tabela de tamanho P Busto 100cm | Altura 85cm M Busto104cm | Altura 87cm G Busto 108cm | Altura 89cm</t>
-  </si>
-  <si>
-    <t>Tecido: Malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 tamanho Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Informações: Com short embutido por baixo da saia, detalhe trançado na cintura fenda frontal. Tecido: Viscose Tabela de tamanho P Cintura 68cm | Quadril 96cm | Altura 105cm M Cintura 72cm | Quadril 100cm | Altura 107cm G Cintura 76cm | Quadril 104cm | Altura 109cm</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO BEGE-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm | Alt...</t>
-  </si>
-  <si>
-    <t>JARDINEIRA TRAMADO VERMELHO-A jardineira tramado é uma peça extremamente charmosa e divertida. Seu modelo estruturado e a trama oferecem elegância e descontração em um mesmo pacote. Combinações com sobreposições, meias, bota são ótima pedida nos dias mais frios, no mais é só abusar dele no verão com os biquínis e as mangas mais curtas. Use esta jardineira para um look icônico! Tabela de tamanhos P Busto 78cm | Quadril 82cm | Altura 71cm M Busto 82cm | Quadril 86cm | Altura 73cm G Busto 86cm | Quadril 90cm |...</t>
-  </si>
-  <si>
-    <t>Macacão solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Tabela de tamanho P Busto 78cm | Quadril 82cm | Altura 132cm M Busto 82cm | Quadril 86cm | Altura 134cm G Busto 86cm | Quadril 90cm | Altura 136cm</t>
-  </si>
-  <si>
-    <t>VESTIDO ESTAMPADO PRETO-Vestido estampado preto de tecido. Comprimento ideal para as estações mais quentes do ano, proporciona o uso de blusas como sobreposição em caso de temperaturas mais baixas, assim como meias, botas, sapatilhas e saltos. Vai do trabalho à eventos noturnos, jantares, passeios livres se usado com calçados e acessórios mais despojados. Tabela de tamanho P Busto 86cm | Quadril 100cm | Altura 80cm M Busto 90cm | Quadril 104cm | Altura 82cm G Busto 94cm | Quadril 108cm | Altura 84cm</t>
-  </si>
-  <si>
-    <t>Cascao de Jacquard Tramare ECO, tecido ecológico e inovador, feito apartir da reutilização de plástico. Cores do jacquard: Azul marinho, azul, branco e bege</t>
-  </si>
-  <si>
-    <t>CAMISA NÓ PRETA-Camisa preta de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO BRANCO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>BODY GOLA PRETO-Peça chave do look, além de ser prático. É necessário combiná-lo com uma parte de baixo charmosa e sair de casa! Vale ficar atenta para quais partes de baixo ficam melhor com essa peça, sempre prestando atenção no equilíbrio da produção. Como os bodies são justos, o ideal é coordená-los com peças mais larguinhas embaixo. Tabela de tamanho | tamanho ajustável</t>
-  </si>
-  <si>
-    <t>Short saia em sarja com elastano. Modelagem exclusiva da Evapore, na cor azul serenity. Cintura levemente alta, veste muito bem diferentes larguras de quadril. Tabela de tamanho .P cintura de 70 cm a 73 cm (tecido se adapta por conta do elastano) quadril de 86 cm a 98 cm (tecido se adapta por conta do elastano) .M cintura de 74 cm a 78 cm (tecido se adapta por conta do elastano) quadril de 90 cm a 102 cm (tecido se adapta por conta do elastano) .G cintura de 74 cm a 78 cm (tecido se adapta por conta do elas...</t>
-  </si>
-  <si>
-    <t>MACACÃO JULIE-Macacão pantalona preto com amarração nas costas e decote profundo e vazado na frente. Modelo elegante, discreto e insinuante. Pode ser usado para trabalhar, nesse caso sugerimos a combinação com nosso blazer linho preto ou a noite sem sobreposição. Zíper aparente nas costas com amarração das alças finas. Tabela de tamanho P Busto 76cm | Cintura 68cm | Quadril 80cm | Altura 156cm M Busto 80cm | Cintura 72cm | Quadril 84cm | Altura 158cm G Busto 84cm | Cintura 76cm | Quadril 88cm | Altura 160cm...</t>
-  </si>
-  <si>
-    <t>Tecido: jacquard acolchoado de cetim, forro em cetim. Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Camisa social, com corte cropped e manga 3/4, em tecido de linho listrado e botoões de madre perola. Essa é uma camisa leve, que traz bossa para um look mais formal.</t>
-  </si>
-  <si>
-    <t>VESTIDO NÓ AZUL SERENETY-Vestido em viscose maquinetada, na cor do verão azul serenity. Modelagem tubular com amarração na frente, fazendo um laço que não marca a barriga. Modelo leve, fresco, casual, ideal para diferentes ocasiões. Tabela de tamanho Busto 88cm I Quadril 99cm Busto 90cm I Quadril 104cm Busto 94cm I Quadril 109cm</t>
-  </si>
-  <si>
-    <t>Tecido: Sarja 90%Poliamida 10%Elastano</t>
-  </si>
-  <si>
-    <t>Camisa social, cor clara, manga comprida com fru fru no punho. Camisa versátil, séria, leve e divertida por conta do detalhe super delicado nas pontas da manga. Vai do trabalho ao final de semana. Tabela de tamanho P Busto 51cm | Altura 67cm M Busto 55cm | Altura 69cm G Busto 59cm | Altura 71cm</t>
-  </si>
-  <si>
-    <t>tecido: malha de linho Tabela de medidas Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>Saia pareô com amarraçāo lateral, de crepe em estampa floral, com fundo rosa. Em tamanho unico, tem o poder de vestir bem todos os tipos de corpos. Versatil, prática e fresquinha, essa peça é a cara da Evapore e vai ser o xodó do seu guarda-roupa. tamanho único 68 cm de altura.</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Tecido: Algodão Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA VERDE-Short com amarraçāo em sarja, na cor verde militar, com a barra virada. Fechamento com botão e amarração sobreposta, tem bolsos laterais. É uma peça descontraída, alinhada, e não muito curta. Tabela de tamanho PP Cintura 70cm | Quadril 80cm | Altura 40cm P Cintura 74cm | Quadril 84cm | Altura 42cm M Cintura 78cm | Quadril 88cm | Altura 44cm G Cintura 82cm | Quadril 92cm | Altura 46cm</t>
-  </si>
-  <si>
-    <t>SHORT ALFAIATARIA LINHO AZUL LISTRADO-Short de linho azul claro listrado, modelo e estampa clássicos. Confortável e chamoso, perite combinações lisas e estampadas. Tabela de tamanho P Cintura 78cm | Quadril 98cm | Altura 35cm M Cintura 82cm | Quadril 102cm | Altura 37cm G Cintura 86cm | Quadril 106cm | Altura 39cm</t>
-  </si>
-  <si>
-    <t>Camisa social estampa abacaxis. Camisa leve com estampa que inspira frescor, bem casual. Tabela de tamanho P Busto 94cm | Altura 66cm M Busto 98cm | Altura 68cm G Busto 102cm Altura 70cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA BRISA DE VERÃO-Blusa bata leve, estampada, versátil. Seu corte e tecidos proporcionam inúmeras combinações, estampa delicada e neutra. Tabela de tamanhos P Busto 82cms | Altura 46cms M Busto 86cms | Altura 48cms G Busto 90cms | Altura 50cms</t>
-  </si>
-  <si>
-    <t>Camisa branca de crepe, com detalhe de nó frontal, com 2 botões interno para fechar decote, mangas são compridas e larguinhas. Peça leve, chic e estilosa.</t>
-  </si>
-  <si>
-    <t>Vestido de viscose, com modelagem solta e mangas amplas.</t>
-  </si>
-  <si>
-    <t>SHORT BOTÃO DUPLO PRETO-Short de tecido super leve, comprimento médio, botões duplos e regulagem na cintura que é mais alta com elástico. Amplo e confortável permite movimentos livres e combinações variadas. Elegante e descontraído vai do dia até a noite, do tênia ao salto. Tabela de tamanho P Cintura 70cm | Quadril 92cm | Altura 46cm M Cintura 74cm | Quadril 96cm | Altura 48cm G Cintura 78cm | Quadril 100cm | Altura 50cm</t>
-  </si>
-  <si>
-    <t>SHORT ESTAMPADO XADREZ-Short curto estampado. Modelagem ampla e leve ideal para os dias mais quentes sem precisar ser colocado de lado nos dias frios. Opções com meias são super bem vindas, botas, tênis, rasteiras para os dias de sol. A estampa XADREZ é um clássico além de casual permitindo múltiplas possibilidades de combinações. Tabela de Tamanho P Cintura 70cm | Quadril 92cm | Altura 33cm M Cintura 74cm | Quadril 96cm | Altura 35cm G Cintura 78cm | Quadril 100cm | Altura 37cm</t>
-  </si>
-  <si>
-    <t>BLUSA BATA CIGANINHA-Leve, ampla, delicada, ideal para qualquer hora do dia para parecer despretenciosamente charmosa e muito elegante o decoto nos ombros é o toque final da produção. Alças reguláveis e tamanho amplo. Tabela de tamanho P Busto 106cm | Atura 59cm M Busto 110cm | Altura 61cm G Busto 114cm | Altura 63cm</t>
-  </si>
-  <si>
-    <t>Vestido curto com nó no busto que permite ajuste no decote. Descontraído, confortável, o modelo proporciona uma gama de combinações possíveis. Durante as estações mais quentes chapéu é uma ótima pedida trazendo um certo refinamento ao visual, rasteiras, chinelos, tênis. Nos dias mais frios sobreposições, botas, meias. A dica é acrescentar um blazer no visual e levá-lo ao trabalho. Tabela de tamanho P Busto 40cm | Altura 84cm M Busto 44cm | Altura 86cm G Busto 48cm | Altura 88cm</t>
-  </si>
-  <si>
-    <t>MACAQUINHO SOLTO ESTAMPA AQUARELA-Macaquinho solto, tecido fluído e leve, proporcionando mobilidade, conforto e frescor. Estamapa colorida em tons suaves lembrando pinturas feitas de aquarela. Inspirador, delicado e sensível. Decote delicado. Tabela de tamanho P Busto M Busto G Busto</t>
-  </si>
-  <si>
-    <t>Blusa de alça sedinha na cor verde musgo. Peça basica, casual e muito feminina. . P Busto 100cm . M busto 104cm . G busto 108cm Comprimento de blusa 49 medida do decote até a bainha da blusa. O seu comprimento fica um pouco acima do quadril</t>
-  </si>
-  <si>
-    <t>Saia transpassada crua. Modelo midi, ajustável, tecido leve e confortável. O tom neutro permite múltiplas combinações, o comprimento dá mobilidade ampliando ainda mais seu uso. Neutra, elegante e versátil é o tipo de peça tem que ter, item curinga. Tabela de tamanho U Cintura ajustável | Altura 74cm</t>
-  </si>
-  <si>
-    <t>Kimono em micro-tule. Peça leve e elegante!</t>
-  </si>
-  <si>
-    <t>CASACO ROSA QUARTZ-Casaco Rosa quartz é uma peça única, elegante, sofisticado, despojado é ideal pra completmentar o visual de inverno. Vai do trabalho a noite agregando muito valor sempre. Botões forrados com cetim. Tabela de tamanho P Busto 94cm | Altura 61cm M Busto 98cm | Altura 63cm G Busto 102cm | Altura 65cm</t>
-  </si>
-  <si>
-    <t>VESTIDO LONGO BOHO BRANCO-Vestido longo com detalhes casa de abelha na cintura, decotes nos ombros. Elegante vai de ocasiões que exigem mais formalidade até um dia na praia. Forrado no quadril. Tabela de medida Tecido Plano P - cintura 72 | busto 89 | quadril 99 M - cintura 76 | busto 93 | quadril 103 G - cintura 80 | busto 103 | quadril 107 Malha P - cintura 74 | busto 91 | quadril 101 M - cintura 78 | busto 95 | quadril 105 G - cintura 82 | busto 105 | quadril 109</t>
-  </si>
-  <si>
-    <t>BODY DECOTADO PRETO-Body decotado justo. Alças mais grossas regulam a profundidade de um belíssimo e elegante decote em v preso no pescoço. Tabela de tamanho | tamanho ajustável</t>
+    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/luai0p60d-blusa-bata-ciganinha-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/p58il7y6f-blusa-dolce-canelada-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/blusa-dolce-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
     <t>https://loja.evapore.com.br/blusa-alcinha-verde-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/blusa-malha-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-soltinho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/2ar6nzcj0-blusa-transpassada-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zkvq18srl-calca-pantacourt-linho-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recorte-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pareo-branca-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-xadrez-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/1g5soqd1d-blusa-estampada-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tule-goiaba?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/035y7hj7p-bata-ciganinha-vermelha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-26027738?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/bata-flor-da-praia-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/feq9ttemk-blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-glam?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/0g5fu7ct4-kimono-tecido-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-cinza?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-envelope-verde-musgo?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/luai0p60d-blusa-bata-ciganinha-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-decote-estampado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/q9ic2jxwd-macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/13m64px23-macacao-xadrez-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/x5ts6b2gh-vestido-transpassado-rose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/bcfkvqf6m-vestido-transpassado-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vk9hgh0n4-blusa-transpassada-vinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/j3h1rw8ge-macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/79ttokm0f-vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-sued-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-sued?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/obgxo84gl-vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-listras-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-pontos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-malha-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/dzdfyl1i2-macacao-decote-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-botanica-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/cardigan-lilas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-estampada-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-telha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-estampa-navegar?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-longo-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-poa-botoes?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-recortes-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vest-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blazer-linho-7293523?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-verde-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-lastex-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-colana?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ae2aeq3no-blusa-niponica-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pescador-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-social-asa-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pantacourt?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/d9bk1q7x2-kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-branquias-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-pantacourt-viscose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/casaco-capita-tramare-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-branquias-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/z1m68wcas-v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+  </si>
+  <si>
+    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
     <t>https://loja.evapore.com.br/03039p8o7-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
   </si>
   <si>
-    <t>https://loja.evapore.com.br/top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/omz17dtui-top-malha-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-bailarina-malha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-malha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/r4t2wof2f-camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/z1m68wcas-v?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-mood-70s?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/qcczxwx4c-short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kimono-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/d9bk1q7x2-kimono-estampa-botanic?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-branquias-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-kafta-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/6jwd0hi1c-vestido-recorte-assimetrico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sereia-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-lavanda?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-poa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-comfy-listras?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-22943553?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/ubpdtx3gp-vestido-bata-cereja?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blazer-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-alcas-cruzadas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-flare-alfaiataria-creme?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-preta-basica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-recorte-assimetrico-azul-marinho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-botoes-ora-bolas?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-malha-transpassado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-pantalona-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/casaco-capita-tramare-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-branquias-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-basico-rosa?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blusa-regata-solta-em-malha-de-linho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-fenda-preta?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-ocre?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/jardineira-tramado-vermelho?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-uva?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/casaco-capita-tramare-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/eehoa275u-camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/xzpuirwul-body-decotado-amarracao-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-asa-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/body-gola-preto-?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-crepe-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-saia-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-julie?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/casaco-matelasse-7293531?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-cropped-de-linho-listrada?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-no-azul-serenity?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-envelope-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-manga-frufru?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/blusa-decote-x-nas-costas-7293525?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-bege?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-pareo-floral?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-com-pala-trabalhada-7293538?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-7293536?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-amarracao-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-azul-listrado?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-social-abacaxis?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-brisa-de-verao?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/hyisg1kig-blusa-bata-ciganinha-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/camisa-no-branca?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-estampa-nos?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/short-botao-duplo-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/lht4one7f-short-estampado-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/short-alfaiataria-em-linho-preto?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-bata-ciganinha?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/none-25839123?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vqp2nj0au-macacao-solto-estampa-aquarela?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-alcinha-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/saia-transpassada-tamanho-unico?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/kimono-micro-tule?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/zf021tqt6-vestido-amarracao-liberty?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-niponica?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/produto/vestido-boho-retro-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/calca-pantacourt-viscose?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/vestido-sino-bolas-azul?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/blusa-ampla-crepe-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/macacao-xadrez-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/b53ri9tbi-body-decotado-branco?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
-  </si>
-  <si>
-    <t>https://loja.evapore.com.br/yvtwldbb6-blusa-listras-verde?utm_source=Site&amp;utm_medium=Facebook&amp;utm_campaign=Facebook</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26086498/a9779818fe.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30325568/abd8842385.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797842/b253bfd99e.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327131/01f46f47b6.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328055/968e530f7d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797337/4f7418aee4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327160/cb5077a921.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512403/ff96ed5f25.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239858/37c42fd7a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22941985/806cc7ee41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327703/f9a5f9c113.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25986585/a87ed04f04.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25955022/591f8e81a5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327988/1ee23d3318.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26089909/9188022673.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327789/1682566cd5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26027738/1e73c30eb3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23239000/6bb6ece85e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29265282/a71a3f41e5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26705595/cd29a1bd71.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327825/db43e6d1d3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240731/9f5d878ee7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26700101/b347bffd2e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26086498/a9779818fe.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327911/11e59e3e47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327330/2a4124e183.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121167/16ac909471.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227986/0e8681f93d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327624/2ead9a336e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327389/15e3adafd8.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327492/8e97e01d5b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326625/51675c8ac4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122422/70538bf677.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327567/450d2f2416.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30231833/d7edf3577f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227889/4c2ee6cc5c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30227809/8aec59dfac.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228398/dde7f6bf47.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933984/199e1940ae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27512115/e762237b3f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30117699/ec31a931a9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327939/1bd0c19d67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25762793/0984a7ba90.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23110650/9fbe6df648.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352588/7775791b85.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25950249/bd85a41f53.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23210870/07c719d7c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796596/e0315ac703.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/13447523/12da195a62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26482822/59e578f5fd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352254/d95073c5e7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932115/e222a26e14.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25760974/ca6ca5ea35.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293523/f9c60ab8c2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30118514/37dc609ff9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26668547/8b2086714b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/11952252/d08d1a81f0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26706307/0af4e4bec0.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796726/c6b487c2de.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25763947/6b583d3f13.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957936/31c793ee62.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942307/c40f82ed42.jpg</t>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980885/1c4d40cb95.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29365439/d718f3785a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9827067/a253352f2b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327862/715039312d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797793/666ab0f962.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9826767/4ad2df4313.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149684/0422fe468d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25989857/e2d117968e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
   </si>
   <si>
     <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30228192/ffdf407a05.jpg</t>
   </si>
   <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327997/64a0d6b76b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328015/cfe8f4b590.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30122086/008c9fa10c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30328032/f8c6665c5b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23067187/6f22aabf41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796255/7c27a4040a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364374/7f118947b5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25989857/e2d117968e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/27352076/732f53908d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940679/fc346b2364.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/28107860/c2dcbc26d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26605138/5345f02387.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25991845/01dc6244c7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29365439/d718f3785a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9827067/a253352f2b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22932350/f938265791.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29364138/c4df180689.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796440/5bb1ad6e67.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120136/2373fb1609.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980111/6a51a8494c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981246/f53bcce1ea.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943553/af82a988bf.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26147916/a36715a422.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798648/5f8b60e561.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26014484/c353771789.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25766395/efd8e9eeb6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981131/af27e6fda9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9796027/450aef7a41.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26702925/d9d1340256.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8150013/d14f2fad9a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943670/bbc995df51.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25949004/14d6392265.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25957248/68327d10d2.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940437/c53cdf9032.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797793/666ab0f962.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9826767/4ad2df4313.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25990792/bcb4dbad84.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7307619/5c64e63ba5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9798072/5b911a0067.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9794837/8d31bd9a3e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25988466/630f17a676.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26669604/24ee83adc7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25837034/e3ddd8cba4.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25770355/c575bd01ff.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29367354/b952c0bfe5.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9797724/40ef5c6ae9.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30233012/3b7f5f0a8c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25992875/249fe7549a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26981035/3e586c1c91.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26093216/931e4d8f4f.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30120444/ceb9be258c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942042/f43f005f03.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942990/6cd34b506d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293531/3e7464b7dc.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22940736/6976ac3a64.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22934355/e713f73a1e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795849/ccb44cc670.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25768089/7d0ef8cb88.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293525/ded087301a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26980885/1c4d40cb95.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942003/1bd1319fab.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293538/15303944cb.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/7293536/5a2b59d9dd.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22942172/66c0df9c5a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149442/137cbd025d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25818648/e331b3bb3b.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23240500/8b771ffe31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26085987/c9cb431225.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22943467/fc117e5aae.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/9795109/bcb2f81f29.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26091267/089c93aeca.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26023325/4592608c94.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149342/d3f2d30581.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26022325/44a6a4c2a7.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25839123/dcb213ebba.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25987887/330a2fac74.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/22933710/5bfa23425a.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/25838113/1c2043b349.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/23148707/8a16cabf5e.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/29368618/0fe08dfbf3.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/26152460/2a59194843.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/8149684/0422fe468d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327862/715039312d.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327241/df53f88b31.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30121486/7241dca38c.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327530/332c6ba487.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30327108/0ad4d5ead6.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.awsli.com.br/600x600/245/245167/produto/30326532/0beb9a304a.jpg</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -2187,145 +2187,145 @@
     <t>in stock</t>
   </si>
   <si>
+    <t>199.00 BRL</t>
+  </si>
+  <si>
+    <t>179.00 BRL</t>
+  </si>
+  <si>
+    <t>279.00 BRL</t>
+  </si>
+  <si>
+    <t>159.00 BRL</t>
+  </si>
+  <si>
+    <t>129.00 BRL</t>
+  </si>
+  <si>
+    <t>139.00 BRL</t>
+  </si>
+  <si>
+    <t>169.00 BRL</t>
+  </si>
+  <si>
+    <t>239.00 BRL</t>
+  </si>
+  <si>
+    <t>269.00 BRL</t>
+  </si>
+  <si>
+    <t>189.00 BRL</t>
+  </si>
+  <si>
+    <t>259.00 BRL</t>
+  </si>
+  <si>
+    <t>109.00 BRL</t>
+  </si>
+  <si>
+    <t>99.00 BRL</t>
+  </si>
+  <si>
+    <t>249.00 BRL</t>
+  </si>
+  <si>
+    <t>149.00 BRL</t>
+  </si>
+  <si>
+    <t>89.00 BRL</t>
+  </si>
+  <si>
+    <t>289.00 BRL</t>
+  </si>
+  <si>
     <t>59.00 BRL</t>
   </si>
   <si>
-    <t>89.00 BRL</t>
-  </si>
-  <si>
-    <t>179.00 BRL</t>
-  </si>
-  <si>
-    <t>109.00 BRL</t>
-  </si>
-  <si>
-    <t>169.00 BRL</t>
-  </si>
-  <si>
-    <t>249.00 BRL</t>
-  </si>
-  <si>
-    <t>149.00 BRL</t>
-  </si>
-  <si>
-    <t>199.00 BRL</t>
-  </si>
-  <si>
-    <t>129.00 BRL</t>
-  </si>
-  <si>
-    <t>99.00 BRL</t>
-  </si>
-  <si>
-    <t>139.00 BRL</t>
-  </si>
-  <si>
-    <t>279.00 BRL</t>
-  </si>
-  <si>
-    <t>269.00 BRL</t>
-  </si>
-  <si>
-    <t>259.00 BRL</t>
-  </si>
-  <si>
-    <t>189.00 BRL</t>
-  </si>
-  <si>
-    <t>239.00 BRL</t>
-  </si>
-  <si>
-    <t>159.00 BRL</t>
-  </si>
-  <si>
     <t>69.00 BRL</t>
   </si>
   <si>
-    <t>289.00 BRL</t>
+    <t>75.00 BRL</t>
+  </si>
+  <si>
+    <t>209.00 BRL</t>
   </si>
   <si>
     <t>219.00 BRL</t>
   </si>
   <si>
+    <t>119.00 BRL</t>
+  </si>
+  <si>
     <t>229.00 BRL</t>
   </si>
   <si>
-    <t>119.00 BRL</t>
+    <t>270.00 BRL</t>
+  </si>
+  <si>
+    <t>359.00 BRL</t>
+  </si>
+  <si>
+    <t>309.00 BRL</t>
+  </si>
+  <si>
+    <t>79.00 BRL</t>
+  </si>
+  <si>
+    <t>45.00 BRL</t>
+  </si>
+  <si>
+    <t>349.00 BRL</t>
+  </si>
+  <si>
+    <t>230.00 BRL</t>
   </si>
   <si>
     <t>195.00 BRL</t>
   </si>
   <si>
-    <t>209.00 BRL</t>
-  </si>
-  <si>
     <t>175.00 BRL</t>
   </si>
   <si>
-    <t>359.00 BRL</t>
-  </si>
-  <si>
-    <t>45.00 BRL</t>
-  </si>
-  <si>
-    <t>230.00 BRL</t>
-  </si>
-  <si>
-    <t>349.00 BRL</t>
-  </si>
-  <si>
-    <t>75.00 BRL</t>
-  </si>
-  <si>
-    <t>309.00 BRL</t>
-  </si>
-  <si>
-    <t>270.00 BRL</t>
-  </si>
-  <si>
-    <t>79.00 BRL</t>
+    <t>Sem categoria</t>
   </si>
   <si>
     <t>Blusas e Camisas</t>
   </si>
   <si>
-    <t>Sem categoria</t>
-  </si>
-  <si>
     <t>Macacões</t>
   </si>
   <si>
+    <t>Bodys</t>
+  </si>
+  <si>
+    <t>Saias</t>
+  </si>
+  <si>
+    <t>Vestidos</t>
+  </si>
+  <si>
     <t>Calças</t>
   </si>
   <si>
-    <t>Saias</t>
+    <t>Kimonos</t>
+  </si>
+  <si>
+    <t>Casacos e Blazers</t>
+  </si>
+  <si>
+    <t>sale</t>
   </si>
   <si>
     <t>Shorts</t>
   </si>
   <si>
-    <t>Kimonos</t>
-  </si>
-  <si>
-    <t>Casacos e Blazers</t>
-  </si>
-  <si>
-    <t>Vestidos</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>Bodys</t>
-  </si>
-  <si>
     <t>Para malhar</t>
   </si>
   <si>
+    <t>190.00 BRL</t>
+  </si>
+  <si>
     <t>105.00 BRL</t>
-  </si>
-  <si>
-    <t>190.00 BRL</t>
   </si>
 </sst>
 </file>
@@ -2939,10 +2939,10 @@
         <v>718</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -2969,7 +2969,7 @@
         <v>171</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>418</v>
@@ -2987,10 +2987,10 @@
         <v>718</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -3035,10 +3035,10 @@
         <v>718</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -3065,7 +3065,7 @@
         <v>173</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>420</v>
@@ -3083,10 +3083,10 @@
         <v>718</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>174</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>421</v>
@@ -3131,10 +3131,10 @@
         <v>718</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -3161,7 +3161,7 @@
         <v>175</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>422</v>
@@ -3182,7 +3182,7 @@
         <v>723</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -3209,7 +3209,7 @@
         <v>176</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>423</v>
@@ -3227,10 +3227,10 @@
         <v>718</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="P9" s="1"/>
     </row>
@@ -3257,7 +3257,7 @@
         <v>177</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>424</v>
@@ -3275,10 +3275,10 @@
         <v>718</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -3305,7 +3305,7 @@
         <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>425</v>
@@ -3323,10 +3323,10 @@
         <v>718</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -3353,7 +3353,7 @@
         <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>426</v>
@@ -3371,10 +3371,10 @@
         <v>718</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -3401,7 +3401,7 @@
         <v>180</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>427</v>
@@ -3419,10 +3419,10 @@
         <v>718</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P13" s="1"/>
     </row>
@@ -3449,7 +3449,7 @@
         <v>181</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>428</v>
@@ -3467,10 +3467,10 @@
         <v>718</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -3497,7 +3497,7 @@
         <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>429</v>
@@ -3515,7 +3515,7 @@
         <v>718</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>752</v>
@@ -3545,7 +3545,7 @@
         <v>183</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>430</v>
@@ -3563,7 +3563,7 @@
         <v>718</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>758</v>
@@ -3593,7 +3593,7 @@
         <v>184</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>431</v>
@@ -3611,10 +3611,10 @@
         <v>718</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -3641,7 +3641,7 @@
         <v>185</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>432</v>
@@ -3659,14 +3659,12 @@
         <v>718</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3691,7 +3689,7 @@
         <v>186</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>433</v>
@@ -3709,10 +3707,10 @@
         <v>718</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3739,7 +3737,7 @@
         <v>187</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>434</v>
@@ -3757,10 +3755,10 @@
         <v>718</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -3787,7 +3785,7 @@
         <v>188</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>435</v>
@@ -3805,10 +3803,10 @@
         <v>718</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3835,7 +3833,7 @@
         <v>189</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>436</v>
@@ -3856,7 +3854,7 @@
         <v>721</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -3883,7 +3881,7 @@
         <v>190</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>437</v>
@@ -3901,10 +3899,10 @@
         <v>718</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -3931,7 +3929,7 @@
         <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>438</v>
@@ -3949,10 +3947,10 @@
         <v>718</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P24" s="1"/>
     </row>
@@ -3979,7 +3977,7 @@
         <v>192</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>439</v>
@@ -3997,10 +3995,10 @@
         <v>718</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="P25" s="1"/>
     </row>
@@ -4027,7 +4025,7 @@
         <v>193</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>440</v>
@@ -4045,7 +4043,7 @@
         <v>718</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>753</v>
@@ -4075,7 +4073,7 @@
         <v>194</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>441</v>
@@ -4093,10 +4091,10 @@
         <v>718</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -4123,7 +4121,7 @@
         <v>195</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>442</v>
@@ -4141,10 +4139,10 @@
         <v>718</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -4171,7 +4169,7 @@
         <v>196</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>443</v>
@@ -4189,10 +4187,10 @@
         <v>718</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -4219,7 +4217,7 @@
         <v>197</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>444</v>
@@ -4267,7 +4265,7 @@
         <v>198</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>445</v>
@@ -4285,10 +4283,10 @@
         <v>718</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -4315,7 +4313,7 @@
         <v>199</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>446</v>
@@ -4333,10 +4331,10 @@
         <v>718</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -4363,7 +4361,7 @@
         <v>200</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>447</v>
@@ -4384,7 +4382,7 @@
         <v>733</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P33" s="1"/>
     </row>
@@ -4411,7 +4409,7 @@
         <v>201</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>448</v>
@@ -4429,10 +4427,10 @@
         <v>718</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="P34" s="1"/>
     </row>
@@ -4459,7 +4457,7 @@
         <v>202</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>449</v>
@@ -4477,7 +4475,7 @@
         <v>718</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>753</v>
@@ -4507,7 +4505,7 @@
         <v>203</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>450</v>
@@ -4525,10 +4523,10 @@
         <v>718</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P36" s="1"/>
     </row>
@@ -4555,7 +4553,7 @@
         <v>204</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>451</v>
@@ -4573,10 +4571,10 @@
         <v>718</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="P37" s="1"/>
     </row>
@@ -4603,7 +4601,7 @@
         <v>205</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>452</v>
@@ -4621,10 +4619,10 @@
         <v>718</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="P38" s="1"/>
     </row>
@@ -4651,7 +4649,7 @@
         <v>206</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>453</v>
@@ -4669,10 +4667,10 @@
         <v>718</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P39" s="1"/>
     </row>
@@ -4699,7 +4697,7 @@
         <v>207</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>454</v>
@@ -4717,10 +4715,10 @@
         <v>718</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P40" s="1"/>
     </row>
@@ -4747,7 +4745,7 @@
         <v>208</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>455</v>
@@ -4765,10 +4763,10 @@
         <v>718</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="P41" s="1"/>
     </row>
@@ -4795,7 +4793,7 @@
         <v>209</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>456</v>
@@ -4813,10 +4811,10 @@
         <v>718</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="P42" s="1"/>
     </row>
@@ -4843,7 +4841,7 @@
         <v>210</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>457</v>
@@ -4861,10 +4859,10 @@
         <v>718</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P43" s="1"/>
     </row>
@@ -4891,7 +4889,7 @@
         <v>211</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>458</v>
@@ -4909,10 +4907,10 @@
         <v>718</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="P44" s="1"/>
     </row>
@@ -4939,7 +4937,7 @@
         <v>212</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>459</v>
@@ -4957,10 +4955,10 @@
         <v>718</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P45" s="1"/>
     </row>
@@ -4987,7 +4985,7 @@
         <v>213</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>460</v>
@@ -5005,10 +5003,10 @@
         <v>718</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="P46" s="1"/>
     </row>
@@ -5035,7 +5033,7 @@
         <v>214</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>461</v>
@@ -5053,10 +5051,10 @@
         <v>718</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P47" s="1"/>
     </row>
@@ -5083,7 +5081,7 @@
         <v>215</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>462</v>
@@ -5101,10 +5099,10 @@
         <v>718</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P48" s="1"/>
     </row>
@@ -5131,7 +5129,7 @@
         <v>216</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>463</v>
@@ -5149,7 +5147,7 @@
         <v>718</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>752</v>
@@ -5179,7 +5177,7 @@
         <v>217</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>464</v>
@@ -5197,10 +5195,10 @@
         <v>718</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="P50" s="1"/>
     </row>
@@ -5227,7 +5225,7 @@
         <v>218</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>465</v>
@@ -5245,7 +5243,7 @@
         <v>718</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>753</v>
@@ -5275,7 +5273,7 @@
         <v>219</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>466</v>
@@ -5293,10 +5291,10 @@
         <v>718</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P52" s="1"/>
     </row>
@@ -5323,7 +5321,7 @@
         <v>220</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>467</v>
@@ -5341,10 +5339,10 @@
         <v>718</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P53" s="1"/>
     </row>
@@ -5389,12 +5387,14 @@
         <v>718</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="P54" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="55" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -5419,7 +5419,7 @@
         <v>222</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>469</v>
@@ -5437,7 +5437,7 @@
         <v>718</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>752</v>
@@ -5467,7 +5467,7 @@
         <v>223</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>470</v>
@@ -5485,7 +5485,7 @@
         <v>718</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>753</v>
@@ -5515,7 +5515,7 @@
         <v>224</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>471</v>
@@ -5533,14 +5533,12 @@
         <v>718</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>723</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -5565,7 +5563,7 @@
         <v>225</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>472</v>
@@ -5583,10 +5581,10 @@
         <v>718</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="P58" s="1"/>
     </row>
@@ -5613,7 +5611,7 @@
         <v>226</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>473</v>
@@ -5631,12 +5629,14 @@
         <v>718</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="P59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -5661,7 +5661,7 @@
         <v>227</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>474</v>
@@ -5679,7 +5679,7 @@
         <v>718</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>752</v>
@@ -5709,7 +5709,7 @@
         <v>228</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>475</v>
@@ -5727,7 +5727,7 @@
         <v>718</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>762</v>
@@ -5757,7 +5757,7 @@
         <v>229</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>476</v>
@@ -5775,10 +5775,10 @@
         <v>718</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="P62" s="1"/>
     </row>
@@ -5805,7 +5805,7 @@
         <v>230</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>477</v>
@@ -5823,10 +5823,10 @@
         <v>718</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P63" s="1"/>
     </row>
@@ -5853,7 +5853,7 @@
         <v>231</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>478</v>
@@ -5871,10 +5871,10 @@
         <v>718</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P64" s="1"/>
     </row>
@@ -5901,7 +5901,7 @@
         <v>232</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>479</v>
@@ -5919,10 +5919,10 @@
         <v>718</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="P65" s="1"/>
     </row>
@@ -5949,7 +5949,7 @@
         <v>233</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>480</v>
@@ -5967,10 +5967,10 @@
         <v>718</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="P66" s="1"/>
     </row>
@@ -5997,7 +5997,7 @@
         <v>234</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>481</v>
@@ -6015,10 +6015,10 @@
         <v>718</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="P67" s="1"/>
     </row>
@@ -6045,7 +6045,7 @@
         <v>235</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>482</v>
@@ -6063,10 +6063,10 @@
         <v>718</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="P68" s="1"/>
     </row>
@@ -6093,7 +6093,7 @@
         <v>236</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>483</v>
@@ -6111,14 +6111,12 @@
         <v>718</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>729</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="P69" s="1"/>
     </row>
     <row r="70" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -6143,7 +6141,7 @@
         <v>237</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>484</v>
@@ -6161,10 +6159,10 @@
         <v>718</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="P70" s="1"/>
     </row>
@@ -6191,7 +6189,7 @@
         <v>238</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>485</v>
@@ -6209,10 +6207,10 @@
         <v>718</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="P71" s="1"/>
     </row>
@@ -6239,7 +6237,7 @@
         <v>239</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>486</v>
@@ -6257,10 +6255,10 @@
         <v>718</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="P72" s="1"/>
     </row>
@@ -6287,7 +6285,7 @@
         <v>240</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>487</v>
@@ -6305,12 +6303,14 @@
         <v>718</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P73" s="1"/>
+        <v>753</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="74" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -6335,7 +6335,7 @@
         <v>241</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>488</v>
@@ -6353,7 +6353,7 @@
         <v>718</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>753</v>
@@ -6383,7 +6383,7 @@
         <v>242</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>489</v>
@@ -6401,10 +6401,10 @@
         <v>718</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P75" s="1"/>
     </row>
@@ -6431,7 +6431,7 @@
         <v>243</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>490</v>
@@ -6449,7 +6449,7 @@
         <v>718</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>753</v>
@@ -6479,7 +6479,7 @@
         <v>244</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>491</v>
@@ -6497,10 +6497,10 @@
         <v>718</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="P77" s="1"/>
     </row>
@@ -6527,7 +6527,7 @@
         <v>245</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>492</v>
@@ -6545,10 +6545,10 @@
         <v>718</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="P78" s="1"/>
     </row>
@@ -6575,7 +6575,7 @@
         <v>246</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>493</v>
@@ -6593,14 +6593,12 @@
         <v>718</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>723</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -6625,7 +6623,7 @@
         <v>247</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>494</v>
@@ -6643,12 +6641,14 @@
         <v>718</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="P80" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="81" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -6673,7 +6673,7 @@
         <v>248</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>495</v>
@@ -6691,13 +6691,13 @@
         <v>718</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -6723,7 +6723,7 @@
         <v>249</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>496</v>
@@ -6741,10 +6741,10 @@
         <v>718</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="P82" s="1"/>
     </row>
@@ -6771,7 +6771,7 @@
         <v>250</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>497</v>
@@ -6789,10 +6789,10 @@
         <v>718</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="P83" s="1"/>
     </row>
@@ -6819,7 +6819,7 @@
         <v>251</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>498</v>
@@ -6837,10 +6837,10 @@
         <v>718</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="P84" s="1"/>
     </row>
@@ -6867,7 +6867,7 @@
         <v>252</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>499</v>
@@ -6885,10 +6885,10 @@
         <v>718</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P85" s="1"/>
     </row>
@@ -6915,7 +6915,7 @@
         <v>253</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>500</v>
@@ -6936,7 +6936,7 @@
         <v>742</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P86" s="1"/>
     </row>
@@ -6963,7 +6963,7 @@
         <v>254</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>501</v>
@@ -6981,14 +6981,12 @@
         <v>718</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>742</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="P87" s="1"/>
     </row>
     <row r="88" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -7013,7 +7011,7 @@
         <v>255</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>502</v>
@@ -7031,10 +7029,10 @@
         <v>718</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="P88" s="1"/>
     </row>
@@ -7061,7 +7059,7 @@
         <v>256</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>503</v>
@@ -7079,12 +7077,14 @@
         <v>718</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="P89" s="1"/>
+        <v>762</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="90" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -7109,7 +7109,7 @@
         <v>257</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>504</v>
@@ -7127,10 +7127,10 @@
         <v>718</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P90" s="1"/>
     </row>
@@ -7157,7 +7157,7 @@
         <v>258</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>505</v>
@@ -7175,14 +7175,12 @@
         <v>718</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>727</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -7207,7 +7205,7 @@
         <v>259</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>506</v>
@@ -7225,10 +7223,10 @@
         <v>718</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P92" s="1"/>
     </row>
@@ -7255,7 +7253,7 @@
         <v>260</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>507</v>
@@ -7273,14 +7271,12 @@
         <v>718</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>764</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P93" s="1"/>
     </row>
     <row r="94" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -7305,7 +7301,7 @@
         <v>261</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>508</v>
@@ -7323,12 +7319,14 @@
         <v>718</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="P94" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="95" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -7353,7 +7351,7 @@
         <v>262</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>509</v>
@@ -7371,12 +7369,14 @@
         <v>718</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="P95" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="96" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -7401,7 +7401,7 @@
         <v>263</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>510</v>
@@ -7419,10 +7419,10 @@
         <v>718</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="P96" s="1"/>
     </row>
@@ -7449,7 +7449,7 @@
         <v>264</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>511</v>
@@ -7467,12 +7467,14 @@
         <v>718</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="P97" s="1"/>
+        <v>761</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="98" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -7497,7 +7499,7 @@
         <v>265</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>512</v>
@@ -7515,13 +7517,13 @@
         <v>718</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -7547,7 +7549,7 @@
         <v>266</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>513</v>
@@ -7565,10 +7567,10 @@
         <v>718</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P99" s="1"/>
     </row>
@@ -7595,7 +7597,7 @@
         <v>267</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>514</v>
@@ -7616,7 +7618,7 @@
         <v>725</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P100" s="1"/>
     </row>
@@ -7643,7 +7645,7 @@
         <v>268</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>515</v>
@@ -7661,10 +7663,10 @@
         <v>718</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P101" s="1"/>
     </row>
@@ -7691,7 +7693,7 @@
         <v>269</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>516</v>
@@ -7709,10 +7711,10 @@
         <v>718</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P102" s="1"/>
     </row>
@@ -7739,7 +7741,7 @@
         <v>270</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>517</v>
@@ -7757,12 +7759,14 @@
         <v>718</v>
       </c>
       <c r="N103" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="P103" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="P103" s="1"/>
     </row>
     <row r="104" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -7787,7 +7791,7 @@
         <v>271</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>518</v>
@@ -7805,10 +7809,10 @@
         <v>718</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P104" s="1"/>
     </row>
@@ -7835,7 +7839,7 @@
         <v>272</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>519</v>
@@ -7853,7 +7857,7 @@
         <v>718</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>752</v>
@@ -7883,7 +7887,7 @@
         <v>273</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>520</v>
@@ -7901,7 +7905,7 @@
         <v>718</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>754</v>
@@ -7931,7 +7935,7 @@
         <v>274</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>521</v>
@@ -7949,7 +7953,7 @@
         <v>718</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>753</v>
@@ -7979,7 +7983,7 @@
         <v>275</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>522</v>
@@ -7997,10 +8001,10 @@
         <v>718</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="P108" s="1"/>
     </row>
@@ -8027,7 +8031,7 @@
         <v>276</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>523</v>
@@ -8045,14 +8049,12 @@
         <v>718</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>737</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -8077,7 +8079,7 @@
         <v>277</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>524</v>
@@ -8095,10 +8097,10 @@
         <v>718</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="P110" s="1"/>
     </row>
@@ -8125,7 +8127,7 @@
         <v>278</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>525</v>
@@ -8143,10 +8145,10 @@
         <v>718</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="P111" s="1"/>
     </row>
@@ -8173,7 +8175,7 @@
         <v>279</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>526</v>
@@ -8191,10 +8193,10 @@
         <v>718</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="P112" s="1"/>
     </row>
@@ -8221,7 +8223,7 @@
         <v>280</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>527</v>
@@ -8239,7 +8241,7 @@
         <v>718</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>762</v>
@@ -8269,7 +8271,7 @@
         <v>281</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>528</v>
@@ -8287,10 +8289,10 @@
         <v>718</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="P114" s="1"/>
     </row>
@@ -8317,7 +8319,7 @@
         <v>282</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>529</v>
@@ -8335,10 +8337,10 @@
         <v>718</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="P115" s="1"/>
     </row>
@@ -8365,7 +8367,7 @@
         <v>283</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>530</v>
@@ -8383,10 +8385,10 @@
         <v>718</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P116" s="1"/>
     </row>
@@ -8413,7 +8415,7 @@
         <v>284</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>531</v>
@@ -8431,14 +8433,12 @@
         <v>718</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>742</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="P117" s="1"/>
     </row>
     <row r="118" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -8463,7 +8463,7 @@
         <v>285</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>532</v>
@@ -8481,10 +8481,10 @@
         <v>718</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P118" s="1"/>
     </row>
@@ -8511,7 +8511,7 @@
         <v>286</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>533</v>
@@ -8529,10 +8529,10 @@
         <v>718</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P119" s="1"/>
     </row>
@@ -8559,7 +8559,7 @@
         <v>287</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>534</v>
@@ -8577,13 +8577,13 @@
         <v>718</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -8609,7 +8609,7 @@
         <v>288</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>535</v>
@@ -8627,7 +8627,7 @@
         <v>718</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>752</v>
@@ -8657,7 +8657,7 @@
         <v>289</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>536</v>
@@ -8675,14 +8675,12 @@
         <v>718</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>719</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P122" s="1"/>
     </row>
     <row r="123" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -8707,7 +8705,7 @@
         <v>290</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>537</v>
@@ -8725,10 +8723,10 @@
         <v>718</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="P123" s="1"/>
     </row>
@@ -8755,7 +8753,7 @@
         <v>291</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>538</v>
@@ -8773,10 +8771,10 @@
         <v>718</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P124" s="1"/>
     </row>
@@ -8803,7 +8801,7 @@
         <v>292</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>539</v>
@@ -8821,14 +8819,12 @@
         <v>718</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>737</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="P125" s="1"/>
     </row>
     <row r="126" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8853,7 +8849,7 @@
         <v>293</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>540</v>
@@ -8871,7 +8867,7 @@
         <v>718</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>757</v>
@@ -8901,7 +8897,7 @@
         <v>294</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>541</v>
@@ -8919,12 +8915,14 @@
         <v>718</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="P127" s="1"/>
+      <c r="P127" s="1" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="128" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -8949,7 +8947,7 @@
         <v>295</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>542</v>
@@ -8967,14 +8965,12 @@
         <v>718</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>751</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P128" s="1"/>
     </row>
     <row r="129" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -8999,7 +8995,7 @@
         <v>296</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>543</v>
@@ -9017,10 +9013,10 @@
         <v>718</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P129" s="1"/>
     </row>
@@ -9047,7 +9043,7 @@
         <v>297</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>544</v>
@@ -9065,10 +9061,10 @@
         <v>718</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P130" s="1"/>
     </row>
@@ -9095,7 +9091,7 @@
         <v>298</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>545</v>
@@ -9113,10 +9109,10 @@
         <v>718</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P131" s="1"/>
     </row>
@@ -9143,7 +9139,7 @@
         <v>299</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>546</v>
@@ -9161,10 +9157,10 @@
         <v>718</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="P132" s="1"/>
     </row>
@@ -9191,7 +9187,7 @@
         <v>300</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>547</v>
@@ -9209,14 +9205,12 @@
         <v>718</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>726</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P133" s="1"/>
     </row>
     <row r="134" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -9241,7 +9235,7 @@
         <v>301</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>548</v>
@@ -9259,10 +9253,10 @@
         <v>718</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="P134" s="1"/>
     </row>
@@ -9289,7 +9283,7 @@
         <v>302</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>549</v>
@@ -9307,10 +9301,10 @@
         <v>718</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="P135" s="1"/>
     </row>
@@ -9337,7 +9331,7 @@
         <v>303</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>550</v>
@@ -9355,14 +9349,12 @@
         <v>718</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>751</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="P136" s="1"/>
     </row>
     <row r="137" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -9387,7 +9379,7 @@
         <v>304</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>551</v>
@@ -9405,7 +9397,7 @@
         <v>718</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>753</v>
@@ -9435,7 +9427,7 @@
         <v>305</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>552</v>
@@ -9453,10 +9445,10 @@
         <v>718</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P138" s="1"/>
     </row>
@@ -9483,7 +9475,7 @@
         <v>306</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>553</v>
@@ -9501,10 +9493,10 @@
         <v>718</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P139" s="1"/>
     </row>
@@ -9531,7 +9523,7 @@
         <v>307</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>554</v>
@@ -9549,12 +9541,14 @@
         <v>718</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="P140" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="141" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -9579,7 +9573,7 @@
         <v>308</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>555</v>
@@ -9597,12 +9591,14 @@
         <v>718</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="P141" s="1"/>
+        <v>752</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="142" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -9627,7 +9623,7 @@
         <v>309</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>556</v>
@@ -9645,12 +9641,14 @@
         <v>718</v>
       </c>
       <c r="N142" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="P142" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="O142" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="P142" s="1"/>
     </row>
     <row r="143" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -9675,7 +9673,7 @@
         <v>310</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>557</v>
@@ -9693,7 +9691,7 @@
         <v>718</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>753</v>
@@ -9723,7 +9721,7 @@
         <v>311</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>558</v>
@@ -9741,10 +9739,10 @@
         <v>718</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="P144" s="1"/>
     </row>
@@ -9771,7 +9769,7 @@
         <v>312</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>559</v>
@@ -9789,13 +9787,13 @@
         <v>718</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="390" x14ac:dyDescent="0.25">
@@ -9821,7 +9819,7 @@
         <v>313</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>560</v>
@@ -9839,10 +9837,10 @@
         <v>718</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P146" s="1"/>
     </row>
@@ -9869,7 +9867,7 @@
         <v>314</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>561</v>
@@ -9887,12 +9885,14 @@
         <v>718</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="P147" s="1"/>
+        <v>757</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="148" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -9917,7 +9917,7 @@
         <v>315</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>320</v>
+        <v>413</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>562</v>
@@ -9935,10 +9935,10 @@
         <v>718</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="P148" s="1"/>
     </row>
@@ -9965,7 +9965,7 @@
         <v>316</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>563</v>
@@ -9983,10 +9983,10 @@
         <v>718</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P149" s="1"/>
     </row>
@@ -10013,7 +10013,7 @@
         <v>317</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>564</v>
@@ -10031,7 +10031,7 @@
         <v>718</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>762</v>
@@ -10061,7 +10061,7 @@
         <v>318</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>320</v>
+        <v>415</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>565</v>
@@ -10079,10 +10079,10 @@
         <v>718</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="P151" s="1"/>
     </row>
